--- a/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
+++ b/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
@@ -438,7 +438,7 @@
         <v>1092414854.350568</v>
       </c>
       <c r="F2">
-        <v>-1.544647344879015E-08</v>
+        <v>-156677110.1056063</v>
       </c>
       <c r="G2">
         <v>209.110092138397</v>
@@ -461,7 +461,7 @@
         <v>5206248583.586316</v>
       </c>
       <c r="F3">
-        <v>1.802524638120297E-09</v>
+        <v>18519209.4692356</v>
       </c>
       <c r="G3">
         <v>363.2835654082753</v>
@@ -484,7 +484,7 @@
         <v>1039916995.203525</v>
       </c>
       <c r="F4">
-        <v>-9.262597084721621E-09</v>
+        <v>-95784039.45845836</v>
       </c>
       <c r="G4">
         <v>300.2634136864436</v>
@@ -507,7 +507,7 @@
         <v>680676876.5583919</v>
       </c>
       <c r="F5">
-        <v>-2.270660566395253E-08</v>
+        <v>-235150854.3567928</v>
       </c>
       <c r="G5">
         <v>249.632867166849</v>
@@ -530,7 +530,7 @@
         <v>579920772.9419634</v>
       </c>
       <c r="F6">
-        <v>2.07786550985991E-08</v>
+        <v>215585189.2373232</v>
       </c>
       <c r="G6">
         <v>-118.817428870391</v>
@@ -553,7 +553,7 @@
         <v>2487722571.704799</v>
       </c>
       <c r="F7">
-        <v>-5.983817182501139E-09</v>
+        <v>-62683098.96488434</v>
       </c>
       <c r="G7">
         <v>231.1386673049972</v>
@@ -576,7 +576,7 @@
         <v>1164347933.249144</v>
       </c>
       <c r="F8">
-        <v>-1.576064356964532E-08</v>
+        <v>-166611754.3473985</v>
       </c>
       <c r="G8">
         <v>53.21822221639219</v>
@@ -599,7 +599,7 @@
         <v>1427904249.565825</v>
       </c>
       <c r="F9">
-        <v>2.138956934231155E-09</v>
+        <v>22663026.0553909</v>
       </c>
       <c r="G9">
         <v>132.9702376056558</v>
@@ -622,7 +622,7 @@
         <v>4861451483.351841</v>
       </c>
       <c r="F10">
-        <v>2.678436347988159E-09</v>
+        <v>28409543.72762407</v>
       </c>
       <c r="G10">
         <v>369.2627661837664</v>
@@ -645,7 +645,7 @@
         <v>2369787863.916452</v>
       </c>
       <c r="F11">
-        <v>-4.266898279241372E-09</v>
+        <v>-45429471.48641107</v>
       </c>
       <c r="G11">
         <v>221.3481712655098</v>
@@ -668,7 +668,7 @@
         <v>2893465557.268535</v>
       </c>
       <c r="F12">
-        <v>-4.887100847058805E-09</v>
+        <v>-52285354.05180201</v>
       </c>
       <c r="G12">
         <v>203.3938889715005</v>
@@ -691,7 +691,7 @@
         <v>4898282972.106872</v>
       </c>
       <c r="F13">
-        <v>6.694145581171454E-10</v>
+        <v>7300468.186603961</v>
       </c>
       <c r="G13">
         <v>440.04664022485</v>
@@ -714,7 +714,7 @@
         <v>4769684636.022537</v>
       </c>
       <c r="F14">
-        <v>-3.466232884930975E-10</v>
+        <v>-3783279.059394291</v>
       </c>
       <c r="G14">
         <v>196.5138348174656</v>
@@ -737,7 +737,7 @@
         <v>1175894603.604178</v>
       </c>
       <c r="F15">
-        <v>-9.144346224379187E-09</v>
+        <v>-101648915.6019635</v>
       </c>
       <c r="G15">
         <v>163.5013882968728</v>
@@ -760,7 +760,7 @@
         <v>517253609.0199448</v>
       </c>
       <c r="F16">
-        <v>3.198266206485156E-09</v>
+        <v>35809794.85313801</v>
       </c>
       <c r="G16">
         <v>58.2879763077196</v>
@@ -783,7 +783,7 @@
         <v>651237286.9919277</v>
       </c>
       <c r="F17">
-        <v>-3.594523913798455E-08</v>
+        <v>-406184614.3090176</v>
       </c>
       <c r="G17">
         <v>55.24638439732712</v>
@@ -806,7 +806,7 @@
         <v>1483377073.555127</v>
       </c>
       <c r="F18">
-        <v>-7.712425790168475E-09</v>
+        <v>-87995685.52016665</v>
       </c>
       <c r="G18">
         <v>240.7584556362024</v>
@@ -829,7 +829,7 @@
         <v>5741618897.409628</v>
       </c>
       <c r="F19">
-        <v>-2.910778773170599E-10</v>
+        <v>-3332097.627462617</v>
       </c>
       <c r="G19">
         <v>234.7626117048913</v>
@@ -852,7 +852,7 @@
         <v>816452194.0869088</v>
       </c>
       <c r="F20">
-        <v>-2.109449834150542E-09</v>
+        <v>-24187923.80759507</v>
       </c>
       <c r="G20">
         <v>78.22169691553601</v>
@@ -875,7 +875,7 @@
         <v>3023016423.668905</v>
       </c>
       <c r="F21">
-        <v>-8.514947215188506E-11</v>
+        <v>-977415.4649770735</v>
       </c>
       <c r="G21">
         <v>211.4314352049752</v>
@@ -898,7 +898,7 @@
         <v>2268074095.879919</v>
       </c>
       <c r="F22">
-        <v>-4.452903509609485E-09</v>
+        <v>-51229562.94007045</v>
       </c>
       <c r="G22">
         <v>188.1546650230045</v>
@@ -921,7 +921,7 @@
         <v>1167710602.469932</v>
       </c>
       <c r="F23">
-        <v>-8.771544740724401E-09</v>
+        <v>-101261740.0364153</v>
       </c>
       <c r="G23">
         <v>156.1789013206684</v>
@@ -944,7 +944,7 @@
         <v>2620537720.623078</v>
       </c>
       <c r="F24">
-        <v>-7.416718898480453E-10</v>
+        <v>-8616107.045082089</v>
       </c>
       <c r="G24">
         <v>150.158336158803</v>
@@ -967,7 +967,7 @@
         <v>912103665.3756156</v>
       </c>
       <c r="F25">
-        <v>-1.332371307494179E-08</v>
+        <v>-155365542.5129987</v>
       </c>
       <c r="G25">
         <v>201.9466609972183</v>
@@ -990,7 +990,7 @@
         <v>6334397162.849628</v>
       </c>
       <c r="F26">
-        <v>4.805954238448229E-10</v>
+        <v>5619379.032977202</v>
       </c>
       <c r="G26">
         <v>242.1715747933119</v>
@@ -1013,7 +1013,7 @@
         <v>2907342842.092541</v>
       </c>
       <c r="F27">
-        <v>-1.988145627639873E-09</v>
+        <v>-23491007.64812877</v>
       </c>
       <c r="G27">
         <v>238.6633748817404</v>
@@ -1036,7 +1036,7 @@
         <v>3650308171.970758</v>
       </c>
       <c r="F28">
-        <v>4.113384981737244E-10</v>
+        <v>4861517.001753004</v>
       </c>
       <c r="G28">
         <v>209.894352961243</v>
@@ -1059,7 +1059,7 @@
         <v>5367784831.088258</v>
       </c>
       <c r="F29">
-        <v>6.074186494679827E-10</v>
+        <v>7306275.050283175</v>
       </c>
       <c r="G29">
         <v>437.9865704075818</v>
@@ -1082,7 +1082,7 @@
         <v>5502191211.121552</v>
       </c>
       <c r="F30">
-        <v>-2.977058105338346E-10</v>
+        <v>-3667309.38911736</v>
       </c>
       <c r="G30">
         <v>338.6320776117072</v>
@@ -1105,7 +1105,7 @@
         <v>1109103792.656712</v>
       </c>
       <c r="F31">
-        <v>-2.019763207059904E-09</v>
+        <v>-25102531.12714076</v>
       </c>
       <c r="G31">
         <v>164.6814456252225</v>
@@ -1128,7 +1128,7 @@
         <v>2276211567.059862</v>
       </c>
       <c r="F32">
-        <v>-1.91495584472234E-09</v>
+        <v>-23994375.32402267</v>
       </c>
       <c r="G32">
         <v>277.6895329283418</v>
@@ -1151,7 +1151,7 @@
         <v>2230216978.745636</v>
       </c>
       <c r="F33">
-        <v>-2.222223980356118E-09</v>
+        <v>-28263552.39839941</v>
       </c>
       <c r="G33">
         <v>175.0261407137777</v>
@@ -1174,7 +1174,7 @@
         <v>4012371034.929343</v>
       </c>
       <c r="F34">
-        <v>-7.439869638292425E-10</v>
+        <v>-9957776.974086111</v>
       </c>
       <c r="G34">
         <v>253.6373431923298</v>
@@ -1197,7 +1197,7 @@
         <v>1423530335.532048</v>
       </c>
       <c r="F35">
-        <v>-3.574845553543127E-09</v>
+        <v>-48341681.80190385</v>
       </c>
       <c r="G35">
         <v>294.6869318163317</v>
@@ -1220,7 +1220,7 @@
         <v>5131435504.372919</v>
       </c>
       <c r="F36">
-        <v>-6.234912603522473E-10</v>
+        <v>-8438671.782919452</v>
       </c>
       <c r="G36">
         <v>208.4593297016262</v>
@@ -1243,7 +1243,7 @@
         <v>3567627233.572556</v>
       </c>
       <c r="F37">
-        <v>-9.984103487400643E-10</v>
+        <v>-13690480.77423065</v>
       </c>
       <c r="G37">
         <v>257.6479066640685</v>
@@ -1266,7 +1266,7 @@
         <v>3740177205.343518</v>
       </c>
       <c r="F38">
-        <v>-4.044165556128844E-10</v>
+        <v>-5682019.626809872</v>
       </c>
       <c r="G38">
         <v>278.1147539102653</v>
@@ -1289,7 +1289,7 @@
         <v>4551789703.786042</v>
       </c>
       <c r="F39">
-        <v>5.224970366534061E-10</v>
+        <v>7373565.200082134</v>
       </c>
       <c r="G39">
         <v>228.2972618982217</v>
@@ -1312,7 +1312,7 @@
         <v>3735533218.436416</v>
       </c>
       <c r="F40">
-        <v>-3.947218141290915E-09</v>
+        <v>-58420175.82534759</v>
       </c>
       <c r="G40">
         <v>-78.82258140793543</v>
@@ -1335,7 +1335,7 @@
         <v>5920332872.86448</v>
       </c>
       <c r="F41">
-        <v>5.450860916911807E-10</v>
+        <v>8343150.216613088</v>
       </c>
       <c r="G41">
         <v>293.786195995636</v>
@@ -1358,7 +1358,7 @@
         <v>1719662461.027918</v>
       </c>
       <c r="F42">
-        <v>1.058086426772724E-09</v>
+        <v>17818425.38171053</v>
       </c>
       <c r="G42">
         <v>60.52873280376289</v>
@@ -1381,7 +1381,7 @@
         <v>2052153873.602626</v>
       </c>
       <c r="F43">
-        <v>-3.620125573484368E-10</v>
+        <v>-6126794.508152236</v>
       </c>
       <c r="G43">
         <v>84.10917700767887</v>
@@ -1404,7 +1404,7 @@
         <v>5053048059.109766</v>
       </c>
       <c r="F44">
-        <v>-1.600231929229753E-09</v>
+        <v>-29709112.09872661</v>
       </c>
       <c r="G44">
         <v>195.1901477600028</v>
@@ -1427,7 +1427,7 @@
         <v>4078361117.601238</v>
       </c>
       <c r="F45">
-        <v>1.662864922461764E-09</v>
+        <v>33204587.71600025</v>
       </c>
       <c r="G45">
         <v>448.9066877308219</v>
@@ -1450,7 +1450,7 @@
         <v>3234104353.83377</v>
       </c>
       <c r="F46">
-        <v>3.979092676984455E-10</v>
+        <v>7962682.93565054</v>
       </c>
       <c r="G46">
         <v>161.3177175190825</v>
@@ -1473,7 +1473,7 @@
         <v>3292310950.058791</v>
       </c>
       <c r="F47">
-        <v>3.939135022071648E-10</v>
+        <v>8322813.517383904</v>
       </c>
       <c r="G47">
         <v>213.8464966395116</v>
@@ -1496,7 +1496,7 @@
         <v>484919102.1449975</v>
       </c>
       <c r="F48">
-        <v>1.736915421216534E-09</v>
+        <v>37658692.86906283</v>
       </c>
       <c r="G48">
         <v>-51.88218762412625</v>
@@ -1519,7 +1519,7 @@
         <v>1956128998.876171</v>
       </c>
       <c r="F49">
-        <v>-2.833159523882541E-09</v>
+        <v>-63107876.30689377</v>
       </c>
       <c r="G49">
         <v>68.71090987194373</v>
@@ -1542,7 +1542,7 @@
         <v>3958370237.736347</v>
       </c>
       <c r="F50">
-        <v>-3.3348344075996E-10</v>
+        <v>-7461850.332053294</v>
       </c>
       <c r="G50">
         <v>213.2540066162134</v>
@@ -1565,7 +1565,7 @@
         <v>885320110.7129227</v>
       </c>
       <c r="F51">
-        <v>7.929103294786978E-10</v>
+        <v>18408945.50113069</v>
       </c>
       <c r="G51">
         <v>55.85954716125617</v>
@@ -1588,7 +1588,7 @@
         <v>2893479150.314776</v>
       </c>
       <c r="F52">
-        <v>-1.111899631608442E-09</v>
+        <v>-25835291.56025861</v>
       </c>
       <c r="G52">
         <v>281.6710125485241</v>
@@ -1611,7 +1611,7 @@
         <v>856868878.490669</v>
       </c>
       <c r="F53">
-        <v>-5.173699641342938E-09</v>
+        <v>-126876111.3540012</v>
       </c>
       <c r="G53">
         <v>359.3501419186555</v>
@@ -1634,7 +1634,7 @@
         <v>3698188201.947296</v>
       </c>
       <c r="F54">
-        <v>-2.871944168954919E-10</v>
+        <v>-7148187.431506136</v>
       </c>
       <c r="G54">
         <v>221.9724054358576</v>
@@ -1657,7 +1657,7 @@
         <v>2922384018.712894</v>
       </c>
       <c r="F55">
-        <v>3.489170536384955E-10</v>
+        <v>8848614.204445509</v>
       </c>
       <c r="G55">
         <v>225.6869093191555</v>
@@ -1680,7 +1680,7 @@
         <v>4279152310.849101</v>
       </c>
       <c r="F56">
-        <v>1.60953830371774E-10</v>
+        <v>4111393.746382472</v>
       </c>
       <c r="G56">
         <v>350.9627206966982</v>
@@ -1703,7 +1703,7 @@
         <v>2966110426.167465</v>
       </c>
       <c r="F57">
-        <v>2.678671249737209E-09</v>
+        <v>68640944.86805318</v>
       </c>
       <c r="G57">
         <v>-127.9523652009337</v>
@@ -1726,7 +1726,7 @@
         <v>3337081972.08334</v>
       </c>
       <c r="F58">
-        <v>-4.752497212969687E-10</v>
+        <v>-12799969.90510492</v>
       </c>
       <c r="G58">
         <v>334.645859331857</v>
@@ -1749,7 +1749,7 @@
         <v>2273626482.28181</v>
       </c>
       <c r="F59">
-        <v>-1.514495446272845E-10</v>
+        <v>-4101617.602997416</v>
       </c>
       <c r="G59">
         <v>236.03185496702</v>
@@ -1772,7 +1772,7 @@
         <v>1663237571.869143</v>
       </c>
       <c r="F60">
-        <v>-9.000757677092382E-10</v>
+        <v>-24495923.06465667</v>
       </c>
       <c r="G60">
         <v>315.1020603992357</v>
@@ -1795,7 +1795,7 @@
         <v>5652830475.671362</v>
       </c>
       <c r="F61">
-        <v>2.362065338414572E-11</v>
+        <v>650730.1445753785</v>
       </c>
       <c r="G61">
         <v>269.930418796854</v>
@@ -1818,7 +1818,7 @@
         <v>1054536340.142622</v>
       </c>
       <c r="F62">
-        <v>-7.711335573937575E-09</v>
+        <v>-215975076.2760331</v>
       </c>
       <c r="G62">
         <v>171.488168777924</v>
@@ -1841,7 +1841,7 @@
         <v>3940752423.939021</v>
       </c>
       <c r="F63">
-        <v>5.386407248620398E-10</v>
+        <v>17138920.22262292</v>
       </c>
       <c r="G63">
         <v>170.5938907839318</v>
@@ -1864,7 +1864,7 @@
         <v>3645317858.151546</v>
       </c>
       <c r="F64">
-        <v>8.60295996629768E-10</v>
+        <v>27702535.8647331</v>
       </c>
       <c r="G64">
         <v>273.0316685858902</v>
@@ -1887,7 +1887,7 @@
         <v>4176362792.286147</v>
       </c>
       <c r="F65">
-        <v>-2.490967281152965E-10</v>
+        <v>-11991303.16024815</v>
       </c>
       <c r="G65">
         <v>-22.26326037205379</v>
@@ -1910,7 +1910,7 @@
         <v>2510051758.391216</v>
       </c>
       <c r="F66">
-        <v>4.77796251830911E-10</v>
+        <v>23559156.52719074</v>
       </c>
       <c r="G66">
         <v>-142.8399188742064</v>
@@ -1933,7 +1933,7 @@
         <v>3416335965.676072</v>
       </c>
       <c r="F67">
-        <v>8.435027721677635E-11</v>
+        <v>4225147.812217094</v>
       </c>
       <c r="G67">
         <v>210.4124623500545</v>
@@ -1956,7 +1956,7 @@
         <v>5251662869.876287</v>
       </c>
       <c r="F68">
-        <v>1.127908335814722E-09</v>
+        <v>56996246.20949438</v>
       </c>
       <c r="G68">
         <v>43.98963272055954</v>
@@ -1979,7 +1979,7 @@
         <v>2350162102.19848</v>
       </c>
       <c r="F69">
-        <v>-3.619863544521422E-10</v>
+        <v>-18432425.35255145</v>
       </c>
       <c r="G69">
         <v>283.3915436144903</v>
@@ -2002,7 +2002,7 @@
         <v>3532133521.254247</v>
       </c>
       <c r="F70">
-        <v>3.824614616370363E-10</v>
+        <v>19652248.51544683</v>
       </c>
       <c r="G70">
         <v>346.4689432125126</v>
@@ -2025,7 +2025,7 @@
         <v>3476608258.668179</v>
       </c>
       <c r="F71">
-        <v>-3.845809865903759E-11</v>
+        <v>-1998760.828410971</v>
       </c>
       <c r="G71">
         <v>75.45033175572252</v>
@@ -2048,7 +2048,7 @@
         <v>3258857784.176424</v>
       </c>
       <c r="F72">
-        <v>1.772763240092996E-10</v>
+        <v>9281268.46865187</v>
       </c>
       <c r="G72">
         <v>182.3348335479448</v>
@@ -2071,7 +2071,7 @@
         <v>1854800454.515697</v>
       </c>
       <c r="F73">
-        <v>7.358239498076856E-10</v>
+        <v>39080523.23495647</v>
       </c>
       <c r="G73">
         <v>69.11817059749109</v>
@@ -2094,7 +2094,7 @@
         <v>3705141813.06572</v>
       </c>
       <c r="F74">
-        <v>4.342523919774367E-10</v>
+        <v>23251624.81021379</v>
       </c>
       <c r="G74">
         <v>277.8832990826441</v>
@@ -2117,7 +2117,7 @@
         <v>3223982704.849172</v>
       </c>
       <c r="F75">
-        <v>2.774998532271235E-10</v>
+        <v>14905797.98844591</v>
       </c>
       <c r="G75">
         <v>387.9398314054862</v>
@@ -2140,7 +2140,7 @@
         <v>2355292363.132841</v>
       </c>
       <c r="F76">
-        <v>7.454143167504333E-11</v>
+        <v>4009330.396214958</v>
       </c>
       <c r="G76">
         <v>157.4861582376646</v>
@@ -2163,7 +2163,7 @@
         <v>3630380395.531632</v>
       </c>
       <c r="F77">
-        <v>3.333472138739946E-10</v>
+        <v>18025201.92779333</v>
       </c>
       <c r="G77">
         <v>334.2137252694796</v>
@@ -2186,7 +2186,7 @@
         <v>1107639082.173041</v>
       </c>
       <c r="F78">
-        <v>4.817097792729077E-09</v>
+        <v>260580081.1625765</v>
       </c>
       <c r="G78">
         <v>102.2198540424131</v>
@@ -2209,7 +2209,7 @@
         <v>3322326761.809361</v>
       </c>
       <c r="F79">
-        <v>-1.203964150174483E-10</v>
+        <v>-6520566.126871623</v>
       </c>
       <c r="G79">
         <v>485.4007268146134</v>
@@ -2232,7 +2232,7 @@
         <v>674786405.2326441</v>
       </c>
       <c r="F80">
-        <v>-2.111999337624869E-11</v>
+        <v>-1157440.795803524</v>
       </c>
       <c r="G80">
         <v>3.918767101372705</v>
@@ -2255,7 +2255,7 @@
         <v>3256569347.414473</v>
       </c>
       <c r="F81">
-        <v>-3.772373605008784E-10</v>
+        <v>-20886780.63261012</v>
       </c>
       <c r="G81">
         <v>537.452358866126</v>
@@ -2278,7 +2278,7 @@
         <v>2755933012.006021</v>
       </c>
       <c r="F82">
-        <v>7.237259440681476E-10</v>
+        <v>40158856.45263437</v>
       </c>
       <c r="G82">
         <v>101.5716236259524</v>
@@ -2301,7 +2301,7 @@
         <v>1496411122.723968</v>
       </c>
       <c r="F83">
-        <v>-1.778411852507746E-09</v>
+        <v>-102506662.6875892</v>
       </c>
       <c r="G83">
         <v>243.7876290177686</v>
@@ -2324,7 +2324,7 @@
         <v>1369355575.743196</v>
       </c>
       <c r="F84">
-        <v>-1.711961314276328E-09</v>
+        <v>-99287991.6351856</v>
       </c>
       <c r="G84">
         <v>251.1387476538749</v>
@@ -2347,7 +2347,7 @@
         <v>1331376628.093632</v>
       </c>
       <c r="F85">
-        <v>-1.024251714651252E-09</v>
+        <v>-59480893.18530277</v>
       </c>
       <c r="G85">
         <v>46.34888772717395</v>
@@ -2370,7 +2370,7 @@
         <v>3060273067.410341</v>
       </c>
       <c r="F86">
-        <v>1.939881035459793E-10</v>
+        <v>11301427.42831764</v>
       </c>
       <c r="G86">
         <v>175.5993074487081</v>
@@ -2393,7 +2393,7 @@
         <v>3785816998.200178</v>
       </c>
       <c r="F87">
-        <v>2.643008629337893E-10</v>
+        <v>15407605.52427121</v>
       </c>
       <c r="G87">
         <v>191.0060096595961</v>
@@ -2416,7 +2416,7 @@
         <v>3349839984.879492</v>
       </c>
       <c r="F88">
-        <v>-1.971909422738155E-10</v>
+        <v>-11518568.90202348</v>
       </c>
       <c r="G88">
         <v>-7.713523254235525</v>
@@ -2439,7 +2439,7 @@
         <v>2115502168.66674</v>
       </c>
       <c r="F89">
-        <v>3.081673816930199E-10</v>
+        <v>18044504.93170052</v>
       </c>
       <c r="G89">
         <v>304.5009523394917</v>
@@ -2462,7 +2462,7 @@
         <v>1727811374.925148</v>
       </c>
       <c r="F90">
-        <v>-6.841231640197701E-10</v>
+        <v>-40216141.81642985</v>
       </c>
       <c r="G90">
         <v>336.9323512893235</v>
@@ -2485,7 +2485,7 @@
         <v>3345003900.470722</v>
       </c>
       <c r="F91">
-        <v>-1.263194239692884E-10</v>
+        <v>-7466818.371781709</v>
       </c>
       <c r="G91">
         <v>-34.60802334615429</v>
@@ -2508,7 +2508,7 @@
         <v>1763419783.923234</v>
       </c>
       <c r="F92">
-        <v>-9.645175875375924E-10</v>
+        <v>-57039602.0169448</v>
       </c>
       <c r="G92">
         <v>272.9875613605734</v>
@@ -2531,7 +2531,7 @@
         <v>641019393.6751802</v>
       </c>
       <c r="F93">
-        <v>-2.978040033953045E-09</v>
+        <v>-176514311.1066101</v>
       </c>
       <c r="G93">
         <v>265.147676599972</v>
@@ -2554,7 +2554,7 @@
         <v>2128410984.442255</v>
       </c>
       <c r="F94">
-        <v>4.926582417161018E-10</v>
+        <v>29292744.5491517</v>
       </c>
       <c r="G94">
         <v>247.660755848954</v>
@@ -2577,7 +2577,7 @@
         <v>1920806518.761335</v>
       </c>
       <c r="F95">
-        <v>2.427742705996022E-10</v>
+        <v>14444204.9751977</v>
       </c>
       <c r="G95">
         <v>99.81629483784745</v>
@@ -2600,7 +2600,7 @@
         <v>3308374422.757637</v>
       </c>
       <c r="F96">
-        <v>2.168318768521223E-10</v>
+        <v>12927320.51711405</v>
       </c>
       <c r="G96">
         <v>368.3630993007404</v>
@@ -2623,7 +2623,7 @@
         <v>3708052043.393218</v>
       </c>
       <c r="F97">
-        <v>2.6006551038856E-10</v>
+        <v>15545737.79064793</v>
       </c>
       <c r="G97">
         <v>230.0753746088103</v>
@@ -2646,7 +2646,7 @@
         <v>1337421639.484831</v>
       </c>
       <c r="F98">
-        <v>-2.006706151294938E-10</v>
+        <v>-12035485.47258861</v>
       </c>
       <c r="G98">
         <v>114.9415798028418</v>
@@ -2669,7 +2669,7 @@
         <v>3638577979.461855</v>
       </c>
       <c r="F99">
-        <v>8.878660644056583E-11</v>
+        <v>5329848.285221979</v>
       </c>
       <c r="G99">
         <v>42.13583432360907</v>
@@ -2692,7 +2692,7 @@
         <v>2776986058.737023</v>
       </c>
       <c r="F100">
-        <v>9.191969754054452E-11</v>
+        <v>5524094.789445193</v>
       </c>
       <c r="G100">
         <v>271.8919236143388</v>
@@ -2715,7 +2715,7 @@
         <v>3431266749.599977</v>
       </c>
       <c r="F101">
-        <v>1.020106396373729E-10</v>
+        <v>6144866.720842819</v>
       </c>
       <c r="G101">
         <v>256.424267459517</v>
@@ -2738,7 +2738,7 @@
         <v>2161430199.950818</v>
       </c>
       <c r="F102">
-        <v>6.555600247180679E-10</v>
+        <v>39521753.0038707</v>
       </c>
       <c r="G102">
         <v>53.57015187109182</v>
@@ -2761,7 +2761,7 @@
         <v>2958394824.958137</v>
       </c>
       <c r="F103">
-        <v>-2.15659309188655E-09</v>
+        <v>-130391513.3155631</v>
       </c>
       <c r="G103">
         <v>30.58936425919826</v>
@@ -2784,7 +2784,7 @@
         <v>3358313621.082551</v>
       </c>
       <c r="F104">
-        <v>1.554510683503789E-11</v>
+        <v>940112.4217698813</v>
       </c>
       <c r="G104">
         <v>281.0230382164584</v>
@@ -2807,7 +2807,7 @@
         <v>1497438084.829989</v>
       </c>
       <c r="F105">
-        <v>2.309440548178703E-10</v>
+        <v>13984483.06792466</v>
       </c>
       <c r="G105">
         <v>309.6002183101011</v>
@@ -2830,7 +2830,7 @@
         <v>3691882257.913296</v>
       </c>
       <c r="F106">
-        <v>-1.170116905012646E-09</v>
+        <v>-70925485.27770038</v>
       </c>
       <c r="G106">
         <v>43.94458190379509</v>
@@ -2853,7 +2853,7 @@
         <v>3389258173.328023</v>
       </c>
       <c r="F107">
-        <v>2.164706413129103E-10</v>
+        <v>13139329.48703831</v>
       </c>
       <c r="G107">
         <v>374.3551108861444</v>
@@ -2876,7 +2876,7 @@
         <v>3360735596.695724</v>
       </c>
       <c r="F108">
-        <v>2.327925568053411E-11</v>
+        <v>1424466.953564628</v>
       </c>
       <c r="G108">
         <v>249.7017225159084</v>
@@ -2899,7 +2899,7 @@
         <v>2775194890.509315</v>
       </c>
       <c r="F109">
-        <v>7.437264700678302E-10</v>
+        <v>46096031.02674194</v>
       </c>
       <c r="G109">
         <v>98.80106273223207</v>
@@ -2922,7 +2922,7 @@
         <v>3272568222.625025</v>
       </c>
       <c r="F110">
-        <v>2.019138068125297E-11</v>
+        <v>1256206.585799897</v>
       </c>
       <c r="G110">
         <v>324.5962672596718</v>
@@ -2945,7 +2945,7 @@
         <v>853750483.476817</v>
       </c>
       <c r="F111">
-        <v>3.718008137255712E-10</v>
+        <v>23232924.08383252</v>
       </c>
       <c r="G111">
         <v>-7.584593315247607</v>
@@ -2968,7 +2968,7 @@
         <v>1984738847.859315</v>
       </c>
       <c r="F112">
-        <v>5.389205068134685E-11</v>
+        <v>3376419.004386254</v>
       </c>
       <c r="G112">
         <v>100.4300806716848</v>
@@ -2991,7 +2991,7 @@
         <v>2977581355.170902</v>
       </c>
       <c r="F113">
-        <v>6.703980115782846E-11</v>
+        <v>4201763.757616004</v>
       </c>
       <c r="G113">
         <v>414.9451478422461</v>
@@ -3014,7 +3014,7 @@
         <v>2551710361.498037</v>
       </c>
       <c r="F114">
-        <v>-4.047476472060265E-10</v>
+        <v>-25374146.47156611</v>
       </c>
       <c r="G114">
         <v>208.4068130961335</v>
@@ -3037,7 +3037,7 @@
         <v>2189644938.355878</v>
       </c>
       <c r="F115">
-        <v>-2.859153677706259E-10</v>
+        <v>-17936058.31621805</v>
       </c>
       <c r="G115">
         <v>172.3812270593169</v>
@@ -3060,7 +3060,7 @@
         <v>4022960594.522149</v>
       </c>
       <c r="F116">
-        <v>-2.045033927083868E-10</v>
+        <v>-12832525.2108562</v>
       </c>
       <c r="G116">
         <v>225.4058009455241</v>
@@ -3083,7 +3083,7 @@
         <v>3121919735.65976</v>
       </c>
       <c r="F117">
-        <v>-3.67878130495912E-11</v>
+        <v>-2315641.968682407</v>
       </c>
       <c r="G117">
         <v>431.5333003021923</v>
@@ -3106,7 +3106,7 @@
         <v>1535985471.910607</v>
       </c>
       <c r="F118">
-        <v>1.191231239534638E-09</v>
+        <v>75078379.31545964</v>
       </c>
       <c r="G118">
         <v>361.3889672487713</v>
@@ -3129,7 +3129,7 @@
         <v>1731865508.150192</v>
       </c>
       <c r="F119">
-        <v>1.155247911768087E-09</v>
+        <v>73051761.23565413</v>
       </c>
       <c r="G119">
         <v>1.890522443555685</v>
@@ -3152,7 +3152,7 @@
         <v>3139864006.512664</v>
       </c>
       <c r="F120">
-        <v>4.210474665832931E-10</v>
+        <v>26694836.80401955</v>
       </c>
       <c r="G120">
         <v>360.8531826447532</v>
@@ -3175,7 +3175,7 @@
         <v>972403926.8396584</v>
       </c>
       <c r="F121">
-        <v>-4.559741636731931E-09</v>
+        <v>-289160107.4694867</v>
       </c>
       <c r="G121">
         <v>253.149067868522</v>
@@ -3198,7 +3198,7 @@
         <v>3555038684.349282</v>
       </c>
       <c r="F122">
-        <v>1.793166977247336E-10</v>
+        <v>11382656.53319679</v>
       </c>
       <c r="G122">
         <v>330.5243848898632</v>
@@ -3221,7 +3221,7 @@
         <v>3312740761.39504</v>
       </c>
       <c r="F123">
-        <v>-1.231144987820593E-10</v>
+        <v>-7834604.476762424</v>
       </c>
       <c r="G123">
         <v>166.1026827974451</v>
@@ -3244,7 +3244,7 @@
         <v>1441603979.621701</v>
       </c>
       <c r="F124">
-        <v>1.825050425095563E-09</v>
+        <v>116512923.8326921</v>
       </c>
       <c r="G124">
         <v>248.9546179611329</v>
@@ -3267,7 +3267,7 @@
         <v>3151944383.743469</v>
       </c>
       <c r="F125">
-        <v>-1.188465754803765E-10</v>
+        <v>-7595046.538135923</v>
       </c>
       <c r="G125">
         <v>328.0835720292703</v>
@@ -3290,7 +3290,7 @@
         <v>2723534864.191213</v>
       </c>
       <c r="F126">
-        <v>1.458785483341701E-10</v>
+        <v>9337295.743194398</v>
       </c>
       <c r="G126">
         <v>82.93084284040249</v>
@@ -3313,7 +3313,7 @@
         <v>3508808338.613146</v>
       </c>
       <c r="F127">
-        <v>5.411076339186132E-10</v>
+        <v>34674361.21255974</v>
       </c>
       <c r="G127">
         <v>258.1430529977978</v>
@@ -3336,7 +3336,7 @@
         <v>3318848889.865634</v>
       </c>
       <c r="F128">
-        <v>3.10444611102737E-10</v>
+        <v>19919719.44406146</v>
       </c>
       <c r="G128">
         <v>231.6868458079414</v>
@@ -3359,7 +3359,7 @@
         <v>2040416955.600668</v>
       </c>
       <c r="F129">
-        <v>2.100669185337662E-11</v>
+        <v>1355612.691685804</v>
       </c>
       <c r="G129">
         <v>293.4277854819478</v>
@@ -3382,7 +3382,7 @@
         <v>1692900626.065979</v>
       </c>
       <c r="F130">
-        <v>-4.048459805865809E-10</v>
+        <v>-26313220.48679258</v>
       </c>
       <c r="G130">
         <v>-103.2671519482615</v>
@@ -3405,7 +3405,7 @@
         <v>1720394457.41666</v>
       </c>
       <c r="F131">
-        <v>1.124581704011619E-09</v>
+        <v>73252353.96180697</v>
       </c>
       <c r="G131">
         <v>-5.629687746690727</v>
@@ -3428,7 +3428,7 @@
         <v>3133499126.051802</v>
       </c>
       <c r="F132">
-        <v>4.056810150157702E-10</v>
+        <v>26487956.92375318</v>
       </c>
       <c r="G132">
         <v>513.8733151715904</v>
@@ -3451,7 +3451,7 @@
         <v>2558647282.837667</v>
       </c>
       <c r="F133">
-        <v>1.324083096971336E-10</v>
+        <v>8682077.774653837</v>
       </c>
       <c r="G133">
         <v>97.41976553934342</v>
@@ -3474,7 +3474,7 @@
         <v>3626362545.983729</v>
       </c>
       <c r="F134">
-        <v>3.329274761910669E-10</v>
+        <v>21895157.18864502</v>
       </c>
       <c r="G134">
         <v>41.18545194646949</v>
@@ -3497,7 +3497,7 @@
         <v>1277680401.84855</v>
       </c>
       <c r="F135">
-        <v>7.848931513077409E-10</v>
+        <v>51875006.56585878</v>
       </c>
       <c r="G135">
         <v>272.9839087463706</v>
@@ -3520,7 +3520,7 @@
         <v>3492410645.778711</v>
       </c>
       <c r="F136">
-        <v>1.151075279461142E-10</v>
+        <v>7629008.36744724</v>
       </c>
       <c r="G136">
         <v>214.870979469381</v>
@@ -3543,7 +3543,7 @@
         <v>2869088868.426933</v>
       </c>
       <c r="F137">
-        <v>-3.204654873402719E-10</v>
+        <v>-21402897.52163912</v>
       </c>
       <c r="G137">
         <v>292.7844131468875</v>
@@ -3566,7 +3566,7 @@
         <v>2928469922.12919</v>
       </c>
       <c r="F138">
-        <v>2.189503996800109E-10</v>
+        <v>14639445.61954908</v>
       </c>
       <c r="G138">
         <v>134.2328068970648</v>
@@ -3589,7 +3589,7 @@
         <v>5881421966.728233</v>
       </c>
       <c r="F139">
-        <v>-6.335002468241721E-10</v>
+        <v>-42492104.45779014</v>
       </c>
       <c r="G139">
         <v>-137.8516154967916</v>
@@ -3612,7 +3612,7 @@
         <v>2618658247.111792</v>
       </c>
       <c r="F140">
-        <v>-2.916639699075257E-10</v>
+        <v>-19895462.42167929</v>
       </c>
       <c r="G140">
         <v>103.8821828568387</v>
@@ -3635,7 +3635,7 @@
         <v>2829358146.408769</v>
       </c>
       <c r="F141">
-        <v>-5.33336779836437E-10</v>
+        <v>-36547100.96472555</v>
       </c>
       <c r="G141">
         <v>353.9091028653904</v>
@@ -3658,7 +3658,7 @@
         <v>3133390673.07931</v>
       </c>
       <c r="F142">
-        <v>-6.603953287429234E-11</v>
+        <v>-4532024.68046705</v>
       </c>
       <c r="G142">
         <v>331.5523769479758</v>
@@ -3681,7 +3681,7 @@
         <v>2764932351.493311</v>
       </c>
       <c r="F143">
-        <v>2.413252796732911E-10</v>
+        <v>16619189.83752748</v>
       </c>
       <c r="G143">
         <v>342.3664263381521</v>
@@ -3704,7 +3704,7 @@
         <v>4044677549.196068</v>
       </c>
       <c r="F144">
-        <v>2.190123043835386E-10</v>
+        <v>15095353.39127744</v>
       </c>
       <c r="G144">
         <v>81.41038431483929</v>
@@ -3727,7 +3727,7 @@
         <v>2093577827.286536</v>
       </c>
       <c r="F145">
-        <v>-5.670829234229884E-10</v>
+        <v>-39141542.31144371</v>
       </c>
       <c r="G145">
         <v>92.47897340587421</v>
@@ -3750,7 +3750,7 @@
         <v>3179222056.615446</v>
       </c>
       <c r="F146">
-        <v>4.196791451277089E-10</v>
+        <v>28992438.82611369</v>
       </c>
       <c r="G146">
         <v>392.0263793176198</v>
@@ -3773,7 +3773,7 @@
         <v>2576563446.582314</v>
       </c>
       <c r="F147">
-        <v>6.422199471601609E-11</v>
+        <v>4456211.232154349</v>
       </c>
       <c r="G147">
         <v>319.5558514401135</v>
@@ -3796,7 +3796,7 @@
         <v>3095424452.912705</v>
       </c>
       <c r="F148">
-        <v>2.286257130076442E-10</v>
+        <v>15887395.34195823</v>
       </c>
       <c r="G148">
         <v>347.1339959839592</v>
@@ -3819,7 +3819,7 @@
         <v>2524462559.141798</v>
       </c>
       <c r="F149">
-        <v>-2.941609397435058E-10</v>
+        <v>-20463206.05191058</v>
       </c>
       <c r="G149">
         <v>219.6700325181319</v>
@@ -3842,7 +3842,7 @@
         <v>2387424251.933375</v>
       </c>
       <c r="F150">
-        <v>-3.056622787269523E-10</v>
+        <v>-21318329.71836824</v>
       </c>
       <c r="G150">
         <v>269.3370609356932</v>
@@ -3865,7 +3865,7 @@
         <v>2609760576.915093</v>
       </c>
       <c r="F151">
-        <v>-3.811380765801864E-10</v>
+        <v>-26807557.21697785</v>
       </c>
       <c r="G151">
         <v>5.522659147667259</v>
@@ -3888,7 +3888,7 @@
         <v>2701662462.370373</v>
       </c>
       <c r="F152">
-        <v>-3.189669041352813E-10</v>
+        <v>-22456878.06023574</v>
       </c>
       <c r="G152">
         <v>430.6616944641905</v>
@@ -3911,7 +3911,7 @@
         <v>2373912766.56643</v>
       </c>
       <c r="F153">
-        <v>-8.912614634881487E-11</v>
+        <v>-6287354.073957154</v>
       </c>
       <c r="G153">
         <v>40.46949130141842</v>
@@ -3934,7 +3934,7 @@
         <v>2288132164.547809</v>
       </c>
       <c r="F154">
-        <v>-7.219945922987928E-10</v>
+        <v>-51227219.09015395</v>
       </c>
       <c r="G154">
         <v>495.9563745355763</v>
@@ -3957,7 +3957,7 @@
         <v>2344624347.877722</v>
       </c>
       <c r="F155">
-        <v>-4.234211905279241E-11</v>
+        <v>-3006011.11654563</v>
       </c>
       <c r="G155">
         <v>191.0072361620598</v>
@@ -3980,7 +3980,7 @@
         <v>2324035744.369361</v>
       </c>
       <c r="F156">
-        <v>5.488826913307117E-10</v>
+        <v>39089639.85088311</v>
       </c>
       <c r="G156">
         <v>36.7033088949083</v>
@@ -4003,7 +4003,7 @@
         <v>1935730441.132565</v>
       </c>
       <c r="F157">
-        <v>-1.675815135048258E-09</v>
+        <v>-120891807.0093691</v>
       </c>
       <c r="G157">
         <v>208.5370214600775</v>
@@ -4026,7 +4026,7 @@
         <v>3128094910.877211</v>
       </c>
       <c r="F158">
-        <v>1.763372648167357E-10</v>
+        <v>12752656.47561182</v>
       </c>
       <c r="G158">
         <v>142.5940394123858</v>
@@ -4049,7 +4049,7 @@
         <v>2985467084.742025</v>
       </c>
       <c r="F159">
-        <v>1.084923343719442E-10</v>
+        <v>7865713.081280822</v>
       </c>
       <c r="G159">
         <v>321.5504153084832</v>
@@ -4072,7 +4072,7 @@
         <v>2539554703.956648</v>
       </c>
       <c r="F160">
-        <v>3.907463806325973E-10</v>
+        <v>28550976.2097047</v>
       </c>
       <c r="G160">
         <v>133.1104821214017</v>
@@ -4095,7 +4095,7 @@
         <v>2122137809.853559</v>
       </c>
       <c r="F161">
-        <v>-9.015688513085777E-10</v>
+        <v>-65936362.86466946</v>
       </c>
       <c r="G161">
         <v>313.5581417605769</v>
@@ -4118,7 +4118,7 @@
         <v>3267782809.83175</v>
       </c>
       <c r="F162">
-        <v>4.464350328870993E-10</v>
+        <v>32685213.94314819</v>
       </c>
       <c r="G162">
         <v>382.7298065708976</v>
@@ -4141,7 +4141,7 @@
         <v>2549208199.796457</v>
       </c>
       <c r="F163">
-        <v>-2.051882167418231E-10</v>
+        <v>-15129787.24873984</v>
       </c>
       <c r="G163">
         <v>116.4342485451196</v>
@@ -4164,7 +4164,7 @@
         <v>2910109884.384812</v>
       </c>
       <c r="F164">
-        <v>1.530663630303746E-10</v>
+        <v>11321095.68117637</v>
       </c>
       <c r="G164">
         <v>430.8414697035229</v>
@@ -4187,7 +4187,7 @@
         <v>3265067322.629371</v>
       </c>
       <c r="F165">
-        <v>-2.988054638535422E-11</v>
+        <v>-2226455.036940136</v>
       </c>
       <c r="G165">
         <v>377.4228902383945</v>
@@ -4210,7 +4210,7 @@
         <v>2365213727.85796</v>
       </c>
       <c r="F166">
-        <v>4.094817074463078E-10</v>
+        <v>30673859.85569298</v>
       </c>
       <c r="G166">
         <v>326.1821565130869</v>
@@ -4233,7 +4233,7 @@
         <v>2429909011.294053</v>
       </c>
       <c r="F167">
-        <v>-2.199021264781797E-10</v>
+        <v>-16523722.63063598</v>
       </c>
       <c r="G167">
         <v>405.6016304391342</v>
@@ -4256,7 +4256,7 @@
         <v>3024902844.993293</v>
       </c>
       <c r="F168">
-        <v>3.521927987838816E-10</v>
+        <v>26526815.54057986</v>
       </c>
       <c r="G168">
         <v>544.7055824357349</v>
@@ -4279,7 +4279,7 @@
         <v>2935604332.999224</v>
       </c>
       <c r="F169">
-        <v>-1.176574806973707E-10</v>
+        <v>-9043179.713305684</v>
       </c>
       <c r="G169">
         <v>70.21986776515132</v>
@@ -4302,7 +4302,7 @@
         <v>2969276017.595953</v>
       </c>
       <c r="F170">
-        <v>5.950467866149234E-10</v>
+        <v>45951324.73962834</v>
       </c>
       <c r="G170">
         <v>118.6938124995394</v>
@@ -4325,7 +4325,7 @@
         <v>2397325331.73465</v>
       </c>
       <c r="F171">
-        <v>-4.544482612844793E-10</v>
+        <v>-35583227.94198732</v>
       </c>
       <c r="G171">
         <v>89.6087900242761</v>
@@ -4348,7 +4348,7 @@
         <v>1090461313.019374</v>
       </c>
       <c r="F172">
-        <v>-1.060146440957569E-09</v>
+        <v>-83037663.30621134</v>
       </c>
       <c r="G172">
         <v>317.188266800946</v>
@@ -4371,7 +4371,7 @@
         <v>505954929.6191821</v>
       </c>
       <c r="F173">
-        <v>-4.029251967199816E-09</v>
+        <v>-315653138.2201879</v>
       </c>
       <c r="G173">
         <v>114.684419813436</v>
@@ -4394,7 +4394,7 @@
         <v>2634097295.423865</v>
       </c>
       <c r="F174">
-        <v>1.798973366163504E-10</v>
+        <v>14186611.91552306</v>
       </c>
       <c r="G174">
         <v>316.651054994061</v>
@@ -4417,7 +4417,7 @@
         <v>2153922306.858066</v>
       </c>
       <c r="F175">
-        <v>-1.304600466675279E-09</v>
+        <v>-104028839.900463</v>
       </c>
       <c r="G175">
         <v>121.3139475424352</v>
@@ -4440,7 +4440,7 @@
         <v>1992678221.439851</v>
       </c>
       <c r="F176">
-        <v>-1.038347356222748E-09</v>
+        <v>-84275469.41572106</v>
       </c>
       <c r="G176">
         <v>-62.16544229493469</v>
@@ -4463,7 +4463,7 @@
         <v>997664084.8940914</v>
       </c>
       <c r="F177">
-        <v>4.072005847793661E-09</v>
+        <v>331335589.3247173</v>
       </c>
       <c r="G177">
         <v>-95.85160748423247</v>
@@ -4486,7 +4486,7 @@
         <v>2738149516.287169</v>
       </c>
       <c r="F178">
-        <v>-6.4026389761196E-11</v>
+        <v>-5315605.952762325</v>
       </c>
       <c r="G178">
         <v>150.1209848485497</v>
@@ -4509,7 +4509,7 @@
         <v>2265164718.023444</v>
       </c>
       <c r="F179">
-        <v>4.6829392949334E-10</v>
+        <v>39205278.65236276</v>
       </c>
       <c r="G179">
         <v>-158.6194640879232</v>
@@ -4532,7 +4532,7 @@
         <v>3196825565.453818</v>
       </c>
       <c r="F180">
-        <v>4.719166991310834E-10</v>
+        <v>39561255.61846042</v>
       </c>
       <c r="G180">
         <v>100.4256205295912</v>
@@ -4555,7 +4555,7 @@
         <v>1499806598.330992</v>
       </c>
       <c r="F181">
-        <v>3.316850923361723E-10</v>
+        <v>27980409.52283004</v>
       </c>
       <c r="G181">
         <v>54.53187711609101</v>
@@ -4578,7 +4578,7 @@
         <v>3471452045.405795</v>
       </c>
       <c r="F182">
-        <v>-3.318219607310964E-10</v>
+        <v>-28622477.40795692</v>
       </c>
       <c r="G182">
         <v>64.7249906789629</v>
@@ -4601,7 +4601,7 @@
         <v>2868653579.087183</v>
       </c>
       <c r="F183">
-        <v>1.083457931360558E-10</v>
+        <v>9407379.650744831</v>
       </c>
       <c r="G183">
         <v>134.4768316275478</v>
@@ -4624,7 +4624,7 @@
         <v>2012332774.739811</v>
       </c>
       <c r="F184">
-        <v>6.049111722535046E-10</v>
+        <v>52585171.57564016</v>
       </c>
       <c r="G184">
         <v>134.4369652716454</v>
@@ -4647,7 +4647,7 @@
         <v>2297603256.137409</v>
       </c>
       <c r="F185">
-        <v>6.288343257074074E-10</v>
+        <v>55151778.96647949</v>
       </c>
       <c r="G185">
         <v>83.61924462412458</v>
@@ -4670,7 +4670,7 @@
         <v>3115670104.780177</v>
       </c>
       <c r="F186">
-        <v>-2.305407778098369E-10</v>
+        <v>-20684258.06144327</v>
       </c>
       <c r="G186">
         <v>93.53874735469434</v>
@@ -4693,7 +4693,7 @@
         <v>2184124492.427251</v>
       </c>
       <c r="F187">
-        <v>6.567791123260811E-10</v>
+        <v>59042938.8992428</v>
       </c>
       <c r="G187">
         <v>34.6268981373526</v>
@@ -4716,7 +4716,7 @@
         <v>2313138605.45255</v>
       </c>
       <c r="F188">
-        <v>1.302105100679028E-10</v>
+        <v>12747770.98337865</v>
       </c>
       <c r="G188">
         <v>111.8581796353327</v>
@@ -4739,7 +4739,7 @@
         <v>2741667337.789729</v>
       </c>
       <c r="F189">
-        <v>3.345608960986932E-10</v>
+        <v>33404815.53269046</v>
       </c>
       <c r="G189">
         <v>-47.22208851763329</v>
@@ -4762,7 +4762,7 @@
         <v>1991439345.439217</v>
       </c>
       <c r="F190">
-        <v>6.984332178580129E-10</v>
+        <v>128796335.2339712</v>
       </c>
       <c r="G190">
         <v>141.7758727360583</v>
@@ -4785,7 +4785,7 @@
         <v>1418031621.297791</v>
       </c>
       <c r="F191">
-        <v>3.702096985279359E-10</v>
+        <v>75556569.19388327</v>
       </c>
       <c r="G191">
         <v>-32.44086179078059</v>
@@ -4808,7 +4808,7 @@
         <v>3644141551.465208</v>
       </c>
       <c r="F192">
-        <v>3.848906338783028E-10</v>
+        <v>85997863.85278149</v>
       </c>
       <c r="G192">
         <v>-67.56613940223765</v>

--- a/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
+++ b/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
@@ -438,7 +438,7 @@
         <v>1092414854.350568</v>
       </c>
       <c r="F2">
-        <v>-156677110.1056063</v>
+        <v>156677110.1056063</v>
       </c>
       <c r="G2">
         <v>209.110092138397</v>
@@ -461,7 +461,7 @@
         <v>5206248583.586316</v>
       </c>
       <c r="F3">
-        <v>18519209.4692356</v>
+        <v>-18519209.4692356</v>
       </c>
       <c r="G3">
         <v>363.2835654082753</v>
@@ -484,7 +484,7 @@
         <v>1039916995.203525</v>
       </c>
       <c r="F4">
-        <v>-95784039.45845836</v>
+        <v>95784039.45845836</v>
       </c>
       <c r="G4">
         <v>300.2634136864436</v>
@@ -507,7 +507,7 @@
         <v>680676876.5583919</v>
       </c>
       <c r="F5">
-        <v>-235150854.3567928</v>
+        <v>235150854.3567928</v>
       </c>
       <c r="G5">
         <v>249.632867166849</v>
@@ -530,7 +530,7 @@
         <v>579920772.9419634</v>
       </c>
       <c r="F6">
-        <v>215585189.2373232</v>
+        <v>-215585189.2373232</v>
       </c>
       <c r="G6">
         <v>-118.817428870391</v>
@@ -553,7 +553,7 @@
         <v>2487722571.704799</v>
       </c>
       <c r="F7">
-        <v>-62683098.96488434</v>
+        <v>62683098.96488434</v>
       </c>
       <c r="G7">
         <v>231.1386673049972</v>
@@ -576,7 +576,7 @@
         <v>1164347933.249144</v>
       </c>
       <c r="F8">
-        <v>-166611754.3473985</v>
+        <v>166611754.3473985</v>
       </c>
       <c r="G8">
         <v>53.21822221639219</v>
@@ -599,7 +599,7 @@
         <v>1427904249.565825</v>
       </c>
       <c r="F9">
-        <v>22663026.0553909</v>
+        <v>-22663026.0553909</v>
       </c>
       <c r="G9">
         <v>132.9702376056558</v>
@@ -622,7 +622,7 @@
         <v>4861451483.351841</v>
       </c>
       <c r="F10">
-        <v>28409543.72762407</v>
+        <v>-28409543.72762407</v>
       </c>
       <c r="G10">
         <v>369.2627661837664</v>
@@ -645,7 +645,7 @@
         <v>2369787863.916452</v>
       </c>
       <c r="F11">
-        <v>-45429471.48641107</v>
+        <v>45429471.48641107</v>
       </c>
       <c r="G11">
         <v>221.3481712655098</v>
@@ -668,7 +668,7 @@
         <v>2893465557.268535</v>
       </c>
       <c r="F12">
-        <v>-52285354.05180201</v>
+        <v>52285354.05180201</v>
       </c>
       <c r="G12">
         <v>203.3938889715005</v>
@@ -691,7 +691,7 @@
         <v>4898282972.106872</v>
       </c>
       <c r="F13">
-        <v>7300468.186603961</v>
+        <v>-7300468.186603961</v>
       </c>
       <c r="G13">
         <v>440.04664022485</v>
@@ -714,7 +714,7 @@
         <v>4769684636.022537</v>
       </c>
       <c r="F14">
-        <v>-3783279.059394291</v>
+        <v>3783279.059394291</v>
       </c>
       <c r="G14">
         <v>196.5138348174656</v>
@@ -737,7 +737,7 @@
         <v>1175894603.604178</v>
       </c>
       <c r="F15">
-        <v>-101648915.6019635</v>
+        <v>101648915.6019635</v>
       </c>
       <c r="G15">
         <v>163.5013882968728</v>
@@ -760,7 +760,7 @@
         <v>517253609.0199448</v>
       </c>
       <c r="F16">
-        <v>35809794.85313801</v>
+        <v>-35809794.85313801</v>
       </c>
       <c r="G16">
         <v>58.2879763077196</v>
@@ -783,7 +783,7 @@
         <v>651237286.9919277</v>
       </c>
       <c r="F17">
-        <v>-406184614.3090176</v>
+        <v>406184614.3090176</v>
       </c>
       <c r="G17">
         <v>55.24638439732712</v>
@@ -806,7 +806,7 @@
         <v>1483377073.555127</v>
       </c>
       <c r="F18">
-        <v>-87995685.52016665</v>
+        <v>87995685.52016665</v>
       </c>
       <c r="G18">
         <v>240.7584556362024</v>
@@ -829,7 +829,7 @@
         <v>5741618897.409628</v>
       </c>
       <c r="F19">
-        <v>-3332097.627462617</v>
+        <v>3332097.627462617</v>
       </c>
       <c r="G19">
         <v>234.7626117048913</v>
@@ -852,7 +852,7 @@
         <v>816452194.0869088</v>
       </c>
       <c r="F20">
-        <v>-24187923.80759507</v>
+        <v>24187923.80759507</v>
       </c>
       <c r="G20">
         <v>78.22169691553601</v>
@@ -875,7 +875,7 @@
         <v>3023016423.668905</v>
       </c>
       <c r="F21">
-        <v>-977415.4649770735</v>
+        <v>977415.4649770735</v>
       </c>
       <c r="G21">
         <v>211.4314352049752</v>
@@ -898,7 +898,7 @@
         <v>2268074095.879919</v>
       </c>
       <c r="F22">
-        <v>-51229562.94007045</v>
+        <v>51229562.94007045</v>
       </c>
       <c r="G22">
         <v>188.1546650230045</v>
@@ -921,7 +921,7 @@
         <v>1167710602.469932</v>
       </c>
       <c r="F23">
-        <v>-101261740.0364153</v>
+        <v>101261740.0364153</v>
       </c>
       <c r="G23">
         <v>156.1789013206684</v>
@@ -944,7 +944,7 @@
         <v>2620537720.623078</v>
       </c>
       <c r="F24">
-        <v>-8616107.045082089</v>
+        <v>8616107.045082089</v>
       </c>
       <c r="G24">
         <v>150.158336158803</v>
@@ -967,7 +967,7 @@
         <v>912103665.3756156</v>
       </c>
       <c r="F25">
-        <v>-155365542.5129987</v>
+        <v>155365542.5129987</v>
       </c>
       <c r="G25">
         <v>201.9466609972183</v>
@@ -990,7 +990,7 @@
         <v>6334397162.849628</v>
       </c>
       <c r="F26">
-        <v>5619379.032977202</v>
+        <v>-5619379.032977202</v>
       </c>
       <c r="G26">
         <v>242.1715747933119</v>
@@ -1013,7 +1013,7 @@
         <v>2907342842.092541</v>
       </c>
       <c r="F27">
-        <v>-23491007.64812877</v>
+        <v>23491007.64812877</v>
       </c>
       <c r="G27">
         <v>238.6633748817404</v>
@@ -1036,7 +1036,7 @@
         <v>3650308171.970758</v>
       </c>
       <c r="F28">
-        <v>4861517.001753004</v>
+        <v>-4861517.001753004</v>
       </c>
       <c r="G28">
         <v>209.894352961243</v>
@@ -1059,7 +1059,7 @@
         <v>5367784831.088258</v>
       </c>
       <c r="F29">
-        <v>7306275.050283175</v>
+        <v>-7306275.050283175</v>
       </c>
       <c r="G29">
         <v>437.9865704075818</v>
@@ -1082,7 +1082,7 @@
         <v>5502191211.121552</v>
       </c>
       <c r="F30">
-        <v>-3667309.38911736</v>
+        <v>3667309.38911736</v>
       </c>
       <c r="G30">
         <v>338.6320776117072</v>
@@ -1105,7 +1105,7 @@
         <v>1109103792.656712</v>
       </c>
       <c r="F31">
-        <v>-25102531.12714076</v>
+        <v>25102531.12714076</v>
       </c>
       <c r="G31">
         <v>164.6814456252225</v>
@@ -1128,7 +1128,7 @@
         <v>2276211567.059862</v>
       </c>
       <c r="F32">
-        <v>-23994375.32402267</v>
+        <v>23994375.32402267</v>
       </c>
       <c r="G32">
         <v>277.6895329283418</v>
@@ -1151,7 +1151,7 @@
         <v>2230216978.745636</v>
       </c>
       <c r="F33">
-        <v>-28263552.39839941</v>
+        <v>28263552.39839941</v>
       </c>
       <c r="G33">
         <v>175.0261407137777</v>
@@ -1174,7 +1174,7 @@
         <v>4012371034.929343</v>
       </c>
       <c r="F34">
-        <v>-9957776.974086111</v>
+        <v>9957776.974086111</v>
       </c>
       <c r="G34">
         <v>253.6373431923298</v>
@@ -1197,7 +1197,7 @@
         <v>1423530335.532048</v>
       </c>
       <c r="F35">
-        <v>-48341681.80190385</v>
+        <v>48341681.80190385</v>
       </c>
       <c r="G35">
         <v>294.6869318163317</v>
@@ -1220,7 +1220,7 @@
         <v>5131435504.372919</v>
       </c>
       <c r="F36">
-        <v>-8438671.782919452</v>
+        <v>8438671.782919452</v>
       </c>
       <c r="G36">
         <v>208.4593297016262</v>
@@ -1243,7 +1243,7 @@
         <v>3567627233.572556</v>
       </c>
       <c r="F37">
-        <v>-13690480.77423065</v>
+        <v>13690480.77423065</v>
       </c>
       <c r="G37">
         <v>257.6479066640685</v>
@@ -1266,7 +1266,7 @@
         <v>3740177205.343518</v>
       </c>
       <c r="F38">
-        <v>-5682019.626809872</v>
+        <v>5682019.626809872</v>
       </c>
       <c r="G38">
         <v>278.1147539102653</v>
@@ -1289,7 +1289,7 @@
         <v>4551789703.786042</v>
       </c>
       <c r="F39">
-        <v>7373565.200082134</v>
+        <v>-7373565.200082134</v>
       </c>
       <c r="G39">
         <v>228.2972618982217</v>
@@ -1312,7 +1312,7 @@
         <v>3735533218.436416</v>
       </c>
       <c r="F40">
-        <v>-58420175.82534759</v>
+        <v>58420175.82534759</v>
       </c>
       <c r="G40">
         <v>-78.82258140793543</v>
@@ -1335,7 +1335,7 @@
         <v>5920332872.86448</v>
       </c>
       <c r="F41">
-        <v>8343150.216613088</v>
+        <v>-8343150.216613088</v>
       </c>
       <c r="G41">
         <v>293.786195995636</v>
@@ -1358,7 +1358,7 @@
         <v>1719662461.027918</v>
       </c>
       <c r="F42">
-        <v>17818425.38171053</v>
+        <v>-17818425.38171053</v>
       </c>
       <c r="G42">
         <v>60.52873280376289</v>
@@ -1381,7 +1381,7 @@
         <v>2052153873.602626</v>
       </c>
       <c r="F43">
-        <v>-6126794.508152236</v>
+        <v>6126794.508152236</v>
       </c>
       <c r="G43">
         <v>84.10917700767887</v>
@@ -1404,7 +1404,7 @@
         <v>5053048059.109766</v>
       </c>
       <c r="F44">
-        <v>-29709112.09872661</v>
+        <v>29709112.09872661</v>
       </c>
       <c r="G44">
         <v>195.1901477600028</v>
@@ -1427,7 +1427,7 @@
         <v>4078361117.601238</v>
       </c>
       <c r="F45">
-        <v>33204587.71600025</v>
+        <v>-33204587.71600025</v>
       </c>
       <c r="G45">
         <v>448.9066877308219</v>
@@ -1450,7 +1450,7 @@
         <v>3234104353.83377</v>
       </c>
       <c r="F46">
-        <v>7962682.93565054</v>
+        <v>-7962682.93565054</v>
       </c>
       <c r="G46">
         <v>161.3177175190825</v>
@@ -1473,7 +1473,7 @@
         <v>3292310950.058791</v>
       </c>
       <c r="F47">
-        <v>8322813.517383904</v>
+        <v>-8322813.517383904</v>
       </c>
       <c r="G47">
         <v>213.8464966395116</v>
@@ -1496,7 +1496,7 @@
         <v>484919102.1449975</v>
       </c>
       <c r="F48">
-        <v>37658692.86906283</v>
+        <v>-37658692.86906283</v>
       </c>
       <c r="G48">
         <v>-51.88218762412625</v>
@@ -1519,7 +1519,7 @@
         <v>1956128998.876171</v>
       </c>
       <c r="F49">
-        <v>-63107876.30689377</v>
+        <v>63107876.30689377</v>
       </c>
       <c r="G49">
         <v>68.71090987194373</v>
@@ -1542,7 +1542,7 @@
         <v>3958370237.736347</v>
       </c>
       <c r="F50">
-        <v>-7461850.332053294</v>
+        <v>7461850.332053294</v>
       </c>
       <c r="G50">
         <v>213.2540066162134</v>
@@ -1565,7 +1565,7 @@
         <v>885320110.7129227</v>
       </c>
       <c r="F51">
-        <v>18408945.50113069</v>
+        <v>-18408945.50113069</v>
       </c>
       <c r="G51">
         <v>55.85954716125617</v>
@@ -1588,7 +1588,7 @@
         <v>2893479150.314776</v>
       </c>
       <c r="F52">
-        <v>-25835291.56025861</v>
+        <v>25835291.56025861</v>
       </c>
       <c r="G52">
         <v>281.6710125485241</v>
@@ -1611,7 +1611,7 @@
         <v>856868878.490669</v>
       </c>
       <c r="F53">
-        <v>-126876111.3540012</v>
+        <v>126876111.3540012</v>
       </c>
       <c r="G53">
         <v>359.3501419186555</v>
@@ -1634,7 +1634,7 @@
         <v>3698188201.947296</v>
       </c>
       <c r="F54">
-        <v>-7148187.431506136</v>
+        <v>7148187.431506136</v>
       </c>
       <c r="G54">
         <v>221.9724054358576</v>
@@ -1657,7 +1657,7 @@
         <v>2922384018.712894</v>
       </c>
       <c r="F55">
-        <v>8848614.204445509</v>
+        <v>-8848614.204445509</v>
       </c>
       <c r="G55">
         <v>225.6869093191555</v>
@@ -1680,7 +1680,7 @@
         <v>4279152310.849101</v>
       </c>
       <c r="F56">
-        <v>4111393.746382472</v>
+        <v>-4111393.746382472</v>
       </c>
       <c r="G56">
         <v>350.9627206966982</v>
@@ -1703,7 +1703,7 @@
         <v>2966110426.167465</v>
       </c>
       <c r="F57">
-        <v>68640944.86805318</v>
+        <v>-68640944.86805318</v>
       </c>
       <c r="G57">
         <v>-127.9523652009337</v>
@@ -1726,7 +1726,7 @@
         <v>3337081972.08334</v>
       </c>
       <c r="F58">
-        <v>-12799969.90510492</v>
+        <v>12799969.90510492</v>
       </c>
       <c r="G58">
         <v>334.645859331857</v>
@@ -1749,7 +1749,7 @@
         <v>2273626482.28181</v>
       </c>
       <c r="F59">
-        <v>-4101617.602997416</v>
+        <v>4101617.602997416</v>
       </c>
       <c r="G59">
         <v>236.03185496702</v>
@@ -1772,7 +1772,7 @@
         <v>1663237571.869143</v>
       </c>
       <c r="F60">
-        <v>-24495923.06465667</v>
+        <v>24495923.06465667</v>
       </c>
       <c r="G60">
         <v>315.1020603992357</v>
@@ -1795,7 +1795,7 @@
         <v>5652830475.671362</v>
       </c>
       <c r="F61">
-        <v>650730.1445753785</v>
+        <v>-650730.1445753785</v>
       </c>
       <c r="G61">
         <v>269.930418796854</v>
@@ -1818,7 +1818,7 @@
         <v>1054536340.142622</v>
       </c>
       <c r="F62">
-        <v>-215975076.2760331</v>
+        <v>215975076.2760331</v>
       </c>
       <c r="G62">
         <v>171.488168777924</v>
@@ -1841,7 +1841,7 @@
         <v>3940752423.939021</v>
       </c>
       <c r="F63">
-        <v>17138920.22262292</v>
+        <v>-17138920.22262292</v>
       </c>
       <c r="G63">
         <v>170.5938907839318</v>
@@ -1864,7 +1864,7 @@
         <v>3645317858.151546</v>
       </c>
       <c r="F64">
-        <v>27702535.8647331</v>
+        <v>-27702535.8647331</v>
       </c>
       <c r="G64">
         <v>273.0316685858902</v>
@@ -1887,7 +1887,7 @@
         <v>4176362792.286147</v>
       </c>
       <c r="F65">
-        <v>-11991303.16024815</v>
+        <v>11991303.16024815</v>
       </c>
       <c r="G65">
         <v>-22.26326037205379</v>
@@ -1910,7 +1910,7 @@
         <v>2510051758.391216</v>
       </c>
       <c r="F66">
-        <v>23559156.52719074</v>
+        <v>-23559156.52719074</v>
       </c>
       <c r="G66">
         <v>-142.8399188742064</v>
@@ -1933,7 +1933,7 @@
         <v>3416335965.676072</v>
       </c>
       <c r="F67">
-        <v>4225147.812217094</v>
+        <v>-4225147.812217094</v>
       </c>
       <c r="G67">
         <v>210.4124623500545</v>
@@ -1956,7 +1956,7 @@
         <v>5251662869.876287</v>
       </c>
       <c r="F68">
-        <v>56996246.20949438</v>
+        <v>-56996246.20949438</v>
       </c>
       <c r="G68">
         <v>43.98963272055954</v>
@@ -1979,7 +1979,7 @@
         <v>2350162102.19848</v>
       </c>
       <c r="F69">
-        <v>-18432425.35255145</v>
+        <v>18432425.35255145</v>
       </c>
       <c r="G69">
         <v>283.3915436144903</v>
@@ -2002,7 +2002,7 @@
         <v>3532133521.254247</v>
       </c>
       <c r="F70">
-        <v>19652248.51544683</v>
+        <v>-19652248.51544683</v>
       </c>
       <c r="G70">
         <v>346.4689432125126</v>
@@ -2025,7 +2025,7 @@
         <v>3476608258.668179</v>
       </c>
       <c r="F71">
-        <v>-1998760.828410971</v>
+        <v>1998760.828410971</v>
       </c>
       <c r="G71">
         <v>75.45033175572252</v>
@@ -2048,7 +2048,7 @@
         <v>3258857784.176424</v>
       </c>
       <c r="F72">
-        <v>9281268.46865187</v>
+        <v>-9281268.46865187</v>
       </c>
       <c r="G72">
         <v>182.3348335479448</v>
@@ -2071,7 +2071,7 @@
         <v>1854800454.515697</v>
       </c>
       <c r="F73">
-        <v>39080523.23495647</v>
+        <v>-39080523.23495647</v>
       </c>
       <c r="G73">
         <v>69.11817059749109</v>
@@ -2094,7 +2094,7 @@
         <v>3705141813.06572</v>
       </c>
       <c r="F74">
-        <v>23251624.81021379</v>
+        <v>-23251624.81021379</v>
       </c>
       <c r="G74">
         <v>277.8832990826441</v>
@@ -2117,7 +2117,7 @@
         <v>3223982704.849172</v>
       </c>
       <c r="F75">
-        <v>14905797.98844591</v>
+        <v>-14905797.98844591</v>
       </c>
       <c r="G75">
         <v>387.9398314054862</v>
@@ -2140,7 +2140,7 @@
         <v>2355292363.132841</v>
       </c>
       <c r="F76">
-        <v>4009330.396214958</v>
+        <v>-4009330.396214958</v>
       </c>
       <c r="G76">
         <v>157.4861582376646</v>
@@ -2163,7 +2163,7 @@
         <v>3630380395.531632</v>
       </c>
       <c r="F77">
-        <v>18025201.92779333</v>
+        <v>-18025201.92779333</v>
       </c>
       <c r="G77">
         <v>334.2137252694796</v>
@@ -2186,7 +2186,7 @@
         <v>1107639082.173041</v>
       </c>
       <c r="F78">
-        <v>260580081.1625765</v>
+        <v>-260580081.1625765</v>
       </c>
       <c r="G78">
         <v>102.2198540424131</v>
@@ -2209,7 +2209,7 @@
         <v>3322326761.809361</v>
       </c>
       <c r="F79">
-        <v>-6520566.126871623</v>
+        <v>6520566.126871623</v>
       </c>
       <c r="G79">
         <v>485.4007268146134</v>
@@ -2232,7 +2232,7 @@
         <v>674786405.2326441</v>
       </c>
       <c r="F80">
-        <v>-1157440.795803524</v>
+        <v>1157440.795803524</v>
       </c>
       <c r="G80">
         <v>3.918767101372705</v>
@@ -2255,7 +2255,7 @@
         <v>3256569347.414473</v>
       </c>
       <c r="F81">
-        <v>-20886780.63261012</v>
+        <v>20886780.63261012</v>
       </c>
       <c r="G81">
         <v>537.452358866126</v>
@@ -2278,7 +2278,7 @@
         <v>2755933012.006021</v>
       </c>
       <c r="F82">
-        <v>40158856.45263437</v>
+        <v>-40158856.45263437</v>
       </c>
       <c r="G82">
         <v>101.5716236259524</v>
@@ -2301,7 +2301,7 @@
         <v>1496411122.723968</v>
       </c>
       <c r="F83">
-        <v>-102506662.6875892</v>
+        <v>102506662.6875892</v>
       </c>
       <c r="G83">
         <v>243.7876290177686</v>
@@ -2324,7 +2324,7 @@
         <v>1369355575.743196</v>
       </c>
       <c r="F84">
-        <v>-99287991.6351856</v>
+        <v>99287991.6351856</v>
       </c>
       <c r="G84">
         <v>251.1387476538749</v>
@@ -2347,7 +2347,7 @@
         <v>1331376628.093632</v>
       </c>
       <c r="F85">
-        <v>-59480893.18530277</v>
+        <v>59480893.18530277</v>
       </c>
       <c r="G85">
         <v>46.34888772717395</v>
@@ -2370,7 +2370,7 @@
         <v>3060273067.410341</v>
       </c>
       <c r="F86">
-        <v>11301427.42831764</v>
+        <v>-11301427.42831764</v>
       </c>
       <c r="G86">
         <v>175.5993074487081</v>
@@ -2393,7 +2393,7 @@
         <v>3785816998.200178</v>
       </c>
       <c r="F87">
-        <v>15407605.52427121</v>
+        <v>-15407605.52427121</v>
       </c>
       <c r="G87">
         <v>191.0060096595961</v>
@@ -2416,7 +2416,7 @@
         <v>3349839984.879492</v>
       </c>
       <c r="F88">
-        <v>-11518568.90202348</v>
+        <v>11518568.90202348</v>
       </c>
       <c r="G88">
         <v>-7.713523254235525</v>
@@ -2439,7 +2439,7 @@
         <v>2115502168.66674</v>
       </c>
       <c r="F89">
-        <v>18044504.93170052</v>
+        <v>-18044504.93170052</v>
       </c>
       <c r="G89">
         <v>304.5009523394917</v>
@@ -2462,7 +2462,7 @@
         <v>1727811374.925148</v>
       </c>
       <c r="F90">
-        <v>-40216141.81642985</v>
+        <v>40216141.81642985</v>
       </c>
       <c r="G90">
         <v>336.9323512893235</v>
@@ -2485,7 +2485,7 @@
         <v>3345003900.470722</v>
       </c>
       <c r="F91">
-        <v>-7466818.371781709</v>
+        <v>7466818.371781709</v>
       </c>
       <c r="G91">
         <v>-34.60802334615429</v>
@@ -2508,7 +2508,7 @@
         <v>1763419783.923234</v>
       </c>
       <c r="F92">
-        <v>-57039602.0169448</v>
+        <v>57039602.0169448</v>
       </c>
       <c r="G92">
         <v>272.9875613605734</v>
@@ -2531,7 +2531,7 @@
         <v>641019393.6751802</v>
       </c>
       <c r="F93">
-        <v>-176514311.1066101</v>
+        <v>176514311.1066101</v>
       </c>
       <c r="G93">
         <v>265.147676599972</v>
@@ -2554,7 +2554,7 @@
         <v>2128410984.442255</v>
       </c>
       <c r="F94">
-        <v>29292744.5491517</v>
+        <v>-29292744.5491517</v>
       </c>
       <c r="G94">
         <v>247.660755848954</v>
@@ -2577,7 +2577,7 @@
         <v>1920806518.761335</v>
       </c>
       <c r="F95">
-        <v>14444204.9751977</v>
+        <v>-14444204.9751977</v>
       </c>
       <c r="G95">
         <v>99.81629483784745</v>
@@ -2600,7 +2600,7 @@
         <v>3308374422.757637</v>
       </c>
       <c r="F96">
-        <v>12927320.51711405</v>
+        <v>-12927320.51711405</v>
       </c>
       <c r="G96">
         <v>368.3630993007404</v>
@@ -2623,7 +2623,7 @@
         <v>3708052043.393218</v>
       </c>
       <c r="F97">
-        <v>15545737.79064793</v>
+        <v>-15545737.79064793</v>
       </c>
       <c r="G97">
         <v>230.0753746088103</v>
@@ -2646,7 +2646,7 @@
         <v>1337421639.484831</v>
       </c>
       <c r="F98">
-        <v>-12035485.47258861</v>
+        <v>12035485.47258861</v>
       </c>
       <c r="G98">
         <v>114.9415798028418</v>
@@ -2669,7 +2669,7 @@
         <v>3638577979.461855</v>
       </c>
       <c r="F99">
-        <v>5329848.285221979</v>
+        <v>-5329848.285221979</v>
       </c>
       <c r="G99">
         <v>42.13583432360907</v>
@@ -2692,7 +2692,7 @@
         <v>2776986058.737023</v>
       </c>
       <c r="F100">
-        <v>5524094.789445193</v>
+        <v>-5524094.789445193</v>
       </c>
       <c r="G100">
         <v>271.8919236143388</v>
@@ -2715,7 +2715,7 @@
         <v>3431266749.599977</v>
       </c>
       <c r="F101">
-        <v>6144866.720842819</v>
+        <v>-6144866.720842819</v>
       </c>
       <c r="G101">
         <v>256.424267459517</v>
@@ -2738,7 +2738,7 @@
         <v>2161430199.950818</v>
       </c>
       <c r="F102">
-        <v>39521753.0038707</v>
+        <v>-39521753.0038707</v>
       </c>
       <c r="G102">
         <v>53.57015187109182</v>
@@ -2761,7 +2761,7 @@
         <v>2958394824.958137</v>
       </c>
       <c r="F103">
-        <v>-130391513.3155631</v>
+        <v>130391513.3155631</v>
       </c>
       <c r="G103">
         <v>30.58936425919826</v>
@@ -2784,7 +2784,7 @@
         <v>3358313621.082551</v>
       </c>
       <c r="F104">
-        <v>940112.4217698813</v>
+        <v>-940112.4217698813</v>
       </c>
       <c r="G104">
         <v>281.0230382164584</v>
@@ -2807,7 +2807,7 @@
         <v>1497438084.829989</v>
       </c>
       <c r="F105">
-        <v>13984483.06792466</v>
+        <v>-13984483.06792466</v>
       </c>
       <c r="G105">
         <v>309.6002183101011</v>
@@ -2830,7 +2830,7 @@
         <v>3691882257.913296</v>
       </c>
       <c r="F106">
-        <v>-70925485.27770038</v>
+        <v>70925485.27770038</v>
       </c>
       <c r="G106">
         <v>43.94458190379509</v>
@@ -2853,7 +2853,7 @@
         <v>3389258173.328023</v>
       </c>
       <c r="F107">
-        <v>13139329.48703831</v>
+        <v>-13139329.48703831</v>
       </c>
       <c r="G107">
         <v>374.3551108861444</v>
@@ -2876,7 +2876,7 @@
         <v>3360735596.695724</v>
       </c>
       <c r="F108">
-        <v>1424466.953564628</v>
+        <v>-1424466.953564628</v>
       </c>
       <c r="G108">
         <v>249.7017225159084</v>
@@ -2899,7 +2899,7 @@
         <v>2775194890.509315</v>
       </c>
       <c r="F109">
-        <v>46096031.02674194</v>
+        <v>-46096031.02674194</v>
       </c>
       <c r="G109">
         <v>98.80106273223207</v>
@@ -2922,7 +2922,7 @@
         <v>3272568222.625025</v>
       </c>
       <c r="F110">
-        <v>1256206.585799897</v>
+        <v>-1256206.585799897</v>
       </c>
       <c r="G110">
         <v>324.5962672596718</v>
@@ -2945,7 +2945,7 @@
         <v>853750483.476817</v>
       </c>
       <c r="F111">
-        <v>23232924.08383252</v>
+        <v>-23232924.08383252</v>
       </c>
       <c r="G111">
         <v>-7.584593315247607</v>
@@ -2968,7 +2968,7 @@
         <v>1984738847.859315</v>
       </c>
       <c r="F112">
-        <v>3376419.004386254</v>
+        <v>-3376419.004386254</v>
       </c>
       <c r="G112">
         <v>100.4300806716848</v>
@@ -2991,7 +2991,7 @@
         <v>2977581355.170902</v>
       </c>
       <c r="F113">
-        <v>4201763.757616004</v>
+        <v>-4201763.757616004</v>
       </c>
       <c r="G113">
         <v>414.9451478422461</v>
@@ -3014,7 +3014,7 @@
         <v>2551710361.498037</v>
       </c>
       <c r="F114">
-        <v>-25374146.47156611</v>
+        <v>25374146.47156611</v>
       </c>
       <c r="G114">
         <v>208.4068130961335</v>
@@ -3037,7 +3037,7 @@
         <v>2189644938.355878</v>
       </c>
       <c r="F115">
-        <v>-17936058.31621805</v>
+        <v>17936058.31621805</v>
       </c>
       <c r="G115">
         <v>172.3812270593169</v>
@@ -3060,7 +3060,7 @@
         <v>4022960594.522149</v>
       </c>
       <c r="F116">
-        <v>-12832525.2108562</v>
+        <v>12832525.2108562</v>
       </c>
       <c r="G116">
         <v>225.4058009455241</v>
@@ -3083,7 +3083,7 @@
         <v>3121919735.65976</v>
       </c>
       <c r="F117">
-        <v>-2315641.968682407</v>
+        <v>2315641.968682407</v>
       </c>
       <c r="G117">
         <v>431.5333003021923</v>
@@ -3106,7 +3106,7 @@
         <v>1535985471.910607</v>
       </c>
       <c r="F118">
-        <v>75078379.31545964</v>
+        <v>-75078379.31545964</v>
       </c>
       <c r="G118">
         <v>361.3889672487713</v>
@@ -3129,7 +3129,7 @@
         <v>1731865508.150192</v>
       </c>
       <c r="F119">
-        <v>73051761.23565413</v>
+        <v>-73051761.23565413</v>
       </c>
       <c r="G119">
         <v>1.890522443555685</v>
@@ -3152,7 +3152,7 @@
         <v>3139864006.512664</v>
       </c>
       <c r="F120">
-        <v>26694836.80401955</v>
+        <v>-26694836.80401955</v>
       </c>
       <c r="G120">
         <v>360.8531826447532</v>
@@ -3175,7 +3175,7 @@
         <v>972403926.8396584</v>
       </c>
       <c r="F121">
-        <v>-289160107.4694867</v>
+        <v>289160107.4694867</v>
       </c>
       <c r="G121">
         <v>253.149067868522</v>
@@ -3198,7 +3198,7 @@
         <v>3555038684.349282</v>
       </c>
       <c r="F122">
-        <v>11382656.53319679</v>
+        <v>-11382656.53319679</v>
       </c>
       <c r="G122">
         <v>330.5243848898632</v>
@@ -3221,7 +3221,7 @@
         <v>3312740761.39504</v>
       </c>
       <c r="F123">
-        <v>-7834604.476762424</v>
+        <v>7834604.476762424</v>
       </c>
       <c r="G123">
         <v>166.1026827974451</v>
@@ -3244,7 +3244,7 @@
         <v>1441603979.621701</v>
       </c>
       <c r="F124">
-        <v>116512923.8326921</v>
+        <v>-116512923.8326921</v>
       </c>
       <c r="G124">
         <v>248.9546179611329</v>
@@ -3267,7 +3267,7 @@
         <v>3151944383.743469</v>
       </c>
       <c r="F125">
-        <v>-7595046.538135923</v>
+        <v>7595046.538135923</v>
       </c>
       <c r="G125">
         <v>328.0835720292703</v>
@@ -3290,7 +3290,7 @@
         <v>2723534864.191213</v>
       </c>
       <c r="F126">
-        <v>9337295.743194398</v>
+        <v>-9337295.743194398</v>
       </c>
       <c r="G126">
         <v>82.93084284040249</v>
@@ -3313,7 +3313,7 @@
         <v>3508808338.613146</v>
       </c>
       <c r="F127">
-        <v>34674361.21255974</v>
+        <v>-34674361.21255974</v>
       </c>
       <c r="G127">
         <v>258.1430529977978</v>
@@ -3336,7 +3336,7 @@
         <v>3318848889.865634</v>
       </c>
       <c r="F128">
-        <v>19919719.44406146</v>
+        <v>-19919719.44406146</v>
       </c>
       <c r="G128">
         <v>231.6868458079414</v>
@@ -3359,7 +3359,7 @@
         <v>2040416955.600668</v>
       </c>
       <c r="F129">
-        <v>1355612.691685804</v>
+        <v>-1355612.691685804</v>
       </c>
       <c r="G129">
         <v>293.4277854819478</v>
@@ -3382,7 +3382,7 @@
         <v>1692900626.065979</v>
       </c>
       <c r="F130">
-        <v>-26313220.48679258</v>
+        <v>26313220.48679258</v>
       </c>
       <c r="G130">
         <v>-103.2671519482615</v>
@@ -3405,7 +3405,7 @@
         <v>1720394457.41666</v>
       </c>
       <c r="F131">
-        <v>73252353.96180697</v>
+        <v>-73252353.96180697</v>
       </c>
       <c r="G131">
         <v>-5.629687746690727</v>
@@ -3428,7 +3428,7 @@
         <v>3133499126.051802</v>
       </c>
       <c r="F132">
-        <v>26487956.92375318</v>
+        <v>-26487956.92375318</v>
       </c>
       <c r="G132">
         <v>513.8733151715904</v>
@@ -3451,7 +3451,7 @@
         <v>2558647282.837667</v>
       </c>
       <c r="F133">
-        <v>8682077.774653837</v>
+        <v>-8682077.774653837</v>
       </c>
       <c r="G133">
         <v>97.41976553934342</v>
@@ -3474,7 +3474,7 @@
         <v>3626362545.983729</v>
       </c>
       <c r="F134">
-        <v>21895157.18864502</v>
+        <v>-21895157.18864502</v>
       </c>
       <c r="G134">
         <v>41.18545194646949</v>
@@ -3497,7 +3497,7 @@
         <v>1277680401.84855</v>
       </c>
       <c r="F135">
-        <v>51875006.56585878</v>
+        <v>-51875006.56585878</v>
       </c>
       <c r="G135">
         <v>272.9839087463706</v>
@@ -3520,7 +3520,7 @@
         <v>3492410645.778711</v>
       </c>
       <c r="F136">
-        <v>7629008.36744724</v>
+        <v>-7629008.36744724</v>
       </c>
       <c r="G136">
         <v>214.870979469381</v>
@@ -3543,7 +3543,7 @@
         <v>2869088868.426933</v>
       </c>
       <c r="F137">
-        <v>-21402897.52163912</v>
+        <v>21402897.52163912</v>
       </c>
       <c r="G137">
         <v>292.7844131468875</v>
@@ -3566,7 +3566,7 @@
         <v>2928469922.12919</v>
       </c>
       <c r="F138">
-        <v>14639445.61954908</v>
+        <v>-14639445.61954908</v>
       </c>
       <c r="G138">
         <v>134.2328068970648</v>
@@ -3589,7 +3589,7 @@
         <v>5881421966.728233</v>
       </c>
       <c r="F139">
-        <v>-42492104.45779014</v>
+        <v>42492104.45779014</v>
       </c>
       <c r="G139">
         <v>-137.8516154967916</v>
@@ -3612,7 +3612,7 @@
         <v>2618658247.111792</v>
       </c>
       <c r="F140">
-        <v>-19895462.42167929</v>
+        <v>19895462.42167929</v>
       </c>
       <c r="G140">
         <v>103.8821828568387</v>
@@ -3635,7 +3635,7 @@
         <v>2829358146.408769</v>
       </c>
       <c r="F141">
-        <v>-36547100.96472555</v>
+        <v>36547100.96472555</v>
       </c>
       <c r="G141">
         <v>353.9091028653904</v>
@@ -3658,7 +3658,7 @@
         <v>3133390673.07931</v>
       </c>
       <c r="F142">
-        <v>-4532024.68046705</v>
+        <v>4532024.68046705</v>
       </c>
       <c r="G142">
         <v>331.5523769479758</v>
@@ -3681,7 +3681,7 @@
         <v>2764932351.493311</v>
       </c>
       <c r="F143">
-        <v>16619189.83752748</v>
+        <v>-16619189.83752748</v>
       </c>
       <c r="G143">
         <v>342.3664263381521</v>
@@ -3704,7 +3704,7 @@
         <v>4044677549.196068</v>
       </c>
       <c r="F144">
-        <v>15095353.39127744</v>
+        <v>-15095353.39127744</v>
       </c>
       <c r="G144">
         <v>81.41038431483929</v>
@@ -3727,7 +3727,7 @@
         <v>2093577827.286536</v>
       </c>
       <c r="F145">
-        <v>-39141542.31144371</v>
+        <v>39141542.31144371</v>
       </c>
       <c r="G145">
         <v>92.47897340587421</v>
@@ -3750,7 +3750,7 @@
         <v>3179222056.615446</v>
       </c>
       <c r="F146">
-        <v>28992438.82611369</v>
+        <v>-28992438.82611369</v>
       </c>
       <c r="G146">
         <v>392.0263793176198</v>
@@ -3773,7 +3773,7 @@
         <v>2576563446.582314</v>
       </c>
       <c r="F147">
-        <v>4456211.232154349</v>
+        <v>-4456211.232154349</v>
       </c>
       <c r="G147">
         <v>319.5558514401135</v>
@@ -3796,7 +3796,7 @@
         <v>3095424452.912705</v>
       </c>
       <c r="F148">
-        <v>15887395.34195823</v>
+        <v>-15887395.34195823</v>
       </c>
       <c r="G148">
         <v>347.1339959839592</v>
@@ -3819,7 +3819,7 @@
         <v>2524462559.141798</v>
       </c>
       <c r="F149">
-        <v>-20463206.05191058</v>
+        <v>20463206.05191058</v>
       </c>
       <c r="G149">
         <v>219.6700325181319</v>
@@ -3842,7 +3842,7 @@
         <v>2387424251.933375</v>
       </c>
       <c r="F150">
-        <v>-21318329.71836824</v>
+        <v>21318329.71836824</v>
       </c>
       <c r="G150">
         <v>269.3370609356932</v>
@@ -3865,7 +3865,7 @@
         <v>2609760576.915093</v>
       </c>
       <c r="F151">
-        <v>-26807557.21697785</v>
+        <v>26807557.21697785</v>
       </c>
       <c r="G151">
         <v>5.522659147667259</v>
@@ -3888,7 +3888,7 @@
         <v>2701662462.370373</v>
       </c>
       <c r="F152">
-        <v>-22456878.06023574</v>
+        <v>22456878.06023574</v>
       </c>
       <c r="G152">
         <v>430.6616944641905</v>
@@ -3911,7 +3911,7 @@
         <v>2373912766.56643</v>
       </c>
       <c r="F153">
-        <v>-6287354.073957154</v>
+        <v>6287354.073957154</v>
       </c>
       <c r="G153">
         <v>40.46949130141842</v>
@@ -3934,7 +3934,7 @@
         <v>2288132164.547809</v>
       </c>
       <c r="F154">
-        <v>-51227219.09015395</v>
+        <v>51227219.09015395</v>
       </c>
       <c r="G154">
         <v>495.9563745355763</v>
@@ -3957,7 +3957,7 @@
         <v>2344624347.877722</v>
       </c>
       <c r="F155">
-        <v>-3006011.11654563</v>
+        <v>3006011.11654563</v>
       </c>
       <c r="G155">
         <v>191.0072361620598</v>
@@ -3980,7 +3980,7 @@
         <v>2324035744.369361</v>
       </c>
       <c r="F156">
-        <v>39089639.85088311</v>
+        <v>-39089639.85088311</v>
       </c>
       <c r="G156">
         <v>36.7033088949083</v>
@@ -4003,7 +4003,7 @@
         <v>1935730441.132565</v>
       </c>
       <c r="F157">
-        <v>-120891807.0093691</v>
+        <v>120891807.0093691</v>
       </c>
       <c r="G157">
         <v>208.5370214600775</v>
@@ -4026,7 +4026,7 @@
         <v>3128094910.877211</v>
       </c>
       <c r="F158">
-        <v>12752656.47561182</v>
+        <v>-12752656.47561182</v>
       </c>
       <c r="G158">
         <v>142.5940394123858</v>
@@ -4049,7 +4049,7 @@
         <v>2985467084.742025</v>
       </c>
       <c r="F159">
-        <v>7865713.081280822</v>
+        <v>-7865713.081280822</v>
       </c>
       <c r="G159">
         <v>321.5504153084832</v>
@@ -4072,7 +4072,7 @@
         <v>2539554703.956648</v>
       </c>
       <c r="F160">
-        <v>28550976.2097047</v>
+        <v>-28550976.2097047</v>
       </c>
       <c r="G160">
         <v>133.1104821214017</v>
@@ -4095,7 +4095,7 @@
         <v>2122137809.853559</v>
       </c>
       <c r="F161">
-        <v>-65936362.86466946</v>
+        <v>65936362.86466946</v>
       </c>
       <c r="G161">
         <v>313.5581417605769</v>
@@ -4118,7 +4118,7 @@
         <v>3267782809.83175</v>
       </c>
       <c r="F162">
-        <v>32685213.94314819</v>
+        <v>-32685213.94314819</v>
       </c>
       <c r="G162">
         <v>382.7298065708976</v>
@@ -4141,7 +4141,7 @@
         <v>2549208199.796457</v>
       </c>
       <c r="F163">
-        <v>-15129787.24873984</v>
+        <v>15129787.24873984</v>
       </c>
       <c r="G163">
         <v>116.4342485451196</v>
@@ -4164,7 +4164,7 @@
         <v>2910109884.384812</v>
       </c>
       <c r="F164">
-        <v>11321095.68117637</v>
+        <v>-11321095.68117637</v>
       </c>
       <c r="G164">
         <v>430.8414697035229</v>
@@ -4187,7 +4187,7 @@
         <v>3265067322.629371</v>
       </c>
       <c r="F165">
-        <v>-2226455.036940136</v>
+        <v>2226455.036940136</v>
       </c>
       <c r="G165">
         <v>377.4228902383945</v>
@@ -4210,7 +4210,7 @@
         <v>2365213727.85796</v>
       </c>
       <c r="F166">
-        <v>30673859.85569298</v>
+        <v>-30673859.85569298</v>
       </c>
       <c r="G166">
         <v>326.1821565130869</v>
@@ -4233,7 +4233,7 @@
         <v>2429909011.294053</v>
       </c>
       <c r="F167">
-        <v>-16523722.63063598</v>
+        <v>16523722.63063598</v>
       </c>
       <c r="G167">
         <v>405.6016304391342</v>
@@ -4256,7 +4256,7 @@
         <v>3024902844.993293</v>
       </c>
       <c r="F168">
-        <v>26526815.54057986</v>
+        <v>-26526815.54057986</v>
       </c>
       <c r="G168">
         <v>544.7055824357349</v>
@@ -4279,7 +4279,7 @@
         <v>2935604332.999224</v>
       </c>
       <c r="F169">
-        <v>-9043179.713305684</v>
+        <v>9043179.713305684</v>
       </c>
       <c r="G169">
         <v>70.21986776515132</v>
@@ -4302,7 +4302,7 @@
         <v>2969276017.595953</v>
       </c>
       <c r="F170">
-        <v>45951324.73962834</v>
+        <v>-45951324.73962834</v>
       </c>
       <c r="G170">
         <v>118.6938124995394</v>
@@ -4325,7 +4325,7 @@
         <v>2397325331.73465</v>
       </c>
       <c r="F171">
-        <v>-35583227.94198732</v>
+        <v>35583227.94198732</v>
       </c>
       <c r="G171">
         <v>89.6087900242761</v>
@@ -4348,7 +4348,7 @@
         <v>1090461313.019374</v>
       </c>
       <c r="F172">
-        <v>-83037663.30621134</v>
+        <v>83037663.30621134</v>
       </c>
       <c r="G172">
         <v>317.188266800946</v>
@@ -4371,7 +4371,7 @@
         <v>505954929.6191821</v>
       </c>
       <c r="F173">
-        <v>-315653138.2201879</v>
+        <v>315653138.2201879</v>
       </c>
       <c r="G173">
         <v>114.684419813436</v>
@@ -4394,7 +4394,7 @@
         <v>2634097295.423865</v>
       </c>
       <c r="F174">
-        <v>14186611.91552306</v>
+        <v>-14186611.91552306</v>
       </c>
       <c r="G174">
         <v>316.651054994061</v>
@@ -4417,7 +4417,7 @@
         <v>2153922306.858066</v>
       </c>
       <c r="F175">
-        <v>-104028839.900463</v>
+        <v>104028839.900463</v>
       </c>
       <c r="G175">
         <v>121.3139475424352</v>
@@ -4440,7 +4440,7 @@
         <v>1992678221.439851</v>
       </c>
       <c r="F176">
-        <v>-84275469.41572106</v>
+        <v>84275469.41572106</v>
       </c>
       <c r="G176">
         <v>-62.16544229493469</v>
@@ -4463,7 +4463,7 @@
         <v>997664084.8940914</v>
       </c>
       <c r="F177">
-        <v>331335589.3247173</v>
+        <v>-331335589.3247173</v>
       </c>
       <c r="G177">
         <v>-95.85160748423247</v>
@@ -4486,7 +4486,7 @@
         <v>2738149516.287169</v>
       </c>
       <c r="F178">
-        <v>-5315605.952762325</v>
+        <v>5315605.952762325</v>
       </c>
       <c r="G178">
         <v>150.1209848485497</v>
@@ -4509,7 +4509,7 @@
         <v>2265164718.023444</v>
       </c>
       <c r="F179">
-        <v>39205278.65236276</v>
+        <v>-39205278.65236276</v>
       </c>
       <c r="G179">
         <v>-158.6194640879232</v>
@@ -4532,7 +4532,7 @@
         <v>3196825565.453818</v>
       </c>
       <c r="F180">
-        <v>39561255.61846042</v>
+        <v>-39561255.61846042</v>
       </c>
       <c r="G180">
         <v>100.4256205295912</v>
@@ -4555,7 +4555,7 @@
         <v>1499806598.330992</v>
       </c>
       <c r="F181">
-        <v>27980409.52283004</v>
+        <v>-27980409.52283004</v>
       </c>
       <c r="G181">
         <v>54.53187711609101</v>
@@ -4578,7 +4578,7 @@
         <v>3471452045.405795</v>
       </c>
       <c r="F182">
-        <v>-28622477.40795692</v>
+        <v>28622477.40795692</v>
       </c>
       <c r="G182">
         <v>64.7249906789629</v>
@@ -4601,7 +4601,7 @@
         <v>2868653579.087183</v>
       </c>
       <c r="F183">
-        <v>9407379.650744831</v>
+        <v>-9407379.650744831</v>
       </c>
       <c r="G183">
         <v>134.4768316275478</v>
@@ -4624,7 +4624,7 @@
         <v>2012332774.739811</v>
       </c>
       <c r="F184">
-        <v>52585171.57564016</v>
+        <v>-52585171.57564016</v>
       </c>
       <c r="G184">
         <v>134.4369652716454</v>
@@ -4647,7 +4647,7 @@
         <v>2297603256.137409</v>
       </c>
       <c r="F185">
-        <v>55151778.96647949</v>
+        <v>-55151778.96647949</v>
       </c>
       <c r="G185">
         <v>83.61924462412458</v>
@@ -4670,7 +4670,7 @@
         <v>3115670104.780177</v>
       </c>
       <c r="F186">
-        <v>-20684258.06144327</v>
+        <v>20684258.06144327</v>
       </c>
       <c r="G186">
         <v>93.53874735469434</v>
@@ -4693,7 +4693,7 @@
         <v>2184124492.427251</v>
       </c>
       <c r="F187">
-        <v>59042938.8992428</v>
+        <v>-59042938.8992428</v>
       </c>
       <c r="G187">
         <v>34.6268981373526</v>
@@ -4716,7 +4716,7 @@
         <v>2313138605.45255</v>
       </c>
       <c r="F188">
-        <v>12747770.98337865</v>
+        <v>-12747770.98337865</v>
       </c>
       <c r="G188">
         <v>111.8581796353327</v>
@@ -4739,7 +4739,7 @@
         <v>2741667337.789729</v>
       </c>
       <c r="F189">
-        <v>33404815.53269046</v>
+        <v>-33404815.53269046</v>
       </c>
       <c r="G189">
         <v>-47.22208851763329</v>
@@ -4762,7 +4762,7 @@
         <v>1991439345.439217</v>
       </c>
       <c r="F190">
-        <v>128796335.2339712</v>
+        <v>-128796335.2339712</v>
       </c>
       <c r="G190">
         <v>141.7758727360583</v>
@@ -4785,7 +4785,7 @@
         <v>1418031621.297791</v>
       </c>
       <c r="F191">
-        <v>75556569.19388327</v>
+        <v>-75556569.19388327</v>
       </c>
       <c r="G191">
         <v>-32.44086179078059</v>
@@ -4808,7 +4808,7 @@
         <v>3644141551.465208</v>
       </c>
       <c r="F192">
-        <v>85997863.85278149</v>
+        <v>-85997863.85278149</v>
       </c>
       <c r="G192">
         <v>-67.56613940223765</v>

--- a/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
+++ b/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +438,7 @@
         <v>1092414854.350568</v>
       </c>
       <c r="F2">
-        <v>156677110.1056063</v>
+        <v>-156677110.1056063</v>
       </c>
       <c r="G2">
         <v>209.110092138397</v>
@@ -446,4372 +446,3567 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10067.8047</v>
+        <v>10084.1584</v>
       </c>
       <c r="B3">
-        <v>10067.8169</v>
+        <v>10084.1685</v>
       </c>
       <c r="C3">
-        <v>0.6110790850327685</v>
+        <v>0.9566354357463792</v>
       </c>
       <c r="D3">
-        <v>-270</v>
+        <v>-333</v>
       </c>
       <c r="E3">
-        <v>5206248583.586316</v>
+        <v>1039916995.203525</v>
       </c>
       <c r="F3">
-        <v>-18519209.4692356</v>
+        <v>-95784039.45845836</v>
       </c>
       <c r="G3">
-        <v>363.2835654082753</v>
+        <v>300.2634136864436</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10084.1584</v>
+        <v>10116.7892</v>
       </c>
       <c r="B4">
-        <v>10084.1685</v>
+        <v>10116.797</v>
       </c>
       <c r="C4">
-        <v>0.9566354357463792</v>
+        <v>0.8921159934809142</v>
       </c>
       <c r="D4">
-        <v>-333</v>
+        <v>-402</v>
       </c>
       <c r="E4">
-        <v>1039916995.203525</v>
+        <v>2487722571.704799</v>
       </c>
       <c r="F4">
-        <v>95784039.45845836</v>
+        <v>-62683098.96488434</v>
       </c>
       <c r="G4">
-        <v>300.2634136864436</v>
+        <v>231.1386673049972</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10087.8409</v>
+        <v>10139.8807</v>
       </c>
       <c r="B5">
-        <v>10087.8493</v>
+        <v>10139.8825</v>
       </c>
       <c r="C5">
-        <v>0.9679695505008226</v>
+        <v>0.9455875591861581</v>
       </c>
       <c r="D5">
-        <v>-383</v>
+        <v>-580</v>
       </c>
       <c r="E5">
-        <v>680676876.5583919</v>
+        <v>1164347933.249144</v>
       </c>
       <c r="F5">
-        <v>235150854.3567928</v>
+        <v>-166611754.3473985</v>
       </c>
       <c r="G5">
-        <v>249.632867166849</v>
+        <v>53.21822221639219</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>10092.5415</v>
+        <v>10145.6242</v>
       </c>
       <c r="B6">
-        <v>10092.5375</v>
+        <v>10145.6287</v>
       </c>
       <c r="C6">
-        <v>0.9575013184019103</v>
+        <v>0.9165798275178256</v>
       </c>
       <c r="D6">
-        <v>-752</v>
+        <v>-500</v>
       </c>
       <c r="E6">
-        <v>579920772.9419634</v>
+        <v>1427904249.565825</v>
       </c>
       <c r="F6">
-        <v>-215585189.2373232</v>
+        <v>22663026.0553909</v>
       </c>
       <c r="G6">
-        <v>-118.817428870391</v>
+        <v>132.9702376056558</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10116.7892</v>
+        <v>10148.3444</v>
       </c>
       <c r="B7">
-        <v>10116.797</v>
+        <v>10148.3569</v>
       </c>
       <c r="C7">
-        <v>0.8921159934809142</v>
+        <v>0.578729376228426</v>
       </c>
       <c r="D7">
-        <v>-402</v>
+        <v>-264</v>
       </c>
       <c r="E7">
-        <v>2487722571.704799</v>
+        <v>4861451483.351841</v>
       </c>
       <c r="F7">
-        <v>62683098.96488434</v>
+        <v>28409543.72762407</v>
       </c>
       <c r="G7">
-        <v>231.1386673049972</v>
+        <v>369.2627661837664</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>10139.8807</v>
+        <v>10157.949</v>
       </c>
       <c r="B8">
-        <v>10139.8825</v>
+        <v>10157.9565</v>
       </c>
       <c r="C8">
-        <v>0.9455875591861581</v>
+        <v>0.8922904980039206</v>
       </c>
       <c r="D8">
-        <v>-580</v>
+        <v>-412</v>
       </c>
       <c r="E8">
-        <v>1164347933.249144</v>
+        <v>2369787863.916452</v>
       </c>
       <c r="F8">
-        <v>166611754.3473985</v>
+        <v>-45429471.48641107</v>
       </c>
       <c r="G8">
-        <v>53.21822221639219</v>
+        <v>221.3481712655098</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>10145.6242</v>
+        <v>10170.2562</v>
       </c>
       <c r="B9">
-        <v>10145.6287</v>
+        <v>10170.2631</v>
       </c>
       <c r="C9">
-        <v>0.9165798275178256</v>
+        <v>0.8727068181001285</v>
       </c>
       <c r="D9">
-        <v>-500</v>
+        <v>-430</v>
       </c>
       <c r="E9">
-        <v>1427904249.565825</v>
+        <v>2893465557.268535</v>
       </c>
       <c r="F9">
-        <v>-22663026.0553909</v>
+        <v>-52285354.05180201</v>
       </c>
       <c r="G9">
-        <v>132.9702376056558</v>
+        <v>203.3938889715005</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10148.3444</v>
+        <v>10219.1142</v>
       </c>
       <c r="B10">
-        <v>10148.3569</v>
+        <v>10219.1292</v>
       </c>
       <c r="C10">
-        <v>0.578729376228426</v>
+        <v>0.5526297645050298</v>
       </c>
       <c r="D10">
-        <v>-264</v>
+        <v>-193</v>
       </c>
       <c r="E10">
-        <v>4861451483.351841</v>
+        <v>4898282972.106872</v>
       </c>
       <c r="F10">
-        <v>-28409543.72762407</v>
+        <v>7300468.186603961</v>
       </c>
       <c r="G10">
-        <v>369.2627661837664</v>
+        <v>440.04664022485</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>10157.949</v>
+        <v>10221.2115</v>
       </c>
       <c r="B11">
-        <v>10157.9565</v>
+        <v>10221.2182</v>
       </c>
       <c r="C11">
-        <v>0.8922904980039206</v>
+        <v>0.7701527816600178</v>
       </c>
       <c r="D11">
-        <v>-412</v>
+        <v>-436</v>
       </c>
       <c r="E11">
-        <v>2369787863.916452</v>
+        <v>4769684636.022537</v>
       </c>
       <c r="F11">
-        <v>45429471.48641107</v>
+        <v>-3783279.059394291</v>
       </c>
       <c r="G11">
-        <v>221.3481712655098</v>
+        <v>196.5138348174656</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>10170.2562</v>
+        <v>10268.0337</v>
       </c>
       <c r="B12">
-        <v>10170.2631</v>
+        <v>10268.0393</v>
       </c>
       <c r="C12">
-        <v>0.8727068181001285</v>
+        <v>0.947788576701416</v>
       </c>
       <c r="D12">
-        <v>-430</v>
+        <v>-469</v>
       </c>
       <c r="E12">
-        <v>2893465557.268535</v>
+        <v>1175894603.604178</v>
       </c>
       <c r="F12">
-        <v>52285354.05180201</v>
+        <v>-101648915.6019635</v>
       </c>
       <c r="G12">
-        <v>203.3938889715005</v>
+        <v>163.5013882968728</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10219.1142</v>
+        <v>10310.2796</v>
       </c>
       <c r="B13">
-        <v>10219.1292</v>
+        <v>10310.2815</v>
       </c>
       <c r="C13">
-        <v>0.5526297645050298</v>
+        <v>0.9618218832931974</v>
       </c>
       <c r="D13">
-        <v>-193</v>
+        <v>-578</v>
       </c>
       <c r="E13">
-        <v>4898282972.106872</v>
+        <v>651237286.9919277</v>
       </c>
       <c r="F13">
-        <v>-7300468.186603961</v>
+        <v>-406184614.3090176</v>
       </c>
       <c r="G13">
-        <v>440.04664022485</v>
+        <v>55.24638439732712</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>10221.2115</v>
+        <v>10335.161</v>
       </c>
       <c r="B14">
-        <v>10221.2182</v>
+        <v>10335.1693</v>
       </c>
       <c r="C14">
-        <v>0.7701527816600178</v>
+        <v>0.9324216936338562</v>
       </c>
       <c r="D14">
-        <v>-436</v>
+        <v>-392</v>
       </c>
       <c r="E14">
-        <v>4769684636.022537</v>
+        <v>1483377073.555127</v>
       </c>
       <c r="F14">
-        <v>3783279.059394291</v>
+        <v>-87995685.52016665</v>
       </c>
       <c r="G14">
-        <v>196.5138348174656</v>
+        <v>240.7584556362024</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>10268.0337</v>
+        <v>10343.7208</v>
       </c>
       <c r="B15">
-        <v>10268.0393</v>
+        <v>10343.7289</v>
       </c>
       <c r="C15">
-        <v>0.947788576701416</v>
+        <v>0.7276842221210741</v>
       </c>
       <c r="D15">
-        <v>-469</v>
+        <v>-398</v>
       </c>
       <c r="E15">
-        <v>1175894603.604178</v>
+        <v>5741618897.409628</v>
       </c>
       <c r="F15">
-        <v>101648915.6019635</v>
+        <v>-3332097.627462617</v>
       </c>
       <c r="G15">
-        <v>163.5013882968728</v>
+        <v>234.7626117048913</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>10286.5969</v>
+        <v>10348.0194</v>
       </c>
       <c r="B16">
-        <v>10286.5989</v>
+        <v>10348.0221</v>
       </c>
       <c r="C16">
-        <v>0.960226488352377</v>
+        <v>0.9541308464388411</v>
       </c>
       <c r="D16">
-        <v>-575</v>
+        <v>-555</v>
       </c>
       <c r="E16">
-        <v>517253609.0199448</v>
+        <v>816452194.0869088</v>
       </c>
       <c r="F16">
-        <v>-35809794.85313801</v>
+        <v>-24187923.80759507</v>
       </c>
       <c r="G16">
-        <v>58.2879763077196</v>
+        <v>78.22169691553601</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>10310.2796</v>
+        <v>10350.8021</v>
       </c>
       <c r="B17">
-        <v>10310.2815</v>
+        <v>10350.8094</v>
       </c>
       <c r="C17">
-        <v>0.9618218832931974</v>
+        <v>0.8204667728020646</v>
       </c>
       <c r="D17">
-        <v>-578</v>
+        <v>-422</v>
       </c>
       <c r="E17">
-        <v>651237286.9919277</v>
+        <v>3023016423.668905</v>
       </c>
       <c r="F17">
-        <v>406184614.3090176</v>
+        <v>-977415.4649770735</v>
       </c>
       <c r="G17">
-        <v>55.24638439732712</v>
+        <v>211.4314352049752</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>10335.161</v>
+        <v>10365.544</v>
       </c>
       <c r="B18">
-        <v>10335.1693</v>
+        <v>10365.5494</v>
       </c>
       <c r="C18">
-        <v>0.9324216936338562</v>
+        <v>0.9334676050653554</v>
       </c>
       <c r="D18">
-        <v>-392</v>
+        <v>-477</v>
       </c>
       <c r="E18">
-        <v>1483377073.555127</v>
+        <v>1167710602.469932</v>
       </c>
       <c r="F18">
-        <v>87995685.52016665</v>
+        <v>-101261740.0364153</v>
       </c>
       <c r="G18">
-        <v>240.7584556362024</v>
+        <v>156.1789013206684</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>10343.7208</v>
+        <v>10381.8464</v>
       </c>
       <c r="B19">
-        <v>10343.7289</v>
+        <v>10381.8516</v>
       </c>
       <c r="C19">
-        <v>0.7276842221210741</v>
+        <v>0.8817066134008689</v>
       </c>
       <c r="D19">
-        <v>-398</v>
+        <v>-483</v>
       </c>
       <c r="E19">
-        <v>5741618897.409628</v>
+        <v>2620537720.623078</v>
       </c>
       <c r="F19">
-        <v>3332097.627462617</v>
+        <v>-8616107.045082089</v>
       </c>
       <c r="G19">
-        <v>234.7626117048913</v>
+        <v>150.158336158803</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>10348.0194</v>
+        <v>10391.5915</v>
       </c>
       <c r="B20">
-        <v>10348.0221</v>
+        <v>10391.5985</v>
       </c>
       <c r="C20">
-        <v>0.9541308464388411</v>
+        <v>0.9516161949802773</v>
       </c>
       <c r="D20">
-        <v>-555</v>
+        <v>-431</v>
       </c>
       <c r="E20">
-        <v>816452194.0869088</v>
+        <v>912103665.3756156</v>
       </c>
       <c r="F20">
-        <v>24187923.80759507</v>
+        <v>-155365542.5129987</v>
       </c>
       <c r="G20">
-        <v>78.22169691553601</v>
+        <v>201.9466609972183</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>10350.8021</v>
+        <v>10398.6467</v>
       </c>
       <c r="B21">
-        <v>10350.8094</v>
+        <v>10398.6551</v>
       </c>
       <c r="C21">
-        <v>0.8204667728020646</v>
+        <v>0.6726186538732124</v>
       </c>
       <c r="D21">
-        <v>-422</v>
+        <v>-391</v>
       </c>
       <c r="E21">
-        <v>3023016423.668905</v>
+        <v>6334397162.849628</v>
       </c>
       <c r="F21">
-        <v>977415.4649770735</v>
+        <v>5619379.032977202</v>
       </c>
       <c r="G21">
-        <v>211.4314352049752</v>
+        <v>242.1715747933119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>10356.6445</v>
+        <v>10425.8871</v>
       </c>
       <c r="B22">
-        <v>10356.651</v>
+        <v>10425.8954</v>
       </c>
       <c r="C22">
-        <v>0.8780656825763451</v>
+        <v>0.8627504163799893</v>
       </c>
       <c r="D22">
-        <v>-445</v>
+        <v>-394</v>
       </c>
       <c r="E22">
-        <v>2268074095.879919</v>
+        <v>2907342842.092541</v>
       </c>
       <c r="F22">
-        <v>51229562.94007045</v>
+        <v>-23491007.64812877</v>
       </c>
       <c r="G22">
-        <v>188.1546650230045</v>
+        <v>238.6633748817404</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>10365.544</v>
+        <v>10426.6023</v>
       </c>
       <c r="B23">
-        <v>10365.5494</v>
+        <v>10426.6096</v>
       </c>
       <c r="C23">
-        <v>0.9334676050653554</v>
+        <v>0.8242190357561556</v>
       </c>
       <c r="D23">
-        <v>-477</v>
+        <v>-423</v>
       </c>
       <c r="E23">
-        <v>1167710602.469932</v>
+        <v>3650308171.970758</v>
       </c>
       <c r="F23">
-        <v>101261740.0364153</v>
+        <v>4861517.001753004</v>
       </c>
       <c r="G23">
-        <v>156.1789013206684</v>
+        <v>209.894352961243</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>10381.8464</v>
+        <v>10472.5234</v>
       </c>
       <c r="B24">
-        <v>10381.8516</v>
+        <v>10472.5387</v>
       </c>
       <c r="C24">
-        <v>0.8817066134008689</v>
+        <v>0.6155480611350826</v>
       </c>
       <c r="D24">
-        <v>-483</v>
+        <v>-195</v>
       </c>
       <c r="E24">
-        <v>2620537720.623078</v>
+        <v>5367784831.088258</v>
       </c>
       <c r="F24">
-        <v>8616107.045082089</v>
+        <v>7306275.050283175</v>
       </c>
       <c r="G24">
-        <v>150.158336158803</v>
+        <v>437.9865704075818</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>10391.5915</v>
+        <v>10535.122</v>
       </c>
       <c r="B25">
-        <v>10391.5985</v>
+        <v>10535.1339</v>
       </c>
       <c r="C25">
-        <v>0.9516161949802773</v>
+        <v>0.6914731478923564</v>
       </c>
       <c r="D25">
-        <v>-431</v>
+        <v>-294</v>
       </c>
       <c r="E25">
-        <v>912103665.3756156</v>
+        <v>5502191211.121552</v>
       </c>
       <c r="F25">
-        <v>155365542.5129987</v>
+        <v>-3667309.38911736</v>
       </c>
       <c r="G25">
-        <v>201.9466609972183</v>
+        <v>338.6320776117072</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>10398.6467</v>
+        <v>10558.5438</v>
       </c>
       <c r="B26">
-        <v>10398.6551</v>
+        <v>10558.5496</v>
       </c>
       <c r="C26">
-        <v>0.6726186538732124</v>
+        <v>0.9329152439887537</v>
       </c>
       <c r="D26">
-        <v>-391</v>
+        <v>-468</v>
       </c>
       <c r="E26">
-        <v>6334397162.849628</v>
+        <v>1109103792.656712</v>
       </c>
       <c r="F26">
-        <v>-5619379.032977202</v>
+        <v>-25102531.12714076</v>
       </c>
       <c r="G26">
-        <v>242.1715747933119</v>
+        <v>164.6814456252225</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>10425.8871</v>
+        <v>10580.039</v>
       </c>
       <c r="B27">
-        <v>10425.8954</v>
+        <v>10580.0488</v>
       </c>
       <c r="C27">
-        <v>0.8627504163799893</v>
+        <v>0.8966317783067991</v>
       </c>
       <c r="D27">
-        <v>-394</v>
+        <v>-355</v>
       </c>
       <c r="E27">
-        <v>2907342842.092541</v>
+        <v>2276211567.059862</v>
       </c>
       <c r="F27">
-        <v>23491007.64812877</v>
+        <v>-23994375.32402267</v>
       </c>
       <c r="G27">
-        <v>238.6633748817404</v>
+        <v>277.6895329283418</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>10426.6023</v>
+        <v>10619.6322</v>
       </c>
       <c r="B28">
-        <v>10426.6096</v>
+        <v>10619.6384</v>
       </c>
       <c r="C28">
-        <v>0.8242190357561556</v>
+        <v>0.9075142607948093</v>
       </c>
       <c r="D28">
-        <v>-423</v>
+        <v>-458</v>
       </c>
       <c r="E28">
-        <v>3650308171.970758</v>
+        <v>2230216978.745636</v>
       </c>
       <c r="F28">
-        <v>-4861517.001753004</v>
+        <v>-28263552.39839941</v>
       </c>
       <c r="G28">
-        <v>209.894352961243</v>
+        <v>175.0261407137777</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>10472.5234</v>
+        <v>10755.9531</v>
       </c>
       <c r="B29">
-        <v>10472.5387</v>
+        <v>10755.9622</v>
       </c>
       <c r="C29">
-        <v>0.6155480611350826</v>
+        <v>0.7951715445423577</v>
       </c>
       <c r="D29">
-        <v>-195</v>
+        <v>-379</v>
       </c>
       <c r="E29">
-        <v>5367784831.088258</v>
+        <v>4012371034.929343</v>
       </c>
       <c r="F29">
-        <v>-7306275.050283175</v>
+        <v>-9957776.974086111</v>
       </c>
       <c r="G29">
-        <v>437.9865704075818</v>
+        <v>253.6373431923298</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>10535.122</v>
+        <v>10783.6477</v>
       </c>
       <c r="B30">
-        <v>10535.1339</v>
+        <v>10783.6583</v>
       </c>
       <c r="C30">
-        <v>0.6914731478923564</v>
+        <v>0.940933297218545</v>
       </c>
       <c r="D30">
-        <v>-294</v>
+        <v>-338</v>
       </c>
       <c r="E30">
-        <v>5502191211.121552</v>
+        <v>1423530335.532048</v>
       </c>
       <c r="F30">
-        <v>3667309.38911736</v>
+        <v>-48341681.80190385</v>
       </c>
       <c r="G30">
-        <v>338.6320776117072</v>
+        <v>294.6869318163317</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>10558.5438</v>
+        <v>10786.0053</v>
       </c>
       <c r="B31">
-        <v>10558.5496</v>
+        <v>10786.0128</v>
       </c>
       <c r="C31">
-        <v>0.9329152439887537</v>
+        <v>0.7509901897148473</v>
       </c>
       <c r="D31">
-        <v>-468</v>
+        <v>-425</v>
       </c>
       <c r="E31">
-        <v>1109103792.656712</v>
+        <v>5131435504.372919</v>
       </c>
       <c r="F31">
-        <v>25102531.12714076</v>
+        <v>-8438671.782919452</v>
       </c>
       <c r="G31">
-        <v>164.6814456252225</v>
+        <v>208.4593297016262</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>10580.039</v>
+        <v>10821.2401</v>
       </c>
       <c r="B32">
-        <v>10580.0488</v>
+        <v>10821.2494</v>
       </c>
       <c r="C32">
-        <v>0.8966317783067991</v>
+        <v>0.8187263313830657</v>
       </c>
       <c r="D32">
-        <v>-355</v>
+        <v>-375</v>
       </c>
       <c r="E32">
-        <v>2276211567.059862</v>
+        <v>3567627233.572556</v>
       </c>
       <c r="F32">
-        <v>23994375.32402267</v>
+        <v>-13690480.77423065</v>
       </c>
       <c r="G32">
-        <v>277.6895329283418</v>
+        <v>257.6479066640685</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>10619.6322</v>
+        <v>10887.2463</v>
       </c>
       <c r="B33">
-        <v>10619.6384</v>
+        <v>10887.2564</v>
       </c>
       <c r="C33">
-        <v>0.9075142607948093</v>
+        <v>0.7992821301989513</v>
       </c>
       <c r="D33">
-        <v>-458</v>
+        <v>-355</v>
       </c>
       <c r="E33">
-        <v>2230216978.745636</v>
+        <v>3740177205.343518</v>
       </c>
       <c r="F33">
-        <v>28263552.39839941</v>
+        <v>-5682019.626809872</v>
       </c>
       <c r="G33">
-        <v>175.0261407137777</v>
+        <v>278.1147539102653</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>10755.9531</v>
+        <v>10899.2871</v>
       </c>
       <c r="B34">
-        <v>10755.9622</v>
+        <v>10899.2954</v>
       </c>
       <c r="C34">
-        <v>0.7951715445423577</v>
+        <v>0.7771657279956552</v>
       </c>
       <c r="D34">
-        <v>-379</v>
+        <v>-405</v>
       </c>
       <c r="E34">
-        <v>4012371034.929343</v>
+        <v>4551789703.786042</v>
       </c>
       <c r="F34">
-        <v>9957776.974086111</v>
+        <v>7373565.200082134</v>
       </c>
       <c r="G34">
-        <v>253.6373431923298</v>
+        <v>228.2972618982217</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>10783.6477</v>
+        <v>11122.8432</v>
       </c>
       <c r="B35">
-        <v>10783.6583</v>
+        <v>11122.8541</v>
       </c>
       <c r="C35">
-        <v>0.940933297218545</v>
+        <v>0.5788332976528966</v>
       </c>
       <c r="D35">
-        <v>-338</v>
+        <v>-339</v>
       </c>
       <c r="E35">
-        <v>1423530335.532048</v>
+        <v>5920332872.86448</v>
       </c>
       <c r="F35">
-        <v>48341681.80190385</v>
+        <v>8343150.216613088</v>
       </c>
       <c r="G35">
-        <v>294.6869318163317</v>
+        <v>293.786195995636</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>10786.0053</v>
+        <v>11672.8365</v>
       </c>
       <c r="B36">
-        <v>10786.0128</v>
+        <v>11672.8441</v>
       </c>
       <c r="C36">
-        <v>0.7509901897148473</v>
+        <v>0.7174500684803052</v>
       </c>
       <c r="D36">
-        <v>-425</v>
+        <v>-438</v>
       </c>
       <c r="E36">
-        <v>5131435504.372919</v>
+        <v>5053048059.109766</v>
       </c>
       <c r="F36">
-        <v>8438671.782919452</v>
+        <v>-29709112.09872661</v>
       </c>
       <c r="G36">
-        <v>208.4593297016262</v>
+        <v>195.1901477600028</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>10821.2401</v>
+        <v>11887.3385</v>
       </c>
       <c r="B37">
-        <v>10821.2494</v>
+        <v>11887.3563</v>
       </c>
       <c r="C37">
-        <v>0.8187263313830657</v>
+        <v>0.4844950352663978</v>
       </c>
       <c r="D37">
-        <v>-375</v>
+        <v>-184</v>
       </c>
       <c r="E37">
-        <v>3567627233.572556</v>
+        <v>4078361117.601238</v>
       </c>
       <c r="F37">
-        <v>13690480.77423065</v>
+        <v>33204587.71600025</v>
       </c>
       <c r="G37">
-        <v>257.6479066640685</v>
+        <v>448.9066877308219</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>10887.2463</v>
+        <v>11893.7446</v>
       </c>
       <c r="B38">
-        <v>10887.2564</v>
+        <v>11893.751</v>
       </c>
       <c r="C38">
-        <v>0.7992821301989513</v>
+        <v>0.7331483007404824</v>
       </c>
       <c r="D38">
-        <v>-355</v>
+        <v>-472</v>
       </c>
       <c r="E38">
-        <v>3740177205.343518</v>
+        <v>3234104353.83377</v>
       </c>
       <c r="F38">
-        <v>5682019.626809872</v>
+        <v>7962682.93565054</v>
       </c>
       <c r="G38">
-        <v>278.1147539102653</v>
+        <v>161.3177175190825</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>10899.2871</v>
+        <v>12056.3824</v>
       </c>
       <c r="B39">
-        <v>10899.2954</v>
+        <v>12056.391</v>
       </c>
       <c r="C39">
-        <v>0.7771657279956552</v>
+        <v>0.8219597008949441</v>
       </c>
       <c r="D39">
-        <v>-405</v>
+        <v>-419</v>
       </c>
       <c r="E39">
-        <v>4551789703.786042</v>
+        <v>3292310950.058791</v>
       </c>
       <c r="F39">
-        <v>-7373565.200082134</v>
+        <v>8322813.517383904</v>
       </c>
       <c r="G39">
-        <v>228.2972618982217</v>
+        <v>213.8464966395116</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>11029.8104</v>
+        <v>12134.4953</v>
       </c>
       <c r="B40">
-        <v>11029.8075</v>
+        <v>12134.4932</v>
       </c>
       <c r="C40">
-        <v>0.7923569142243945</v>
+        <v>0.9696413045972998</v>
       </c>
       <c r="D40">
-        <v>-712</v>
+        <v>-685</v>
       </c>
       <c r="E40">
-        <v>3735533218.436416</v>
+        <v>484919102.1449975</v>
       </c>
       <c r="F40">
-        <v>58420175.82534759</v>
+        <v>37658692.86906283</v>
       </c>
       <c r="G40">
-        <v>-78.82258140793543</v>
+        <v>-51.88218762412625</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>11122.8432</v>
+        <v>12216.6754</v>
       </c>
       <c r="B41">
-        <v>11122.8541</v>
+        <v>12216.6782</v>
       </c>
       <c r="C41">
-        <v>0.5788332976528966</v>
+        <v>0.8802837580998081</v>
       </c>
       <c r="D41">
-        <v>-339</v>
+        <v>-564</v>
       </c>
       <c r="E41">
-        <v>5920332872.86448</v>
+        <v>1956128998.876171</v>
       </c>
       <c r="F41">
-        <v>-8343150.216613088</v>
+        <v>-63107876.30689377</v>
       </c>
       <c r="G41">
-        <v>293.786195995636</v>
+        <v>68.71090987194373</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>11391.6585</v>
+        <v>12230.459</v>
       </c>
       <c r="B42">
-        <v>11391.6608</v>
+        <v>12230.4677</v>
       </c>
       <c r="C42">
-        <v>0.7662686481387153</v>
+        <v>0.7707975248510693</v>
       </c>
       <c r="D42">
-        <v>-572</v>
+        <v>-420</v>
       </c>
       <c r="E42">
-        <v>1719662461.027918</v>
+        <v>3958370237.736347</v>
       </c>
       <c r="F42">
-        <v>-17818425.38171053</v>
+        <v>-7461850.332053294</v>
       </c>
       <c r="G42">
-        <v>60.52873280376289</v>
+        <v>213.2540066162134</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>11405.8406</v>
+        <v>12343.864</v>
       </c>
       <c r="B43">
-        <v>11405.8438</v>
+        <v>12343.8663</v>
       </c>
       <c r="C43">
-        <v>0.6008858443554799</v>
+        <v>0.9508750247068429</v>
       </c>
       <c r="D43">
-        <v>-549</v>
+        <v>-577</v>
       </c>
       <c r="E43">
-        <v>2052153873.602626</v>
+        <v>885320110.7129227</v>
       </c>
       <c r="F43">
-        <v>6126794.508152236</v>
+        <v>18408945.50113069</v>
       </c>
       <c r="G43">
-        <v>84.10917700767887</v>
+        <v>55.85954716125617</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>11672.8365</v>
+        <v>12346.2918</v>
       </c>
       <c r="B44">
-        <v>11672.8441</v>
+        <v>12346.3034</v>
       </c>
       <c r="C44">
-        <v>0.7174500684803052</v>
+        <v>0.8201837553729874</v>
       </c>
       <c r="D44">
-        <v>-438</v>
+        <v>-351</v>
       </c>
       <c r="E44">
-        <v>5053048059.109766</v>
+        <v>2893479150.314776</v>
       </c>
       <c r="F44">
-        <v>29709112.09872661</v>
+        <v>-25835291.56025861</v>
       </c>
       <c r="G44">
-        <v>195.1901477600028</v>
+        <v>281.6710125485241</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>11887.3385</v>
+        <v>12560.4345</v>
       </c>
       <c r="B45">
-        <v>11887.3563</v>
+        <v>12560.4438</v>
       </c>
       <c r="C45">
-        <v>0.4844950352663978</v>
+        <v>0.8253168036778873</v>
       </c>
       <c r="D45">
-        <v>-184</v>
+        <v>-411</v>
       </c>
       <c r="E45">
-        <v>4078361117.601238</v>
+        <v>3698188201.947296</v>
       </c>
       <c r="F45">
-        <v>-33204587.71600025</v>
+        <v>-7148187.431506136</v>
       </c>
       <c r="G45">
-        <v>448.9066877308219</v>
+        <v>221.9724054358576</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>11893.7446</v>
+        <v>12619.3777</v>
       </c>
       <c r="B46">
-        <v>11893.751</v>
+        <v>12619.3872</v>
       </c>
       <c r="C46">
-        <v>0.7331483007404824</v>
+        <v>0.8312967932890556</v>
       </c>
       <c r="D46">
-        <v>-472</v>
+        <v>-407</v>
       </c>
       <c r="E46">
-        <v>3234104353.83377</v>
+        <v>2922384018.712894</v>
       </c>
       <c r="F46">
-        <v>-7962682.93565054</v>
+        <v>8848614.204445509</v>
       </c>
       <c r="G46">
-        <v>161.3177175190825</v>
+        <v>225.6869093191555</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>12056.3824</v>
+        <v>12642.1643</v>
       </c>
       <c r="B47">
-        <v>12056.391</v>
+        <v>12642.1791</v>
       </c>
       <c r="C47">
-        <v>0.8219597008949441</v>
+        <v>0.6177090004850468</v>
       </c>
       <c r="D47">
-        <v>-419</v>
+        <v>-282</v>
       </c>
       <c r="E47">
-        <v>3292310950.058791</v>
+        <v>4279152310.849101</v>
       </c>
       <c r="F47">
-        <v>-8322813.517383904</v>
+        <v>4111393.746382472</v>
       </c>
       <c r="G47">
-        <v>213.8464966395116</v>
+        <v>350.9627206966982</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>12134.4953</v>
+        <v>12810.6535</v>
       </c>
       <c r="B48">
-        <v>12134.4932</v>
+        <v>12810.6678</v>
       </c>
       <c r="C48">
-        <v>0.9696413045972998</v>
+        <v>0.7946096144510806</v>
       </c>
       <c r="D48">
-        <v>-685</v>
+        <v>-298</v>
       </c>
       <c r="E48">
-        <v>484919102.1449975</v>
+        <v>3337081972.08334</v>
       </c>
       <c r="F48">
-        <v>-37658692.86906283</v>
+        <v>-12799969.90510492</v>
       </c>
       <c r="G48">
-        <v>-51.88218762412625</v>
+        <v>334.645859331857</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>12216.6754</v>
+        <v>12828.3694</v>
       </c>
       <c r="B49">
-        <v>12216.6782</v>
+        <v>12828.3795</v>
       </c>
       <c r="C49">
-        <v>0.8802837580998081</v>
+        <v>0.8446822807130892</v>
       </c>
       <c r="D49">
-        <v>-564</v>
+        <v>-397</v>
       </c>
       <c r="E49">
-        <v>1956128998.876171</v>
+        <v>2273626482.28181</v>
       </c>
       <c r="F49">
-        <v>63107876.30689377</v>
+        <v>-4101617.602997416</v>
       </c>
       <c r="G49">
-        <v>68.71090987194373</v>
+        <v>236.03185496702</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>12230.459</v>
+        <v>12844.0867</v>
       </c>
       <c r="B50">
-        <v>12230.4677</v>
+        <v>12844.1002</v>
       </c>
       <c r="C50">
-        <v>0.7707975248510693</v>
+        <v>0.8833913014290545</v>
       </c>
       <c r="D50">
-        <v>-420</v>
+        <v>-318</v>
       </c>
       <c r="E50">
-        <v>3958370237.736347</v>
+        <v>1663237571.869143</v>
       </c>
       <c r="F50">
-        <v>7461850.332053294</v>
+        <v>-24495923.06465667</v>
       </c>
       <c r="G50">
-        <v>213.2540066162134</v>
+        <v>315.1020603992357</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>12343.864</v>
+        <v>12883.2924</v>
       </c>
       <c r="B51">
-        <v>12343.8663</v>
+        <v>12883.304</v>
       </c>
       <c r="C51">
-        <v>0.9508750247068429</v>
+        <v>0.6898292624548639</v>
       </c>
       <c r="D51">
-        <v>-577</v>
+        <v>-363</v>
       </c>
       <c r="E51">
-        <v>885320110.7129227</v>
+        <v>5652830475.671362</v>
       </c>
       <c r="F51">
-        <v>-18408945.50113069</v>
+        <v>650730.1445753785</v>
       </c>
       <c r="G51">
-        <v>55.85954716125617</v>
+        <v>269.930418796854</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>12346.2918</v>
+        <v>12936.5437</v>
       </c>
       <c r="B52">
-        <v>12346.3034</v>
+        <v>12936.5511</v>
       </c>
       <c r="C52">
-        <v>0.8201837553729874</v>
+        <v>0.9393609154371304</v>
       </c>
       <c r="D52">
-        <v>-351</v>
+        <v>-462</v>
       </c>
       <c r="E52">
-        <v>2893479150.314776</v>
+        <v>1054536340.142622</v>
       </c>
       <c r="F52">
-        <v>25835291.56025861</v>
+        <v>-215975076.2760331</v>
       </c>
       <c r="G52">
-        <v>281.6710125485241</v>
+        <v>171.488168777924</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>12513.9421</v>
+        <v>13355.8281</v>
       </c>
       <c r="B53">
-        <v>12513.9571</v>
+        <v>13355.8357</v>
       </c>
       <c r="C53">
-        <v>0.9407460536718583</v>
+        <v>0.5855567927103711</v>
       </c>
       <c r="D53">
-        <v>-274</v>
+        <v>-462</v>
       </c>
       <c r="E53">
-        <v>856868878.490669</v>
+        <v>3940752423.939021</v>
       </c>
       <c r="F53">
-        <v>126876111.3540012</v>
+        <v>17138920.22262292</v>
       </c>
       <c r="G53">
-        <v>359.3501419186555</v>
+        <v>170.5938907839318</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>12560.4345</v>
+        <v>13395.7647</v>
       </c>
       <c r="B54">
-        <v>12560.4438</v>
+        <v>13395.7769</v>
       </c>
       <c r="C54">
-        <v>0.8253168036778873</v>
+        <v>0.5466335319904543</v>
       </c>
       <c r="D54">
-        <v>-411</v>
+        <v>-360</v>
       </c>
       <c r="E54">
-        <v>3698188201.947296</v>
+        <v>3645317858.151546</v>
       </c>
       <c r="F54">
-        <v>7148187.431506136</v>
+        <v>27702535.8647331</v>
       </c>
       <c r="G54">
-        <v>221.9724054358576</v>
+        <v>273.0316685858902</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>12619.3777</v>
+        <v>14812.3724</v>
       </c>
       <c r="B55">
-        <v>12619.3872</v>
+        <v>14812.3713</v>
       </c>
       <c r="C55">
-        <v>0.8312967932890556</v>
+        <v>0.5289910351287752</v>
       </c>
       <c r="D55">
-        <v>-407</v>
+        <v>-655</v>
       </c>
       <c r="E55">
-        <v>2922384018.712894</v>
+        <v>4176362792.286147</v>
       </c>
       <c r="F55">
-        <v>-8848614.204445509</v>
+        <v>-11991303.16024815</v>
       </c>
       <c r="G55">
-        <v>225.6869093191555</v>
+        <v>-22.26326037205379</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>12642.1643</v>
+        <v>14960.2394</v>
       </c>
       <c r="B56">
-        <v>12642.1791</v>
+        <v>14960.2499</v>
       </c>
       <c r="C56">
-        <v>0.6177090004850468</v>
+        <v>0.561277363811021</v>
       </c>
       <c r="D56">
-        <v>-282</v>
+        <v>-423</v>
       </c>
       <c r="E56">
-        <v>4279152310.849101</v>
+        <v>3416335965.676072</v>
       </c>
       <c r="F56">
-        <v>-4111393.746382472</v>
+        <v>4225147.812217094</v>
       </c>
       <c r="G56">
-        <v>350.9627206966982</v>
+        <v>210.4124623500545</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>12652.2028</v>
+        <v>15021.8064</v>
       </c>
       <c r="B57">
-        <v>12652.1974</v>
+        <v>15021.8206</v>
       </c>
       <c r="C57">
-        <v>0.6363951931923206</v>
+        <v>0.7720337329699388</v>
       </c>
       <c r="D57">
-        <v>-761</v>
+        <v>-350</v>
       </c>
       <c r="E57">
-        <v>2966110426.167465</v>
+        <v>2350162102.19848</v>
       </c>
       <c r="F57">
-        <v>-68640944.86805318</v>
+        <v>-18432425.35255145</v>
       </c>
       <c r="G57">
-        <v>-127.9523652009337</v>
+        <v>283.3915436144903</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>12810.6535</v>
+        <v>15055.8625</v>
       </c>
       <c r="B58">
-        <v>12810.6678</v>
+        <v>15055.8799</v>
       </c>
       <c r="C58">
-        <v>0.7946096144510806</v>
+        <v>0.5379094265411464</v>
       </c>
       <c r="D58">
-        <v>-298</v>
+        <v>-287</v>
       </c>
       <c r="E58">
-        <v>3337081972.08334</v>
+        <v>3532133521.254247</v>
       </c>
       <c r="F58">
-        <v>12799969.90510492</v>
+        <v>19652248.51544683</v>
       </c>
       <c r="G58">
-        <v>334.645859331857</v>
+        <v>346.4689432125126</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>12828.3694</v>
+        <v>15098.8248</v>
       </c>
       <c r="B59">
-        <v>12828.3795</v>
+        <v>15098.8286</v>
       </c>
       <c r="C59">
-        <v>0.8446822807130892</v>
+        <v>0.6918845096885222</v>
       </c>
       <c r="D59">
-        <v>-397</v>
+        <v>-558</v>
       </c>
       <c r="E59">
-        <v>2273626482.28181</v>
+        <v>3476608258.668179</v>
       </c>
       <c r="F59">
-        <v>4101617.602997416</v>
+        <v>-1998760.828410971</v>
       </c>
       <c r="G59">
-        <v>236.03185496702</v>
+        <v>75.45033175572252</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>12844.0867</v>
+        <v>15126.5151</v>
       </c>
       <c r="B60">
-        <v>12844.1002</v>
+        <v>15126.5243</v>
       </c>
       <c r="C60">
-        <v>0.8833913014290545</v>
+        <v>0.7081552046476831</v>
       </c>
       <c r="D60">
-        <v>-318</v>
+        <v>-451</v>
       </c>
       <c r="E60">
-        <v>1663237571.869143</v>
+        <v>3258857784.176424</v>
       </c>
       <c r="F60">
-        <v>24495923.06465667</v>
+        <v>9281268.46865187</v>
       </c>
       <c r="G60">
-        <v>315.1020603992357</v>
+        <v>182.3348335479448</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>12883.2924</v>
+        <v>15180.8648</v>
       </c>
       <c r="B61">
-        <v>12883.304</v>
+        <v>15180.8683</v>
       </c>
       <c r="C61">
-        <v>0.6898292624548639</v>
+        <v>0.8834874681657605</v>
       </c>
       <c r="D61">
-        <v>-363</v>
+        <v>-564</v>
       </c>
       <c r="E61">
-        <v>5652830475.671362</v>
+        <v>1854800454.515697</v>
       </c>
       <c r="F61">
-        <v>-650730.1445753785</v>
+        <v>39080523.23495647</v>
       </c>
       <c r="G61">
-        <v>269.930418796854</v>
+        <v>69.11817059749109</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>12936.5437</v>
+        <v>15211.6866</v>
       </c>
       <c r="B62">
-        <v>12936.5511</v>
+        <v>15211.7007</v>
       </c>
       <c r="C62">
-        <v>0.9393609154371304</v>
+        <v>0.5668591483740516</v>
       </c>
       <c r="D62">
-        <v>-462</v>
+        <v>-355</v>
       </c>
       <c r="E62">
-        <v>1054536340.142622</v>
+        <v>3705141813.06572</v>
       </c>
       <c r="F62">
-        <v>215975076.2760331</v>
+        <v>23251624.81021379</v>
       </c>
       <c r="G62">
-        <v>171.488168777924</v>
+        <v>277.8832990826441</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>13355.8281</v>
+        <v>15223.782</v>
       </c>
       <c r="B63">
-        <v>13355.8357</v>
+        <v>15223.8017</v>
       </c>
       <c r="C63">
-        <v>0.5855567927103711</v>
+        <v>0.6148569104063444</v>
       </c>
       <c r="D63">
-        <v>-462</v>
+        <v>-245</v>
       </c>
       <c r="E63">
-        <v>3940752423.939021</v>
+        <v>3223982704.849172</v>
       </c>
       <c r="F63">
-        <v>-17138920.22262292</v>
+        <v>14905797.98844591</v>
       </c>
       <c r="G63">
-        <v>170.5938907839318</v>
+        <v>387.9398314054862</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>13395.7647</v>
+        <v>15228.8918</v>
       </c>
       <c r="B64">
-        <v>13395.7769</v>
+        <v>15228.8998</v>
       </c>
       <c r="C64">
-        <v>0.5466335319904543</v>
+        <v>0.8230225882239158</v>
       </c>
       <c r="D64">
-        <v>-360</v>
+        <v>-476</v>
       </c>
       <c r="E64">
-        <v>3645317858.151546</v>
+        <v>2355292363.132841</v>
       </c>
       <c r="F64">
-        <v>-27702535.8647331</v>
+        <v>4009330.396214958</v>
       </c>
       <c r="G64">
-        <v>273.0316685858902</v>
+        <v>157.4861582376646</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>14812.3724</v>
+        <v>15249.1397</v>
       </c>
       <c r="B65">
-        <v>14812.3713</v>
+        <v>15249.1567</v>
       </c>
       <c r="C65">
-        <v>0.5289910351287752</v>
+        <v>0.6226001735347374</v>
       </c>
       <c r="D65">
-        <v>-655</v>
+        <v>-299</v>
       </c>
       <c r="E65">
-        <v>4176362792.286147</v>
+        <v>3630380395.531632</v>
       </c>
       <c r="F65">
-        <v>11991303.16024815</v>
+        <v>18025201.92779333</v>
       </c>
       <c r="G65">
-        <v>-22.26326037205379</v>
+        <v>334.2137252694796</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>14901.4818</v>
+        <v>15250.6653</v>
       </c>
       <c r="B66">
-        <v>14901.4747</v>
+        <v>15250.6705</v>
       </c>
       <c r="C66">
-        <v>0.6953324150091633</v>
+        <v>0.9092648263333029</v>
       </c>
       <c r="D66">
-        <v>-776</v>
+        <v>-531</v>
       </c>
       <c r="E66">
-        <v>2510051758.391216</v>
+        <v>1107639082.173041</v>
       </c>
       <c r="F66">
-        <v>-23559156.52719074</v>
+        <v>260580081.1625765</v>
       </c>
       <c r="G66">
-        <v>-142.8399188742064</v>
+        <v>102.2198540424131</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>14960.2394</v>
+        <v>15339.5784</v>
       </c>
       <c r="B67">
-        <v>14960.2499</v>
+        <v>15339.6059</v>
       </c>
       <c r="C67">
-        <v>0.561277363811021</v>
+        <v>0.5465426509743899</v>
       </c>
       <c r="D67">
-        <v>-423</v>
+        <v>-96</v>
       </c>
       <c r="E67">
-        <v>3416335965.676072</v>
+        <v>3256569347.414473</v>
       </c>
       <c r="F67">
-        <v>-4225147.812217094</v>
+        <v>-20886780.63261012</v>
       </c>
       <c r="G67">
-        <v>210.4124623500545</v>
+        <v>537.452358866126</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>14993.1556</v>
+        <v>15347.9951</v>
       </c>
       <c r="B68">
-        <v>14993.1578</v>
+        <v>15348.0003</v>
       </c>
       <c r="C68">
-        <v>0.4593508935923739</v>
+        <v>0.7757252771520285</v>
       </c>
       <c r="D68">
-        <v>-589</v>
+        <v>-531</v>
       </c>
       <c r="E68">
-        <v>5251662869.876287</v>
+        <v>2755933012.006021</v>
       </c>
       <c r="F68">
-        <v>-56996246.20949438</v>
+        <v>40158856.45263437</v>
       </c>
       <c r="G68">
-        <v>43.98963272055954</v>
+        <v>101.5716236259524</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>15021.8064</v>
+        <v>15494.572</v>
       </c>
       <c r="B69">
-        <v>15021.8206</v>
+        <v>15494.5846</v>
       </c>
       <c r="C69">
-        <v>0.7720337329699388</v>
+        <v>0.9272412941322346</v>
       </c>
       <c r="D69">
-        <v>-350</v>
+        <v>-389</v>
       </c>
       <c r="E69">
-        <v>2350162102.19848</v>
+        <v>1496411122.723968</v>
       </c>
       <c r="F69">
-        <v>18432425.35255145</v>
+        <v>-102506662.6875892</v>
       </c>
       <c r="G69">
-        <v>283.3915436144903</v>
+        <v>243.7876290177686</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>15055.8625</v>
+        <v>15518.5211</v>
       </c>
       <c r="B70">
-        <v>15055.8799</v>
+        <v>15518.5341</v>
       </c>
       <c r="C70">
-        <v>0.5379094265411464</v>
+        <v>0.9042687726424414</v>
       </c>
       <c r="D70">
-        <v>-287</v>
+        <v>-382</v>
       </c>
       <c r="E70">
-        <v>3532133521.254247</v>
+        <v>1369355575.743196</v>
       </c>
       <c r="F70">
-        <v>-19652248.51544683</v>
+        <v>-99287991.6351856</v>
       </c>
       <c r="G70">
-        <v>346.4689432125126</v>
+        <v>251.1387476538749</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>15098.8248</v>
+        <v>15523.6066</v>
       </c>
       <c r="B71">
-        <v>15098.8286</v>
+        <v>15523.609</v>
       </c>
       <c r="C71">
-        <v>0.6918845096885222</v>
+        <v>0.8886029596826526</v>
       </c>
       <c r="D71">
-        <v>-558</v>
+        <v>-587</v>
       </c>
       <c r="E71">
-        <v>3476608258.668179</v>
+        <v>1331376628.093632</v>
       </c>
       <c r="F71">
-        <v>1998760.828410971</v>
+        <v>-59480893.18530277</v>
       </c>
       <c r="G71">
-        <v>75.45033175572252</v>
+        <v>46.34888772717395</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>15126.5151</v>
+        <v>15536.003</v>
       </c>
       <c r="B72">
-        <v>15126.5243</v>
+        <v>15536.0121</v>
       </c>
       <c r="C72">
-        <v>0.7081552046476831</v>
+        <v>0.7362798031491248</v>
       </c>
       <c r="D72">
-        <v>-451</v>
+        <v>-457</v>
       </c>
       <c r="E72">
-        <v>3258857784.176424</v>
+        <v>3060273067.410341</v>
       </c>
       <c r="F72">
-        <v>-9281268.46865187</v>
+        <v>11301427.42831764</v>
       </c>
       <c r="G72">
-        <v>182.3348335479448</v>
+        <v>175.5993074487081</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>15180.8648</v>
+        <v>15538.4919</v>
       </c>
       <c r="B73">
-        <v>15180.8683</v>
+        <v>15538.5018</v>
       </c>
       <c r="C73">
-        <v>0.8834874681657605</v>
+        <v>0.6938903369409034</v>
       </c>
       <c r="D73">
-        <v>-564</v>
+        <v>-442</v>
       </c>
       <c r="E73">
-        <v>1854800454.515697</v>
+        <v>3785816998.200178</v>
       </c>
       <c r="F73">
-        <v>-39080523.23495647</v>
+        <v>15407605.52427121</v>
       </c>
       <c r="G73">
-        <v>69.11817059749109</v>
+        <v>191.0060096595961</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>15211.6866</v>
+        <v>15546.3307</v>
       </c>
       <c r="B74">
-        <v>15211.7007</v>
+        <v>15546.3303</v>
       </c>
       <c r="C74">
-        <v>0.5668591483740516</v>
+        <v>0.7283551412905589</v>
       </c>
       <c r="D74">
-        <v>-355</v>
+        <v>-641</v>
       </c>
       <c r="E74">
-        <v>3705141813.06572</v>
+        <v>3349839984.879492</v>
       </c>
       <c r="F74">
-        <v>-23251624.81021379</v>
+        <v>-11518568.90202348</v>
       </c>
       <c r="G74">
-        <v>277.8832990826441</v>
+        <v>-7.713523254235525</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>15223.782</v>
+        <v>15555.6848</v>
       </c>
       <c r="B75">
-        <v>15223.8017</v>
+        <v>15555.7006</v>
       </c>
       <c r="C75">
-        <v>0.6148569104063444</v>
+        <v>0.8446801700024277</v>
       </c>
       <c r="D75">
-        <v>-245</v>
+        <v>-328</v>
       </c>
       <c r="E75">
-        <v>3223982704.849172</v>
+        <v>2115502168.66674</v>
       </c>
       <c r="F75">
-        <v>-14905797.98844591</v>
+        <v>18044504.93170052</v>
       </c>
       <c r="G75">
-        <v>387.9398314054862</v>
+        <v>304.5009523394917</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>15228.8918</v>
+        <v>15592.5237</v>
       </c>
       <c r="B76">
-        <v>15228.8998</v>
+        <v>15592.5219</v>
       </c>
       <c r="C76">
-        <v>0.8230225882239158</v>
+        <v>0.7150271949777279</v>
       </c>
       <c r="D76">
-        <v>-476</v>
+        <v>-668</v>
       </c>
       <c r="E76">
-        <v>2355292363.132841</v>
+        <v>3345003900.470722</v>
       </c>
       <c r="F76">
-        <v>-4009330.396214958</v>
+        <v>-7466818.371781709</v>
       </c>
       <c r="G76">
-        <v>157.4861582376646</v>
+        <v>-34.60802334615429</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>15249.1397</v>
+        <v>15603.1385</v>
       </c>
       <c r="B77">
-        <v>15249.1567</v>
+        <v>15603.1523</v>
       </c>
       <c r="C77">
-        <v>0.6226001735347374</v>
+        <v>0.9289857869195556</v>
       </c>
       <c r="D77">
-        <v>-299</v>
+        <v>-368</v>
       </c>
       <c r="E77">
-        <v>3630380395.531632</v>
+        <v>641019393.6751802</v>
       </c>
       <c r="F77">
-        <v>-18025201.92779333</v>
+        <v>-176514311.1066101</v>
       </c>
       <c r="G77">
-        <v>334.2137252694796</v>
+        <v>265.147676599972</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>15250.6653</v>
+        <v>15615.4038</v>
       </c>
       <c r="B78">
-        <v>15250.6705</v>
+        <v>15615.4167</v>
       </c>
       <c r="C78">
-        <v>0.9092648263333029</v>
+        <v>0.838637882392959</v>
       </c>
       <c r="D78">
-        <v>-531</v>
+        <v>-385</v>
       </c>
       <c r="E78">
-        <v>1107639082.173041</v>
+        <v>2128410984.442255</v>
       </c>
       <c r="F78">
-        <v>-260580081.1625765</v>
+        <v>29292744.5491517</v>
       </c>
       <c r="G78">
-        <v>102.2198540424131</v>
+        <v>247.660755848954</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>15255.1764</v>
+        <v>15617.8987</v>
       </c>
       <c r="B79">
-        <v>15255.2011</v>
+        <v>15617.9039</v>
       </c>
       <c r="C79">
-        <v>0.8232294260532825</v>
+        <v>0.8210097274267024</v>
       </c>
       <c r="D79">
-        <v>-148</v>
+        <v>-533</v>
       </c>
       <c r="E79">
-        <v>3322326761.809361</v>
+        <v>1920806518.761335</v>
       </c>
       <c r="F79">
-        <v>6520566.126871623</v>
+        <v>14444204.9751977</v>
       </c>
       <c r="G79">
-        <v>485.4007268146134</v>
+        <v>99.81629483784745</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>15300.3458</v>
+        <v>15625.9278</v>
       </c>
       <c r="B80">
-        <v>15300.346</v>
+        <v>15625.947</v>
       </c>
       <c r="C80">
-        <v>0.912249492578491</v>
+        <v>0.5556577766281227</v>
       </c>
       <c r="D80">
-        <v>-629</v>
+        <v>-265</v>
       </c>
       <c r="E80">
-        <v>674786405.2326441</v>
+        <v>3308374422.757637</v>
       </c>
       <c r="F80">
-        <v>1157440.795803524</v>
+        <v>12927320.51711405</v>
       </c>
       <c r="G80">
-        <v>3.918767101372705</v>
+        <v>368.3630993007404</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>15339.5784</v>
+        <v>15636.2214</v>
       </c>
       <c r="B81">
-        <v>15339.6059</v>
+        <v>15636.2334</v>
       </c>
       <c r="C81">
-        <v>0.5465426509743899</v>
+        <v>0.5715204320181916</v>
       </c>
       <c r="D81">
-        <v>-96</v>
+        <v>-403</v>
       </c>
       <c r="E81">
-        <v>3256569347.414473</v>
+        <v>3708052043.393218</v>
       </c>
       <c r="F81">
-        <v>20886780.63261012</v>
+        <v>15545737.79064793</v>
       </c>
       <c r="G81">
-        <v>537.452358866126</v>
+        <v>230.0753746088103</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>15347.9951</v>
+        <v>15652.791</v>
       </c>
       <c r="B82">
-        <v>15348.0003</v>
+        <v>15652.7932</v>
       </c>
       <c r="C82">
-        <v>0.7757252771520285</v>
+        <v>0.725048505652951</v>
       </c>
       <c r="D82">
-        <v>-531</v>
+        <v>-591</v>
       </c>
       <c r="E82">
-        <v>2755933012.006021</v>
+        <v>3638577979.461855</v>
       </c>
       <c r="F82">
-        <v>-40158856.45263437</v>
+        <v>5329848.285221979</v>
       </c>
       <c r="G82">
-        <v>101.5716236259524</v>
+        <v>42.13583432360907</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>15494.572</v>
+        <v>15657.151</v>
       </c>
       <c r="B83">
-        <v>15494.5846</v>
+        <v>15657.1652</v>
       </c>
       <c r="C83">
-        <v>0.9272412941322346</v>
+        <v>0.7795120957145266</v>
       </c>
       <c r="D83">
-        <v>-389</v>
+        <v>-361</v>
       </c>
       <c r="E83">
-        <v>1496411122.723968</v>
+        <v>2776986058.737023</v>
       </c>
       <c r="F83">
-        <v>102506662.6875892</v>
+        <v>5524094.789445193</v>
       </c>
       <c r="G83">
-        <v>243.7876290177686</v>
+        <v>271.8919236143388</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>15518.5211</v>
+        <v>15666.2978</v>
       </c>
       <c r="B84">
-        <v>15518.5341</v>
+        <v>15666.3112</v>
       </c>
       <c r="C84">
-        <v>0.9042687726424414</v>
+        <v>0.6238602646789065</v>
       </c>
       <c r="D84">
-        <v>-382</v>
+        <v>-377</v>
       </c>
       <c r="E84">
-        <v>1369355575.743196</v>
+        <v>3431266749.599977</v>
       </c>
       <c r="F84">
-        <v>99287991.6351856</v>
+        <v>6144866.720842819</v>
       </c>
       <c r="G84">
-        <v>251.1387476538749</v>
+        <v>256.424267459517</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>15523.6066</v>
+        <v>15669.5259</v>
       </c>
       <c r="B85">
-        <v>15523.609</v>
+        <v>15669.5287</v>
       </c>
       <c r="C85">
-        <v>0.8886029596826526</v>
+        <v>0.8153067985721358</v>
       </c>
       <c r="D85">
-        <v>-587</v>
+        <v>-579</v>
       </c>
       <c r="E85">
-        <v>1331376628.093632</v>
+        <v>2161430199.950818</v>
       </c>
       <c r="F85">
-        <v>59480893.18530277</v>
+        <v>39521753.0038707</v>
       </c>
       <c r="G85">
-        <v>46.34888772717395</v>
+        <v>53.57015187109182</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>15536.003</v>
+        <v>15680.8729</v>
       </c>
       <c r="B86">
-        <v>15536.0121</v>
+        <v>15680.8745</v>
       </c>
       <c r="C86">
-        <v>0.7362798031491248</v>
+        <v>0.8904647697890259</v>
       </c>
       <c r="D86">
-        <v>-457</v>
+        <v>-602</v>
       </c>
       <c r="E86">
-        <v>3060273067.410341</v>
+        <v>2958394824.958137</v>
       </c>
       <c r="F86">
-        <v>-11301427.42831764</v>
+        <v>-130391513.3155631</v>
       </c>
       <c r="G86">
-        <v>175.5993074487081</v>
+        <v>30.58936425919826</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>15538.4919</v>
+        <v>15681.8073</v>
       </c>
       <c r="B87">
-        <v>15538.5018</v>
+        <v>15681.822</v>
       </c>
       <c r="C87">
-        <v>0.6938903369409034</v>
+        <v>0.7040309607855111</v>
       </c>
       <c r="D87">
-        <v>-442</v>
+        <v>-352</v>
       </c>
       <c r="E87">
-        <v>3785816998.200178</v>
+        <v>3358313621.082551</v>
       </c>
       <c r="F87">
-        <v>-15407605.52427121</v>
+        <v>940112.4217698813</v>
       </c>
       <c r="G87">
-        <v>191.0060096595961</v>
+        <v>281.0230382164584</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>15546.3307</v>
+        <v>15686.8036</v>
       </c>
       <c r="B88">
-        <v>15546.3303</v>
+        <v>15686.8198</v>
       </c>
       <c r="C88">
-        <v>0.7283551412905589</v>
+        <v>0.8653201613196303</v>
       </c>
       <c r="D88">
-        <v>-641</v>
+        <v>-323</v>
       </c>
       <c r="E88">
-        <v>3349839984.879492</v>
+        <v>1497438084.829989</v>
       </c>
       <c r="F88">
-        <v>11518568.90202348</v>
+        <v>13984483.06792466</v>
       </c>
       <c r="G88">
-        <v>-7.713523254235525</v>
+        <v>309.6002183101011</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>15555.6848</v>
+        <v>15690.7319</v>
       </c>
       <c r="B89">
-        <v>15555.7006</v>
+        <v>15690.7342</v>
       </c>
       <c r="C89">
-        <v>0.8446801700024277</v>
+        <v>0.7003927285955432</v>
       </c>
       <c r="D89">
-        <v>-328</v>
+        <v>-589</v>
       </c>
       <c r="E89">
-        <v>2115502168.66674</v>
+        <v>3691882257.913296</v>
       </c>
       <c r="F89">
-        <v>-18044504.93170052</v>
+        <v>-70925485.27770038</v>
       </c>
       <c r="G89">
-        <v>304.5009523394917</v>
+        <v>43.94458190379509</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>15570.9833</v>
+        <v>15696.1452</v>
       </c>
       <c r="B90">
-        <v>15571.0008</v>
+        <v>15696.1648</v>
       </c>
       <c r="C90">
-        <v>0.8855236955371447</v>
+        <v>0.6321406555680481</v>
       </c>
       <c r="D90">
-        <v>-296</v>
+        <v>-259</v>
       </c>
       <c r="E90">
-        <v>1727811374.925148</v>
+        <v>3389258173.328023</v>
       </c>
       <c r="F90">
-        <v>40216141.81642985</v>
+        <v>13139329.48703831</v>
       </c>
       <c r="G90">
-        <v>336.9323512893235</v>
+        <v>374.3551108861444</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>15592.5237</v>
+        <v>15727.8899</v>
       </c>
       <c r="B91">
-        <v>15592.5219</v>
+        <v>15727.903</v>
       </c>
       <c r="C91">
-        <v>0.7150271949777279</v>
+        <v>0.5945175075354717</v>
       </c>
       <c r="D91">
-        <v>-668</v>
+        <v>-383</v>
       </c>
       <c r="E91">
-        <v>3345003900.470722</v>
+        <v>3360735596.695724</v>
       </c>
       <c r="F91">
-        <v>7466818.371781709</v>
+        <v>1424466.953564628</v>
       </c>
       <c r="G91">
-        <v>-34.60802334615429</v>
+        <v>249.7017225159084</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>15594.3109</v>
+        <v>15778.3807</v>
       </c>
       <c r="B92">
-        <v>15594.3251</v>
+        <v>15778.3859</v>
       </c>
       <c r="C92">
-        <v>0.861693559115954</v>
+        <v>0.6276711896693961</v>
       </c>
       <c r="D92">
-        <v>-360</v>
+        <v>-534</v>
       </c>
       <c r="E92">
-        <v>1763419783.923234</v>
+        <v>2775194890.509315</v>
       </c>
       <c r="F92">
-        <v>57039602.0169448</v>
+        <v>46096031.02674194</v>
       </c>
       <c r="G92">
-        <v>272.9875613605734</v>
+        <v>98.80106273223207</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>15603.1385</v>
+        <v>15793.3148</v>
       </c>
       <c r="B93">
-        <v>15603.1523</v>
+        <v>15793.3319</v>
       </c>
       <c r="C93">
-        <v>0.9289857869195556</v>
+        <v>0.6766827877443455</v>
       </c>
       <c r="D93">
-        <v>-368</v>
+        <v>-308</v>
       </c>
       <c r="E93">
-        <v>641019393.6751802</v>
+        <v>3272568222.625025</v>
       </c>
       <c r="F93">
-        <v>176514311.1066101</v>
+        <v>1256206.585799897</v>
       </c>
       <c r="G93">
-        <v>265.147676599972</v>
+        <v>324.5962672596718</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>15615.4038</v>
+        <v>15820.9574</v>
       </c>
       <c r="B94">
-        <v>15615.4167</v>
+        <v>15820.9627</v>
       </c>
       <c r="C94">
-        <v>0.838637882392959</v>
+        <v>0.8387097973324181</v>
       </c>
       <c r="D94">
-        <v>-385</v>
+        <v>-533</v>
       </c>
       <c r="E94">
-        <v>2128410984.442255</v>
+        <v>1984738847.859315</v>
       </c>
       <c r="F94">
-        <v>-29292744.5491517</v>
+        <v>3376419.004386254</v>
       </c>
       <c r="G94">
-        <v>247.660755848954</v>
+        <v>100.4300806716848</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>15617.8987</v>
+        <v>15822.4644</v>
       </c>
       <c r="B95">
-        <v>15617.9039</v>
+        <v>15822.4863</v>
       </c>
       <c r="C95">
-        <v>0.8210097274267024</v>
+        <v>0.5584354708890029</v>
       </c>
       <c r="D95">
-        <v>-533</v>
+        <v>-218</v>
       </c>
       <c r="E95">
-        <v>1920806518.761335</v>
+        <v>2977581355.170902</v>
       </c>
       <c r="F95">
-        <v>-14444204.9751977</v>
+        <v>4201763.757616004</v>
       </c>
       <c r="G95">
-        <v>99.81629483784745</v>
+        <v>414.9451478422461</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>15625.9278</v>
+        <v>15823.4608</v>
       </c>
       <c r="B96">
-        <v>15625.947</v>
+        <v>15823.4718</v>
       </c>
       <c r="C96">
-        <v>0.5556577766281227</v>
+        <v>0.7449804701752084</v>
       </c>
       <c r="D96">
-        <v>-265</v>
+        <v>-425</v>
       </c>
       <c r="E96">
-        <v>3308374422.757637</v>
+        <v>2551710361.498037</v>
       </c>
       <c r="F96">
-        <v>-12927320.51711405</v>
+        <v>-25374146.47156611</v>
       </c>
       <c r="G96">
-        <v>368.3630993007404</v>
+        <v>208.4068130961335</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>15636.2214</v>
+        <v>15826.0352</v>
       </c>
       <c r="B97">
-        <v>15636.2334</v>
+        <v>15826.0443</v>
       </c>
       <c r="C97">
-        <v>0.5715204320181916</v>
+        <v>0.818759182845343</v>
       </c>
       <c r="D97">
-        <v>-403</v>
+        <v>-461</v>
       </c>
       <c r="E97">
-        <v>3708052043.393218</v>
+        <v>2189644938.355878</v>
       </c>
       <c r="F97">
-        <v>-15545737.79064793</v>
+        <v>-17936058.31621805</v>
       </c>
       <c r="G97">
-        <v>230.0753746088103</v>
+        <v>172.3812270593169</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>15649.2955</v>
+        <v>15827.1448</v>
       </c>
       <c r="B98">
-        <v>15649.3015</v>
+        <v>15827.1567</v>
       </c>
       <c r="C98">
-        <v>0.8893470915188948</v>
+        <v>0.6380249166852207</v>
       </c>
       <c r="D98">
-        <v>-518</v>
+        <v>-408</v>
       </c>
       <c r="E98">
-        <v>1337421639.484831</v>
+        <v>4022960594.522149</v>
       </c>
       <c r="F98">
-        <v>12035485.47258861</v>
+        <v>-12832525.2108562</v>
       </c>
       <c r="G98">
-        <v>114.9415798028418</v>
+        <v>225.4058009455241</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>15652.791</v>
+        <v>15839.4915</v>
       </c>
       <c r="B99">
-        <v>15652.7932</v>
+        <v>15839.5143</v>
       </c>
       <c r="C99">
-        <v>0.725048505652951</v>
+        <v>0.6215357095704941</v>
       </c>
       <c r="D99">
-        <v>-591</v>
+        <v>-201</v>
       </c>
       <c r="E99">
-        <v>3638577979.461855</v>
+        <v>3121919735.65976</v>
       </c>
       <c r="F99">
-        <v>-5329848.285221979</v>
+        <v>-2315641.968682407</v>
       </c>
       <c r="G99">
-        <v>42.13583432360907</v>
+        <v>431.5333003021923</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>15657.151</v>
+        <v>15857.6516</v>
       </c>
       <c r="B100">
-        <v>15657.1652</v>
+        <v>15857.6517</v>
       </c>
       <c r="C100">
-        <v>0.7795120957145266</v>
+        <v>0.8600592139412852</v>
       </c>
       <c r="D100">
-        <v>-361</v>
+        <v>-631</v>
       </c>
       <c r="E100">
-        <v>2776986058.737023</v>
+        <v>1731865508.150192</v>
       </c>
       <c r="F100">
-        <v>-5524094.789445193</v>
+        <v>73051761.23565413</v>
       </c>
       <c r="G100">
-        <v>271.8919236143388</v>
+        <v>1.890522443555685</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>15666.2978</v>
+        <v>15868.0489</v>
       </c>
       <c r="B101">
-        <v>15666.3112</v>
+        <v>15868.068</v>
       </c>
       <c r="C101">
-        <v>0.6238602646789065</v>
+        <v>0.7328976123610165</v>
       </c>
       <c r="D101">
-        <v>-377</v>
+        <v>-272</v>
       </c>
       <c r="E101">
-        <v>3431266749.599977</v>
+        <v>3139864006.512664</v>
       </c>
       <c r="F101">
-        <v>-6144866.720842819</v>
+        <v>26694836.80401955</v>
       </c>
       <c r="G101">
-        <v>256.424267459517</v>
+        <v>360.8531826447532</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>15669.5259</v>
+        <v>15872.8622</v>
       </c>
       <c r="B102">
-        <v>15669.5287</v>
+        <v>15872.8797</v>
       </c>
       <c r="C102">
-        <v>0.8153067985721358</v>
+        <v>0.6294059097535925</v>
       </c>
       <c r="D102">
-        <v>-579</v>
+        <v>-302</v>
       </c>
       <c r="E102">
-        <v>2161430199.950818</v>
+        <v>3555038684.349282</v>
       </c>
       <c r="F102">
-        <v>-39521753.0038707</v>
+        <v>11382656.53319679</v>
       </c>
       <c r="G102">
-        <v>53.57015187109182</v>
+        <v>330.5243848898632</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>15680.8729</v>
+        <v>15882.7876</v>
       </c>
       <c r="B103">
-        <v>15680.8745</v>
+        <v>15882.7964</v>
       </c>
       <c r="C103">
-        <v>0.8904647697890259</v>
+        <v>0.7156644136821264</v>
       </c>
       <c r="D103">
-        <v>-602</v>
+        <v>-467</v>
       </c>
       <c r="E103">
-        <v>2958394824.958137</v>
+        <v>3312740761.39504</v>
       </c>
       <c r="F103">
-        <v>130391513.3155631</v>
+        <v>-7834604.476762424</v>
       </c>
       <c r="G103">
-        <v>30.58936425919826</v>
+        <v>166.1026827974451</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>15681.8073</v>
+        <v>15899.5732</v>
       </c>
       <c r="B104">
-        <v>15681.822</v>
+        <v>15899.5906</v>
       </c>
       <c r="C104">
-        <v>0.7040309607855111</v>
+        <v>0.6737957051372857</v>
       </c>
       <c r="D104">
-        <v>-352</v>
+        <v>-305</v>
       </c>
       <c r="E104">
-        <v>3358313621.082551</v>
+        <v>3151944383.743469</v>
       </c>
       <c r="F104">
-        <v>-940112.4217698813</v>
+        <v>-7595046.538135923</v>
       </c>
       <c r="G104">
-        <v>281.0230382164584</v>
+        <v>328.0835720292703</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>15686.8036</v>
+        <v>15905.8653</v>
       </c>
       <c r="B105">
-        <v>15686.8198</v>
+        <v>15905.8697</v>
       </c>
       <c r="C105">
-        <v>0.8653201613196303</v>
+        <v>0.7966381337994477</v>
       </c>
       <c r="D105">
-        <v>-323</v>
+        <v>-550</v>
       </c>
       <c r="E105">
-        <v>1497438084.829989</v>
+        <v>2723534864.191213</v>
       </c>
       <c r="F105">
-        <v>-13984483.06792466</v>
+        <v>9337295.743194398</v>
       </c>
       <c r="G105">
-        <v>309.6002183101011</v>
+        <v>82.93084284040249</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>15690.7319</v>
+        <v>15910.3901</v>
       </c>
       <c r="B106">
-        <v>15690.7342</v>
+        <v>15910.4038</v>
       </c>
       <c r="C106">
-        <v>0.7003927285955432</v>
+        <v>0.6468542558777182</v>
       </c>
       <c r="D106">
-        <v>-589</v>
+        <v>-375</v>
       </c>
       <c r="E106">
-        <v>3691882257.913296</v>
+        <v>3508808338.613146</v>
       </c>
       <c r="F106">
-        <v>70925485.27770038</v>
+        <v>34674361.21255974</v>
       </c>
       <c r="G106">
-        <v>43.94458190379509</v>
+        <v>258.1430529977978</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>15696.1452</v>
+        <v>15915.6521</v>
       </c>
       <c r="B107">
-        <v>15696.1648</v>
+        <v>15915.6644</v>
       </c>
       <c r="C107">
-        <v>0.6321406555680481</v>
+        <v>0.6789471003082453</v>
       </c>
       <c r="D107">
-        <v>-259</v>
+        <v>-401</v>
       </c>
       <c r="E107">
-        <v>3389258173.328023</v>
+        <v>3318848889.865634</v>
       </c>
       <c r="F107">
-        <v>-13139329.48703831</v>
+        <v>19919719.44406146</v>
       </c>
       <c r="G107">
-        <v>374.3551108861444</v>
+        <v>231.6868458079414</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>15727.8899</v>
+        <v>15975.6174</v>
       </c>
       <c r="B108">
-        <v>15727.903</v>
+        <v>15975.6171</v>
       </c>
       <c r="C108">
-        <v>0.5945175075354717</v>
+        <v>0.8738257902228344</v>
       </c>
       <c r="D108">
-        <v>-383</v>
+        <v>-639</v>
       </c>
       <c r="E108">
-        <v>3360735596.695724</v>
+        <v>1720394457.41666</v>
       </c>
       <c r="F108">
-        <v>-1424466.953564628</v>
+        <v>73252353.96180697</v>
       </c>
       <c r="G108">
-        <v>249.7017225159084</v>
+        <v>-5.629687746690727</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>15778.3807</v>
+        <v>15985.0942</v>
       </c>
       <c r="B109">
-        <v>15778.3859</v>
+        <v>15985.1216</v>
       </c>
       <c r="C109">
-        <v>0.6276711896693961</v>
+        <v>0.5841785243732169</v>
       </c>
       <c r="D109">
-        <v>-534</v>
+        <v>-119</v>
       </c>
       <c r="E109">
-        <v>2775194890.509315</v>
+        <v>3133499126.051802</v>
       </c>
       <c r="F109">
-        <v>-46096031.02674194</v>
+        <v>26487956.92375318</v>
       </c>
       <c r="G109">
-        <v>98.80106273223207</v>
+        <v>513.8733151715904</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>15793.3148</v>
+        <v>16002.0995</v>
       </c>
       <c r="B110">
-        <v>15793.3319</v>
+        <v>16002.1047</v>
       </c>
       <c r="C110">
-        <v>0.6766827877443455</v>
+        <v>0.795329776619093</v>
       </c>
       <c r="D110">
-        <v>-308</v>
+        <v>-536</v>
       </c>
       <c r="E110">
-        <v>3272568222.625025</v>
+        <v>2558647282.837667</v>
       </c>
       <c r="F110">
-        <v>-1256206.585799897</v>
+        <v>8682077.774653837</v>
       </c>
       <c r="G110">
-        <v>324.5962672596718</v>
+        <v>97.41976553934342</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>15810.6016</v>
+        <v>16013.9898</v>
       </c>
       <c r="B111">
-        <v>15810.6012</v>
+        <v>16013.992</v>
       </c>
       <c r="C111">
-        <v>0.9020851917411102</v>
+        <v>0.6662570606194367</v>
       </c>
       <c r="D111">
-        <v>-641</v>
+        <v>-592</v>
       </c>
       <c r="E111">
-        <v>853750483.476817</v>
+        <v>3626362545.983729</v>
       </c>
       <c r="F111">
-        <v>-23232924.08383252</v>
+        <v>21895157.18864502</v>
       </c>
       <c r="G111">
-        <v>-7.584593315247607</v>
+        <v>41.18545194646949</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>15820.9574</v>
+        <v>16033.8018</v>
       </c>
       <c r="B112">
-        <v>15820.9627</v>
+        <v>16033.8164</v>
       </c>
       <c r="C112">
-        <v>0.8387097973324181</v>
+        <v>0.8906610624103055</v>
       </c>
       <c r="D112">
-        <v>-533</v>
+        <v>-360</v>
       </c>
       <c r="E112">
-        <v>1984738847.859315</v>
+        <v>1277680401.84855</v>
       </c>
       <c r="F112">
-        <v>-3376419.004386254</v>
+        <v>51875006.56585878</v>
       </c>
       <c r="G112">
-        <v>100.4300806716848</v>
+        <v>272.9839087463706</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>15822.4644</v>
+        <v>16045.0391</v>
       </c>
       <c r="B113">
-        <v>15822.4863</v>
+        <v>16045.0506</v>
       </c>
       <c r="C113">
-        <v>0.5584354708890029</v>
+        <v>0.6296260972754738</v>
       </c>
       <c r="D113">
-        <v>-218</v>
+        <v>-418</v>
       </c>
       <c r="E113">
-        <v>2977581355.170902</v>
+        <v>3492410645.778711</v>
       </c>
       <c r="F113">
-        <v>-4201763.757616004</v>
+        <v>7629008.36744724</v>
       </c>
       <c r="G113">
-        <v>414.9451478422461</v>
+        <v>214.870979469381</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>15823.4608</v>
+        <v>16075.7929</v>
       </c>
       <c r="B114">
-        <v>15823.4718</v>
+        <v>16075.8086</v>
       </c>
       <c r="C114">
-        <v>0.7449804701752084</v>
+        <v>0.7452319973503224</v>
       </c>
       <c r="D114">
-        <v>-425</v>
+        <v>-340</v>
       </c>
       <c r="E114">
-        <v>2551710361.498037</v>
+        <v>2869088868.426933</v>
       </c>
       <c r="F114">
-        <v>25374146.47156611</v>
+        <v>-21402897.52163912</v>
       </c>
       <c r="G114">
-        <v>208.4068130961335</v>
+        <v>292.7844131468875</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>15826.0352</v>
+        <v>16080.3141</v>
       </c>
       <c r="B115">
-        <v>15826.0443</v>
+        <v>16080.3213</v>
       </c>
       <c r="C115">
-        <v>0.818759182845343</v>
+        <v>0.7149935684156314</v>
       </c>
       <c r="D115">
-        <v>-461</v>
+        <v>-499</v>
       </c>
       <c r="E115">
-        <v>2189644938.355878</v>
+        <v>2928469922.12919</v>
       </c>
       <c r="F115">
-        <v>17936058.31621805</v>
+        <v>14639445.61954908</v>
       </c>
       <c r="G115">
-        <v>172.3812270593169</v>
+        <v>134.2328068970648</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>15827.1448</v>
+        <v>16093.1316</v>
       </c>
       <c r="B116">
-        <v>15827.1567</v>
+        <v>16093.1242</v>
       </c>
       <c r="C116">
-        <v>0.6380249166852207</v>
+        <v>0.7531475583586833</v>
       </c>
       <c r="D116">
-        <v>-408</v>
+        <v>-771</v>
       </c>
       <c r="E116">
-        <v>4022960594.522149</v>
+        <v>5881421966.728233</v>
       </c>
       <c r="F116">
-        <v>12832525.2108562</v>
+        <v>-42492104.45779014</v>
       </c>
       <c r="G116">
-        <v>225.4058009455241</v>
+        <v>-137.8516154967916</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>15839.4915</v>
+        <v>16160.9789</v>
       </c>
       <c r="B117">
-        <v>15839.5143</v>
+        <v>16160.9845</v>
       </c>
       <c r="C117">
-        <v>0.6215357095704941</v>
+        <v>0.7872591390190221</v>
       </c>
       <c r="D117">
-        <v>-201</v>
+        <v>-529</v>
       </c>
       <c r="E117">
-        <v>3121919735.65976</v>
+        <v>2618658247.111792</v>
       </c>
       <c r="F117">
-        <v>2315641.968682407</v>
+        <v>-19895462.42167929</v>
       </c>
       <c r="G117">
-        <v>431.5333003021923</v>
+        <v>103.8821828568387</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>15844.5234</v>
+        <v>16179.3972</v>
       </c>
       <c r="B118">
-        <v>15844.5425</v>
+        <v>16179.4163</v>
       </c>
       <c r="C118">
-        <v>0.8691982595384915</v>
+        <v>0.7331805656811385</v>
       </c>
       <c r="D118">
-        <v>-272</v>
+        <v>-279</v>
       </c>
       <c r="E118">
-        <v>1535985471.910607</v>
+        <v>2829358146.408769</v>
       </c>
       <c r="F118">
-        <v>-75078379.31545964</v>
+        <v>-36547100.96472555</v>
       </c>
       <c r="G118">
-        <v>361.3889672487713</v>
+        <v>353.9091028653904</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>15857.6516</v>
+        <v>16185.3311</v>
       </c>
       <c r="B119">
-        <v>15857.6517</v>
+        <v>16185.349</v>
       </c>
       <c r="C119">
-        <v>0.8600592139412852</v>
+        <v>0.7089498446341125</v>
       </c>
       <c r="D119">
-        <v>-631</v>
+        <v>-301</v>
       </c>
       <c r="E119">
-        <v>1731865508.150192</v>
+        <v>3133390673.07931</v>
       </c>
       <c r="F119">
-        <v>-73051761.23565413</v>
+        <v>-4532024.68046705</v>
       </c>
       <c r="G119">
-        <v>1.890522443555685</v>
+        <v>331.5523769479758</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>15868.0489</v>
+        <v>16199.487</v>
       </c>
       <c r="B120">
-        <v>15868.068</v>
+        <v>16199.5055</v>
       </c>
       <c r="C120">
-        <v>0.7328976123610165</v>
+        <v>0.7366726410096687</v>
       </c>
       <c r="D120">
-        <v>-272</v>
+        <v>-291</v>
       </c>
       <c r="E120">
-        <v>3139864006.512664</v>
+        <v>2764932351.493311</v>
       </c>
       <c r="F120">
-        <v>-26694836.80401955</v>
+        <v>16619189.83752748</v>
       </c>
       <c r="G120">
-        <v>360.8531826447532</v>
+        <v>342.3664263381521</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>15868.9857</v>
+        <v>16202.9307</v>
       </c>
       <c r="B121">
-        <v>15868.9991</v>
+        <v>16202.9351</v>
       </c>
       <c r="C121">
-        <v>0.9179575149549424</v>
+        <v>0.6616706907977927</v>
       </c>
       <c r="D121">
-        <v>-380</v>
+        <v>-552</v>
       </c>
       <c r="E121">
-        <v>972403926.8396584</v>
+        <v>4044677549.196068</v>
       </c>
       <c r="F121">
-        <v>289160107.4694867</v>
+        <v>15095353.39127744</v>
       </c>
       <c r="G121">
-        <v>253.149067868522</v>
+        <v>81.41038431483929</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>15872.8622</v>
+        <v>16208.6822</v>
       </c>
       <c r="B122">
-        <v>15872.8797</v>
+        <v>16208.6872</v>
       </c>
       <c r="C122">
-        <v>0.6294059097535925</v>
+        <v>0.7278238862807881</v>
       </c>
       <c r="D122">
-        <v>-302</v>
+        <v>-541</v>
       </c>
       <c r="E122">
-        <v>3555038684.349282</v>
+        <v>2093577827.286536</v>
       </c>
       <c r="F122">
-        <v>-11382656.53319679</v>
+        <v>-39141542.31144371</v>
       </c>
       <c r="G122">
-        <v>330.5243848898632</v>
+        <v>92.47897340587421</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>15882.7876</v>
+        <v>16212.1746</v>
       </c>
       <c r="B123">
-        <v>15882.7964</v>
+        <v>16212.1958</v>
       </c>
       <c r="C123">
-        <v>0.7156644136821264</v>
+        <v>0.6534248919502296</v>
       </c>
       <c r="D123">
-        <v>-467</v>
+        <v>-241</v>
       </c>
       <c r="E123">
-        <v>3312740761.39504</v>
+        <v>3179222056.615446</v>
       </c>
       <c r="F123">
-        <v>7834604.476762424</v>
+        <v>28992438.82611369</v>
       </c>
       <c r="G123">
-        <v>166.1026827974451</v>
+        <v>392.0263793176198</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>15895.5093</v>
+        <v>16230.0565</v>
       </c>
       <c r="B124">
-        <v>15895.5225</v>
+        <v>16230.0738</v>
       </c>
       <c r="C124">
-        <v>0.8438427081187755</v>
+        <v>0.7720908522244843</v>
       </c>
       <c r="D124">
-        <v>-384</v>
+        <v>-313</v>
       </c>
       <c r="E124">
-        <v>1441603979.621701</v>
+        <v>2576563446.582314</v>
       </c>
       <c r="F124">
-        <v>-116512923.8326921</v>
+        <v>4456211.232154349</v>
       </c>
       <c r="G124">
-        <v>248.9546179611329</v>
+        <v>319.5558514401135</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>15899.5732</v>
+        <v>16236.0883</v>
       </c>
       <c r="B125">
-        <v>15899.5906</v>
+        <v>16236.1071</v>
       </c>
       <c r="C125">
-        <v>0.6737957051372857</v>
+        <v>0.6668825032047929</v>
       </c>
       <c r="D125">
-        <v>-305</v>
+        <v>-286</v>
       </c>
       <c r="E125">
-        <v>3151944383.743469</v>
+        <v>3095424452.912705</v>
       </c>
       <c r="F125">
-        <v>7595046.538135923</v>
+        <v>15887395.34195823</v>
       </c>
       <c r="G125">
-        <v>328.0835720292703</v>
+        <v>347.1339959839592</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>15905.8653</v>
+        <v>16240.4048</v>
       </c>
       <c r="B126">
-        <v>15905.8697</v>
+        <v>16240.4167</v>
       </c>
       <c r="C126">
-        <v>0.7966381337994477</v>
+        <v>0.7590633069537319</v>
       </c>
       <c r="D126">
-        <v>-550</v>
+        <v>-413</v>
       </c>
       <c r="E126">
-        <v>2723534864.191213</v>
+        <v>2524462559.141798</v>
       </c>
       <c r="F126">
-        <v>-9337295.743194398</v>
+        <v>-20463206.05191058</v>
       </c>
       <c r="G126">
-        <v>82.93084284040249</v>
+        <v>219.6700325181319</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>15910.3901</v>
+        <v>16250.9009</v>
       </c>
       <c r="B127">
-        <v>15910.4038</v>
+        <v>16250.9155</v>
       </c>
       <c r="C127">
-        <v>0.6468542558777182</v>
+        <v>0.8028817560778079</v>
       </c>
       <c r="D127">
-        <v>-375</v>
+        <v>-364</v>
       </c>
       <c r="E127">
-        <v>3508808338.613146</v>
+        <v>2387424251.933375</v>
       </c>
       <c r="F127">
-        <v>-34674361.21255974</v>
+        <v>-21318329.71836824</v>
       </c>
       <c r="G127">
-        <v>258.1430529977978</v>
+        <v>269.3370609356932</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>15915.6521</v>
+        <v>16289.221</v>
       </c>
       <c r="B128">
-        <v>15915.6644</v>
+        <v>16289.2444</v>
       </c>
       <c r="C128">
-        <v>0.6789471003082453</v>
+        <v>0.7578182065394375</v>
       </c>
       <c r="D128">
-        <v>-401</v>
+        <v>-202</v>
       </c>
       <c r="E128">
-        <v>3318848889.865634</v>
+        <v>2701662462.370373</v>
       </c>
       <c r="F128">
-        <v>-19919719.44406146</v>
+        <v>-22456878.06023574</v>
       </c>
       <c r="G128">
-        <v>231.6868458079414</v>
+        <v>430.6616944641905</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>15938.3759</v>
+        <v>16297.2992</v>
       </c>
       <c r="B129">
-        <v>15938.3915</v>
+        <v>16297.3014</v>
       </c>
       <c r="C129">
-        <v>0.8619646981462036</v>
+        <v>0.806522060632892</v>
       </c>
       <c r="D129">
-        <v>-340</v>
+        <v>-593</v>
       </c>
       <c r="E129">
-        <v>2040416955.600668</v>
+        <v>2373912766.56643</v>
       </c>
       <c r="F129">
-        <v>-1355612.691685804</v>
+        <v>-6287354.073957154</v>
       </c>
       <c r="G129">
-        <v>293.4277854819478</v>
+        <v>40.46949130141842</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>15966.9216</v>
+        <v>16320.783</v>
       </c>
       <c r="B130">
-        <v>15966.9161</v>
+        <v>16320.81</v>
       </c>
       <c r="C130">
-        <v>0.793513987775428</v>
+        <v>0.5589444414247435</v>
       </c>
       <c r="D130">
-        <v>-736</v>
+        <v>-137</v>
       </c>
       <c r="E130">
-        <v>1692900626.065979</v>
+        <v>2288132164.547809</v>
       </c>
       <c r="F130">
-        <v>26313220.48679258</v>
+        <v>-51227219.09015395</v>
       </c>
       <c r="G130">
-        <v>-103.2671519482615</v>
+        <v>495.9563745355763</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>15975.6174</v>
+        <v>16323.1594</v>
       </c>
       <c r="B131">
-        <v>15975.6171</v>
+        <v>16323.1698</v>
       </c>
       <c r="C131">
-        <v>0.8738257902228344</v>
+        <v>0.796418755577877</v>
       </c>
       <c r="D131">
-        <v>-639</v>
+        <v>-442</v>
       </c>
       <c r="E131">
-        <v>1720394457.41666</v>
+        <v>2344624347.877722</v>
       </c>
       <c r="F131">
-        <v>-73252353.96180697</v>
+        <v>-3006011.11654563</v>
       </c>
       <c r="G131">
-        <v>-5.629687746690727</v>
+        <v>191.0072361620598</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>15985.0942</v>
+        <v>16335.9908</v>
       </c>
       <c r="B132">
-        <v>15985.1216</v>
+        <v>16335.9928</v>
       </c>
       <c r="C132">
-        <v>0.5841785243732169</v>
+        <v>0.8181297780099491</v>
       </c>
       <c r="D132">
-        <v>-119</v>
+        <v>-596</v>
       </c>
       <c r="E132">
-        <v>3133499126.051802</v>
+        <v>2324035744.369361</v>
       </c>
       <c r="F132">
-        <v>-26487956.92375318</v>
+        <v>39089639.85088311</v>
       </c>
       <c r="G132">
-        <v>513.8733151715904</v>
+        <v>36.7033088949083</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>16002.0995</v>
+        <v>16388.6201</v>
       </c>
       <c r="B133">
-        <v>16002.1047</v>
+        <v>16388.6315</v>
       </c>
       <c r="C133">
-        <v>0.795329776619093</v>
+        <v>0.8419927791338409</v>
       </c>
       <c r="D133">
-        <v>-536</v>
+        <v>-424</v>
       </c>
       <c r="E133">
-        <v>2558647282.837667</v>
+        <v>1935730441.132565</v>
       </c>
       <c r="F133">
-        <v>-8682077.774653837</v>
+        <v>-120891807.0093691</v>
       </c>
       <c r="G133">
-        <v>97.41976553934342</v>
+        <v>208.5370214600775</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>16013.9898</v>
+        <v>16398.8704</v>
       </c>
       <c r="B134">
-        <v>16013.992</v>
+        <v>16398.8782</v>
       </c>
       <c r="C134">
-        <v>0.6662570606194367</v>
+        <v>0.6466939110352631</v>
       </c>
       <c r="D134">
-        <v>-592</v>
+        <v>-490</v>
       </c>
       <c r="E134">
-        <v>3626362545.983729</v>
+        <v>3128094910.877211</v>
       </c>
       <c r="F134">
-        <v>-21895157.18864502</v>
+        <v>12752656.47561182</v>
       </c>
       <c r="G134">
-        <v>41.18545194646949</v>
+        <v>142.5940394123858</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>16033.8018</v>
+        <v>16409.0824</v>
       </c>
       <c r="B135">
-        <v>16033.8164</v>
+        <v>16409.1</v>
       </c>
       <c r="C135">
-        <v>0.8906610624103055</v>
+        <v>0.6814376280678456</v>
       </c>
       <c r="D135">
-        <v>-360</v>
+        <v>-311</v>
       </c>
       <c r="E135">
-        <v>1277680401.84855</v>
+        <v>2985467084.742025</v>
       </c>
       <c r="F135">
-        <v>-51875006.56585878</v>
+        <v>7865713.081280822</v>
       </c>
       <c r="G135">
-        <v>272.9839087463706</v>
+        <v>321.5504153084832</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>16045.0391</v>
+        <v>16441.1165</v>
       </c>
       <c r="B136">
-        <v>16045.0506</v>
+        <v>16441.1238</v>
       </c>
       <c r="C136">
-        <v>0.6296260972754738</v>
+        <v>0.7732216211460432</v>
       </c>
       <c r="D136">
-        <v>-418</v>
+        <v>-500</v>
       </c>
       <c r="E136">
-        <v>3492410645.778711</v>
+        <v>2539554703.956648</v>
       </c>
       <c r="F136">
-        <v>-7629008.36744724</v>
+        <v>28550976.2097047</v>
       </c>
       <c r="G136">
-        <v>214.870979469381</v>
+        <v>133.1104821214017</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>16075.7929</v>
+        <v>16444.8936</v>
       </c>
       <c r="B137">
-        <v>16075.8086</v>
+        <v>16444.9108</v>
       </c>
       <c r="C137">
-        <v>0.7452319973503224</v>
+        <v>0.8159661726074854</v>
       </c>
       <c r="D137">
-        <v>-340</v>
+        <v>-319</v>
       </c>
       <c r="E137">
-        <v>2869088868.426933</v>
+        <v>2122137809.853559</v>
       </c>
       <c r="F137">
-        <v>21402897.52163912</v>
+        <v>-65936362.86466946</v>
       </c>
       <c r="G137">
-        <v>292.7844131468875</v>
+        <v>313.5581417605769</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>16080.3141</v>
+        <v>16449.311</v>
       </c>
       <c r="B138">
-        <v>16080.3213</v>
+        <v>16449.332</v>
       </c>
       <c r="C138">
-        <v>0.7149935684156314</v>
+        <v>0.5725433337183199</v>
       </c>
       <c r="D138">
-        <v>-499</v>
+        <v>-250</v>
       </c>
       <c r="E138">
-        <v>2928469922.12919</v>
+        <v>3267782809.83175</v>
       </c>
       <c r="F138">
-        <v>-14639445.61954908</v>
+        <v>32685213.94314819</v>
       </c>
       <c r="G138">
-        <v>134.2328068970648</v>
+        <v>382.7298065708976</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>16093.1316</v>
+        <v>16491.1731</v>
       </c>
       <c r="B139">
-        <v>16093.1242</v>
+        <v>16491.1968</v>
       </c>
       <c r="C139">
-        <v>0.7531475583586833</v>
+        <v>0.548082591536858</v>
       </c>
       <c r="D139">
-        <v>-771</v>
+        <v>-202</v>
       </c>
       <c r="E139">
-        <v>5881421966.728233</v>
+        <v>2910109884.384812</v>
       </c>
       <c r="F139">
-        <v>42492104.45779014</v>
+        <v>11321095.68117637</v>
       </c>
       <c r="G139">
-        <v>-137.8516154967916</v>
+        <v>430.8414697035229</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>16160.9789</v>
+        <v>16521.7407</v>
       </c>
       <c r="B140">
-        <v>16160.9845</v>
+        <v>16521.7615</v>
       </c>
       <c r="C140">
-        <v>0.7872591390190221</v>
+        <v>0.6355173365191923</v>
       </c>
       <c r="D140">
-        <v>-529</v>
+        <v>-256</v>
       </c>
       <c r="E140">
-        <v>2618658247.111792</v>
+        <v>3265067322.629371</v>
       </c>
       <c r="F140">
-        <v>19895462.42167929</v>
+        <v>-2226455.036940136</v>
       </c>
       <c r="G140">
-        <v>103.8821828568387</v>
+        <v>377.4228902383945</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>16179.3972</v>
+        <v>16543.7138</v>
       </c>
       <c r="B141">
-        <v>16179.4163</v>
+        <v>16543.7318</v>
       </c>
       <c r="C141">
-        <v>0.7331805656811385</v>
+        <v>0.8119569201038782</v>
       </c>
       <c r="D141">
-        <v>-279</v>
+        <v>-307</v>
       </c>
       <c r="E141">
-        <v>2829358146.408769</v>
+        <v>2365213727.85796</v>
       </c>
       <c r="F141">
-        <v>36547100.96472555</v>
+        <v>30673859.85569298</v>
       </c>
       <c r="G141">
-        <v>353.9091028653904</v>
+        <v>326.1821565130869</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>16185.3311</v>
+        <v>16556.5189</v>
       </c>
       <c r="B142">
-        <v>16185.349</v>
+        <v>16556.5413</v>
       </c>
       <c r="C142">
-        <v>0.7089498446341125</v>
+        <v>0.7755126102414642</v>
       </c>
       <c r="D142">
-        <v>-301</v>
+        <v>-227</v>
       </c>
       <c r="E142">
-        <v>3133390673.07931</v>
+        <v>2429909011.294053</v>
       </c>
       <c r="F142">
-        <v>4532024.68046705</v>
+        <v>-16523722.63063598</v>
       </c>
       <c r="G142">
-        <v>331.5523769479758</v>
+        <v>405.6016304391342</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>16199.487</v>
+        <v>16566.2943</v>
       </c>
       <c r="B143">
-        <v>16199.5055</v>
+        <v>16566.3244</v>
       </c>
       <c r="C143">
-        <v>0.7366726410096687</v>
+        <v>0.6629796087065615</v>
       </c>
       <c r="D143">
-        <v>-291</v>
+        <v>-88</v>
       </c>
       <c r="E143">
-        <v>2764932351.493311</v>
+        <v>3024902844.993293</v>
       </c>
       <c r="F143">
-        <v>-16619189.83752748</v>
+        <v>26526815.54057986</v>
       </c>
       <c r="G143">
-        <v>342.3664263381521</v>
+        <v>544.7055824357349</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>16202.9307</v>
+        <v>16650.4242</v>
       </c>
       <c r="B144">
-        <v>16202.9351</v>
+        <v>16650.4281</v>
       </c>
       <c r="C144">
-        <v>0.6616706907977927</v>
+        <v>0.7359833921838086</v>
       </c>
       <c r="D144">
-        <v>-552</v>
+        <v>-563</v>
       </c>
       <c r="E144">
-        <v>4044677549.196068</v>
+        <v>2935604332.999224</v>
       </c>
       <c r="F144">
-        <v>-15095353.39127744</v>
+        <v>-9043179.713305684</v>
       </c>
       <c r="G144">
-        <v>81.41038431483929</v>
+        <v>70.21986776515132</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>16208.6822</v>
+        <v>16670.0368</v>
       </c>
       <c r="B145">
-        <v>16208.6872</v>
+        <v>16670.0434</v>
       </c>
       <c r="C145">
-        <v>0.7278238862807881</v>
+        <v>0.7394622399229378</v>
       </c>
       <c r="D145">
-        <v>-541</v>
+        <v>-514</v>
       </c>
       <c r="E145">
-        <v>2093577827.286536</v>
+        <v>2969276017.595953</v>
       </c>
       <c r="F145">
-        <v>39141542.31144371</v>
+        <v>45951324.73962834</v>
       </c>
       <c r="G145">
-        <v>92.47897340587421</v>
+        <v>118.6938124995394</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>16212.1746</v>
+        <v>16727.8488</v>
       </c>
       <c r="B146">
-        <v>16212.1958</v>
+        <v>16727.8538</v>
       </c>
       <c r="C146">
-        <v>0.6534248919502296</v>
+        <v>0.775821846023496</v>
       </c>
       <c r="D146">
-        <v>-241</v>
+        <v>-543</v>
       </c>
       <c r="E146">
-        <v>3179222056.615446</v>
+        <v>2397325331.73465</v>
       </c>
       <c r="F146">
-        <v>-28992438.82611369</v>
+        <v>-35583227.94198732</v>
       </c>
       <c r="G146">
-        <v>392.0263793176198</v>
+        <v>89.6087900242761</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>16230.0565</v>
+        <v>16730.0121</v>
       </c>
       <c r="B147">
-        <v>16230.0738</v>
+        <v>16730.0185</v>
       </c>
       <c r="C147">
-        <v>0.7720908522244843</v>
+        <v>0.9487484707746483</v>
       </c>
       <c r="D147">
-        <v>-313</v>
+        <v>-518</v>
       </c>
       <c r="E147">
-        <v>2576563446.582314</v>
+        <v>505954929.6191821</v>
       </c>
       <c r="F147">
-        <v>-4456211.232154349</v>
+        <v>-315653138.2201879</v>
       </c>
       <c r="G147">
-        <v>319.5558514401135</v>
+        <v>114.684419813436</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>16236.0883</v>
+        <v>16757.6467</v>
       </c>
       <c r="B148">
-        <v>16236.1071</v>
+        <v>16757.6644</v>
       </c>
       <c r="C148">
-        <v>0.6668825032047929</v>
+        <v>0.7456992725513314</v>
       </c>
       <c r="D148">
-        <v>-286</v>
+        <v>-316</v>
       </c>
       <c r="E148">
-        <v>3095424452.912705</v>
+        <v>2634097295.423865</v>
       </c>
       <c r="F148">
-        <v>-15887395.34195823</v>
+        <v>14186611.91552306</v>
       </c>
       <c r="G148">
-        <v>347.1339959839592</v>
+        <v>316.651054994061</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>16240.4048</v>
+        <v>16804.2402</v>
       </c>
       <c r="B149">
-        <v>16240.4167</v>
+        <v>16804.247</v>
       </c>
       <c r="C149">
-        <v>0.7590633069537319</v>
+        <v>0.7977392547178709</v>
       </c>
       <c r="D149">
-        <v>-413</v>
+        <v>-512</v>
       </c>
       <c r="E149">
-        <v>2524462559.141798</v>
+        <v>2153922306.858066</v>
       </c>
       <c r="F149">
-        <v>20463206.05191058</v>
+        <v>-104028839.900463</v>
       </c>
       <c r="G149">
-        <v>219.6700325181319</v>
+        <v>121.3139475424352</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>16250.9009</v>
+        <v>16974.5482</v>
       </c>
       <c r="B150">
-        <v>16250.9155</v>
+        <v>16974.5567</v>
       </c>
       <c r="C150">
-        <v>0.8028817560778079</v>
+        <v>0.724950353792886</v>
       </c>
       <c r="D150">
-        <v>-364</v>
+        <v>-483</v>
       </c>
       <c r="E150">
-        <v>2387424251.933375</v>
+        <v>2738149516.287169</v>
       </c>
       <c r="F150">
-        <v>21318329.71836824</v>
+        <v>-5315605.952762325</v>
       </c>
       <c r="G150">
-        <v>269.3370609356932</v>
+        <v>150.1209848485497</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>16285.2233</v>
+        <v>17015.7476</v>
       </c>
       <c r="B151">
-        <v>16285.2236</v>
+        <v>17015.7533</v>
       </c>
       <c r="C151">
-        <v>0.9672214207422933</v>
+        <v>0.7088815066111245</v>
       </c>
       <c r="D151">
-        <v>-627</v>
+        <v>-533</v>
       </c>
       <c r="E151">
-        <v>2609760576.915093</v>
+        <v>3196825565.453818</v>
       </c>
       <c r="F151">
-        <v>26807557.21697785</v>
+        <v>39561255.61846042</v>
       </c>
       <c r="G151">
-        <v>5.522659147667259</v>
+        <v>100.4256205295912</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>16289.221</v>
+        <v>17042.4469</v>
       </c>
       <c r="B152">
-        <v>16289.2444</v>
+        <v>17042.45</v>
       </c>
       <c r="C152">
-        <v>0.7578182065394375</v>
+        <v>0.8692643355683184</v>
       </c>
       <c r="D152">
-        <v>-202</v>
+        <v>-578</v>
       </c>
       <c r="E152">
-        <v>2701662462.370373</v>
+        <v>1499806598.330992</v>
       </c>
       <c r="F152">
-        <v>22456878.06023574</v>
+        <v>27980409.52283004</v>
       </c>
       <c r="G152">
-        <v>430.6616944641905</v>
+        <v>54.53187711609101</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>16297.2992</v>
+        <v>17165.7965</v>
       </c>
       <c r="B153">
-        <v>16297.3014</v>
+        <v>17165.8042</v>
       </c>
       <c r="C153">
-        <v>0.806522060632892</v>
+        <v>0.751672813992473</v>
       </c>
       <c r="D153">
-        <v>-593</v>
+        <v>-499</v>
       </c>
       <c r="E153">
-        <v>2373912766.56643</v>
+        <v>2868653579.087183</v>
       </c>
       <c r="F153">
-        <v>6287354.073957154</v>
+        <v>9407379.650744831</v>
       </c>
       <c r="G153">
-        <v>40.46949130141842</v>
+        <v>134.4768316275478</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>16320.783</v>
+        <v>17209.0026</v>
       </c>
       <c r="B154">
-        <v>16320.81</v>
+        <v>17209.0074</v>
       </c>
       <c r="C154">
-        <v>0.5589444414247435</v>
+        <v>0.7264891303280261</v>
       </c>
       <c r="D154">
-        <v>-137</v>
+        <v>-549</v>
       </c>
       <c r="E154">
-        <v>2288132164.547809</v>
+        <v>2297603256.137409</v>
       </c>
       <c r="F154">
-        <v>51227219.09015395</v>
+        <v>55151778.96647949</v>
       </c>
       <c r="G154">
-        <v>495.9563745355763</v>
+        <v>83.61924462412458</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>16323.1594</v>
+        <v>17307.0446</v>
       </c>
       <c r="B155">
-        <v>16323.1698</v>
+        <v>17307.05</v>
       </c>
       <c r="C155">
-        <v>0.796418755577877</v>
+        <v>0.7003135674604529</v>
       </c>
       <c r="D155">
-        <v>-442</v>
+        <v>-539</v>
       </c>
       <c r="E155">
-        <v>2344624347.877722</v>
+        <v>3115670104.780177</v>
       </c>
       <c r="F155">
-        <v>3006011.11654563</v>
+        <v>-20684258.06144327</v>
       </c>
       <c r="G155">
-        <v>191.0072361620598</v>
+        <v>93.53874735469434</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>16335.9908</v>
+        <v>17315.5826</v>
       </c>
       <c r="B156">
-        <v>16335.9928</v>
+        <v>17315.5846</v>
       </c>
       <c r="C156">
-        <v>0.8181297780099491</v>
+        <v>0.9281820059124292</v>
       </c>
       <c r="D156">
-        <v>-596</v>
+        <v>-598</v>
       </c>
       <c r="E156">
-        <v>2324035744.369361</v>
+        <v>2184124492.427251</v>
       </c>
       <c r="F156">
-        <v>-39089639.85088311</v>
+        <v>59042938.8992428</v>
       </c>
       <c r="G156">
-        <v>36.7033088949083</v>
+        <v>34.6268981373526</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>16388.6201</v>
+        <v>17688.7397</v>
       </c>
       <c r="B157">
-        <v>16388.6315</v>
+        <v>17688.7463</v>
       </c>
       <c r="C157">
-        <v>0.8419927791338409</v>
+        <v>0.7287877848095923</v>
       </c>
       <c r="D157">
-        <v>-424</v>
+        <v>-521</v>
       </c>
       <c r="E157">
-        <v>1935730441.132565</v>
+        <v>2313138605.45255</v>
       </c>
       <c r="F157">
-        <v>120891807.0093691</v>
+        <v>12747770.98337865</v>
       </c>
       <c r="G157">
-        <v>208.5370214600775</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158">
-        <v>16398.8704</v>
-      </c>
-      <c r="B158">
-        <v>16398.8782</v>
-      </c>
-      <c r="C158">
-        <v>0.6466939110352631</v>
-      </c>
-      <c r="D158">
-        <v>-490</v>
-      </c>
-      <c r="E158">
-        <v>3128094910.877211</v>
-      </c>
-      <c r="F158">
-        <v>-12752656.47561182</v>
-      </c>
-      <c r="G158">
-        <v>142.5940394123858</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159">
-        <v>16409.0824</v>
-      </c>
-      <c r="B159">
-        <v>16409.1</v>
-      </c>
-      <c r="C159">
-        <v>0.6814376280678456</v>
-      </c>
-      <c r="D159">
-        <v>-311</v>
-      </c>
-      <c r="E159">
-        <v>2985467084.742025</v>
-      </c>
-      <c r="F159">
-        <v>-7865713.081280822</v>
-      </c>
-      <c r="G159">
-        <v>321.5504153084832</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160">
-        <v>16441.1165</v>
-      </c>
-      <c r="B160">
-        <v>16441.1238</v>
-      </c>
-      <c r="C160">
-        <v>0.7732216211460432</v>
-      </c>
-      <c r="D160">
-        <v>-500</v>
-      </c>
-      <c r="E160">
-        <v>2539554703.956648</v>
-      </c>
-      <c r="F160">
-        <v>-28550976.2097047</v>
-      </c>
-      <c r="G160">
-        <v>133.1104821214017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161">
-        <v>16444.8936</v>
-      </c>
-      <c r="B161">
-        <v>16444.9108</v>
-      </c>
-      <c r="C161">
-        <v>0.8159661726074854</v>
-      </c>
-      <c r="D161">
-        <v>-319</v>
-      </c>
-      <c r="E161">
-        <v>2122137809.853559</v>
-      </c>
-      <c r="F161">
-        <v>65936362.86466946</v>
-      </c>
-      <c r="G161">
-        <v>313.5581417605769</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162">
-        <v>16449.311</v>
-      </c>
-      <c r="B162">
-        <v>16449.332</v>
-      </c>
-      <c r="C162">
-        <v>0.5725433337183199</v>
-      </c>
-      <c r="D162">
-        <v>-250</v>
-      </c>
-      <c r="E162">
-        <v>3267782809.83175</v>
-      </c>
-      <c r="F162">
-        <v>-32685213.94314819</v>
-      </c>
-      <c r="G162">
-        <v>382.7298065708976</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163">
-        <v>16478.5856</v>
-      </c>
-      <c r="B163">
-        <v>16478.592</v>
-      </c>
-      <c r="C163">
-        <v>0.8134624720050074</v>
-      </c>
-      <c r="D163">
-        <v>-517</v>
-      </c>
-      <c r="E163">
-        <v>2549208199.796457</v>
-      </c>
-      <c r="F163">
-        <v>15129787.24873984</v>
-      </c>
-      <c r="G163">
-        <v>116.4342485451196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164">
-        <v>16491.1731</v>
-      </c>
-      <c r="B164">
-        <v>16491.1968</v>
-      </c>
-      <c r="C164">
-        <v>0.548082591536858</v>
-      </c>
-      <c r="D164">
-        <v>-202</v>
-      </c>
-      <c r="E164">
-        <v>2910109884.384812</v>
-      </c>
-      <c r="F164">
-        <v>-11321095.68117637</v>
-      </c>
-      <c r="G164">
-        <v>430.8414697035229</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165">
-        <v>16521.7407</v>
-      </c>
-      <c r="B165">
-        <v>16521.7615</v>
-      </c>
-      <c r="C165">
-        <v>0.6355173365191923</v>
-      </c>
-      <c r="D165">
-        <v>-256</v>
-      </c>
-      <c r="E165">
-        <v>3265067322.629371</v>
-      </c>
-      <c r="F165">
-        <v>2226455.036940136</v>
-      </c>
-      <c r="G165">
-        <v>377.4228902383945</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166">
-        <v>16543.7138</v>
-      </c>
-      <c r="B166">
-        <v>16543.7318</v>
-      </c>
-      <c r="C166">
-        <v>0.8119569201038782</v>
-      </c>
-      <c r="D166">
-        <v>-307</v>
-      </c>
-      <c r="E166">
-        <v>2365213727.85796</v>
-      </c>
-      <c r="F166">
-        <v>-30673859.85569298</v>
-      </c>
-      <c r="G166">
-        <v>326.1821565130869</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167">
-        <v>16556.5189</v>
-      </c>
-      <c r="B167">
-        <v>16556.5413</v>
-      </c>
-      <c r="C167">
-        <v>0.7755126102414642</v>
-      </c>
-      <c r="D167">
-        <v>-227</v>
-      </c>
-      <c r="E167">
-        <v>2429909011.294053</v>
-      </c>
-      <c r="F167">
-        <v>16523722.63063598</v>
-      </c>
-      <c r="G167">
-        <v>405.6016304391342</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168">
-        <v>16566.2943</v>
-      </c>
-      <c r="B168">
-        <v>16566.3244</v>
-      </c>
-      <c r="C168">
-        <v>0.6629796087065615</v>
-      </c>
-      <c r="D168">
-        <v>-88</v>
-      </c>
-      <c r="E168">
-        <v>3024902844.993293</v>
-      </c>
-      <c r="F168">
-        <v>-26526815.54057986</v>
-      </c>
-      <c r="G168">
-        <v>544.7055824357349</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
-        <v>16650.4242</v>
-      </c>
-      <c r="B169">
-        <v>16650.4281</v>
-      </c>
-      <c r="C169">
-        <v>0.7359833921838086</v>
-      </c>
-      <c r="D169">
-        <v>-563</v>
-      </c>
-      <c r="E169">
-        <v>2935604332.999224</v>
-      </c>
-      <c r="F169">
-        <v>9043179.713305684</v>
-      </c>
-      <c r="G169">
-        <v>70.21986776515132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170">
-        <v>16670.0368</v>
-      </c>
-      <c r="B170">
-        <v>16670.0434</v>
-      </c>
-      <c r="C170">
-        <v>0.7394622399229378</v>
-      </c>
-      <c r="D170">
-        <v>-514</v>
-      </c>
-      <c r="E170">
-        <v>2969276017.595953</v>
-      </c>
-      <c r="F170">
-        <v>-45951324.73962834</v>
-      </c>
-      <c r="G170">
-        <v>118.6938124995394</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171">
-        <v>16727.8488</v>
-      </c>
-      <c r="B171">
-        <v>16727.8538</v>
-      </c>
-      <c r="C171">
-        <v>0.775821846023496</v>
-      </c>
-      <c r="D171">
-        <v>-543</v>
-      </c>
-      <c r="E171">
-        <v>2397325331.73465</v>
-      </c>
-      <c r="F171">
-        <v>35583227.94198732</v>
-      </c>
-      <c r="G171">
-        <v>89.6087900242761</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172">
-        <v>16729.2648</v>
-      </c>
-      <c r="B172">
-        <v>16729.2825</v>
-      </c>
-      <c r="C172">
-        <v>0.9287669588522375</v>
-      </c>
-      <c r="D172">
-        <v>-316</v>
-      </c>
-      <c r="E172">
-        <v>1090461313.019374</v>
-      </c>
-      <c r="F172">
-        <v>83037663.30621134</v>
-      </c>
-      <c r="G172">
-        <v>317.188266800946</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173">
-        <v>16730.0121</v>
-      </c>
-      <c r="B173">
-        <v>16730.0185</v>
-      </c>
-      <c r="C173">
-        <v>0.9487484707746483</v>
-      </c>
-      <c r="D173">
-        <v>-518</v>
-      </c>
-      <c r="E173">
-        <v>505954929.6191821</v>
-      </c>
-      <c r="F173">
-        <v>315653138.2201879</v>
-      </c>
-      <c r="G173">
-        <v>114.684419813436</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174">
-        <v>16757.6467</v>
-      </c>
-      <c r="B174">
-        <v>16757.6644</v>
-      </c>
-      <c r="C174">
-        <v>0.7456992725513314</v>
-      </c>
-      <c r="D174">
-        <v>-316</v>
-      </c>
-      <c r="E174">
-        <v>2634097295.423865</v>
-      </c>
-      <c r="F174">
-        <v>-14186611.91552306</v>
-      </c>
-      <c r="G174">
-        <v>316.651054994061</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175">
-        <v>16804.2402</v>
-      </c>
-      <c r="B175">
-        <v>16804.247</v>
-      </c>
-      <c r="C175">
-        <v>0.7977392547178709</v>
-      </c>
-      <c r="D175">
-        <v>-512</v>
-      </c>
-      <c r="E175">
-        <v>2153922306.858066</v>
-      </c>
-      <c r="F175">
-        <v>104028839.900463</v>
-      </c>
-      <c r="G175">
-        <v>121.3139475424352</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176">
-        <v>16878.7282</v>
-      </c>
-      <c r="B176">
-        <v>16878.7247</v>
-      </c>
-      <c r="C176">
-        <v>0.9274074856270791</v>
-      </c>
-      <c r="D176">
-        <v>-695</v>
-      </c>
-      <c r="E176">
-        <v>1992678221.439851</v>
-      </c>
-      <c r="F176">
-        <v>84275469.41572106</v>
-      </c>
-      <c r="G176">
-        <v>-62.16544229493469</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177">
-        <v>16889.4327</v>
-      </c>
-      <c r="B177">
-        <v>16889.4273</v>
-      </c>
-      <c r="C177">
-        <v>0.9097898108239051</v>
-      </c>
-      <c r="D177">
-        <v>-729</v>
-      </c>
-      <c r="E177">
-        <v>997664084.8940914</v>
-      </c>
-      <c r="F177">
-        <v>-331335589.3247173</v>
-      </c>
-      <c r="G177">
-        <v>-95.85160748423247</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178">
-        <v>16974.5482</v>
-      </c>
-      <c r="B178">
-        <v>16974.5567</v>
-      </c>
-      <c r="C178">
-        <v>0.724950353792886</v>
-      </c>
-      <c r="D178">
-        <v>-483</v>
-      </c>
-      <c r="E178">
-        <v>2738149516.287169</v>
-      </c>
-      <c r="F178">
-        <v>5315605.952762325</v>
-      </c>
-      <c r="G178">
-        <v>150.1209848485497</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179">
-        <v>17010.0948</v>
-      </c>
-      <c r="B179">
-        <v>17010.0858</v>
-      </c>
-      <c r="C179">
-        <v>0.6809068812779525</v>
-      </c>
-      <c r="D179">
-        <v>-792</v>
-      </c>
-      <c r="E179">
-        <v>2265164718.023444</v>
-      </c>
-      <c r="F179">
-        <v>-39205278.65236276</v>
-      </c>
-      <c r="G179">
-        <v>-158.6194640879232</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180">
-        <v>17015.7476</v>
-      </c>
-      <c r="B180">
-        <v>17015.7533</v>
-      </c>
-      <c r="C180">
-        <v>0.7088815066111245</v>
-      </c>
-      <c r="D180">
-        <v>-533</v>
-      </c>
-      <c r="E180">
-        <v>3196825565.453818</v>
-      </c>
-      <c r="F180">
-        <v>-39561255.61846042</v>
-      </c>
-      <c r="G180">
-        <v>100.4256205295912</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181">
-        <v>17042.4469</v>
-      </c>
-      <c r="B181">
-        <v>17042.45</v>
-      </c>
-      <c r="C181">
-        <v>0.8692643355683184</v>
-      </c>
-      <c r="D181">
-        <v>-578</v>
-      </c>
-      <c r="E181">
-        <v>1499806598.330992</v>
-      </c>
-      <c r="F181">
-        <v>-27980409.52283004</v>
-      </c>
-      <c r="G181">
-        <v>54.53187711609101</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182">
-        <v>17137.6169</v>
-      </c>
-      <c r="B182">
-        <v>17137.6206</v>
-      </c>
-      <c r="C182">
-        <v>0.9338174201004594</v>
-      </c>
-      <c r="D182">
-        <v>-568</v>
-      </c>
-      <c r="E182">
-        <v>3471452045.405795</v>
-      </c>
-      <c r="F182">
-        <v>28622477.40795692</v>
-      </c>
-      <c r="G182">
-        <v>64.7249906789629</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183">
-        <v>17165.7965</v>
-      </c>
-      <c r="B183">
-        <v>17165.8042</v>
-      </c>
-      <c r="C183">
-        <v>0.751672813992473</v>
-      </c>
-      <c r="D183">
-        <v>-499</v>
-      </c>
-      <c r="E183">
-        <v>2868653579.087183</v>
-      </c>
-      <c r="F183">
-        <v>-9407379.650744831</v>
-      </c>
-      <c r="G183">
-        <v>134.4768316275478</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184">
-        <v>17170.8869</v>
-      </c>
-      <c r="B184">
-        <v>17170.8946</v>
-      </c>
-      <c r="C184">
-        <v>0.8548510041933781</v>
-      </c>
-      <c r="D184">
-        <v>-499</v>
-      </c>
-      <c r="E184">
-        <v>2012332774.739811</v>
-      </c>
-      <c r="F184">
-        <v>-52585171.57564016</v>
-      </c>
-      <c r="G184">
-        <v>134.4369652716454</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185">
-        <v>17209.0026</v>
-      </c>
-      <c r="B185">
-        <v>17209.0074</v>
-      </c>
-      <c r="C185">
-        <v>0.7264891303280261</v>
-      </c>
-      <c r="D185">
-        <v>-549</v>
-      </c>
-      <c r="E185">
-        <v>2297603256.137409</v>
-      </c>
-      <c r="F185">
-        <v>-55151778.96647949</v>
-      </c>
-      <c r="G185">
-        <v>83.61924462412458</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186">
-        <v>17307.0446</v>
-      </c>
-      <c r="B186">
-        <v>17307.05</v>
-      </c>
-      <c r="C186">
-        <v>0.7003135674604529</v>
-      </c>
-      <c r="D186">
-        <v>-539</v>
-      </c>
-      <c r="E186">
-        <v>3115670104.780177</v>
-      </c>
-      <c r="F186">
-        <v>20684258.06144327</v>
-      </c>
-      <c r="G186">
-        <v>93.53874735469434</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187">
-        <v>17315.5826</v>
-      </c>
-      <c r="B187">
-        <v>17315.5846</v>
-      </c>
-      <c r="C187">
-        <v>0.9281820059124292</v>
-      </c>
-      <c r="D187">
-        <v>-598</v>
-      </c>
-      <c r="E187">
-        <v>2184124492.427251</v>
-      </c>
-      <c r="F187">
-        <v>-59042938.8992428</v>
-      </c>
-      <c r="G187">
-        <v>34.6268981373526</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188">
-        <v>17688.7397</v>
-      </c>
-      <c r="B188">
-        <v>17688.7463</v>
-      </c>
-      <c r="C188">
-        <v>0.7287877848095923</v>
-      </c>
-      <c r="D188">
-        <v>-521</v>
-      </c>
-      <c r="E188">
-        <v>2313138605.45255</v>
-      </c>
-      <c r="F188">
-        <v>-12747770.98337865</v>
-      </c>
-      <c r="G188">
         <v>111.8581796353327</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189">
-        <v>17775.9796</v>
-      </c>
-      <c r="B189">
-        <v>17775.9768</v>
-      </c>
-      <c r="C189">
-        <v>0.6177942711253955</v>
-      </c>
-      <c r="D189">
-        <v>-680</v>
-      </c>
-      <c r="E189">
-        <v>2741667337.789729</v>
-      </c>
-      <c r="F189">
-        <v>-33404815.53269046</v>
-      </c>
-      <c r="G189">
-        <v>-47.22208851763329</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190">
-        <v>20722.6098</v>
-      </c>
-      <c r="B190">
-        <v>20722.6196</v>
-      </c>
-      <c r="C190">
-        <v>0.7604623611653833</v>
-      </c>
-      <c r="D190">
-        <v>-491</v>
-      </c>
-      <c r="E190">
-        <v>1991439345.439217</v>
-      </c>
-      <c r="F190">
-        <v>-128796335.2339712</v>
-      </c>
-      <c r="G190">
-        <v>141.7758727360583</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191">
-        <v>21254.7576</v>
-      </c>
-      <c r="B191">
-        <v>21254.7553</v>
-      </c>
-      <c r="C191">
-        <v>0.9821994076540715</v>
-      </c>
-      <c r="D191">
-        <v>-665</v>
-      </c>
-      <c r="E191">
-        <v>1418031621.297791</v>
-      </c>
-      <c r="F191">
-        <v>-75556569.19388327</v>
-      </c>
-      <c r="G191">
-        <v>-32.44086179078059</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192">
-        <v>21741.4086</v>
-      </c>
-      <c r="B192">
-        <v>21741.4037</v>
-      </c>
-      <c r="C192">
-        <v>0.9243877281397593</v>
-      </c>
-      <c r="D192">
-        <v>-701</v>
-      </c>
-      <c r="E192">
-        <v>3644141551.465208</v>
-      </c>
-      <c r="F192">
-        <v>-85997863.85278149</v>
-      </c>
-      <c r="G192">
-        <v>-67.56613940223765</v>
       </c>
     </row>
   </sheetData>

--- a/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
+++ b/Project/IAG Solar Flux Atlas/Infrared range/Data/valores_NIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Emitted wavelength</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Blueshift</t>
+  </si>
+  <si>
+    <t>Line Depth</t>
   </si>
 </sst>
 </file>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>10035.6094</v>
       </c>
@@ -438,13 +444,16 @@
         <v>1092414854.350568</v>
       </c>
       <c r="F2">
-        <v>-156677110.1056063</v>
+        <v>156677110.1056063</v>
       </c>
       <c r="G2">
         <v>209.110092138397</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.05743405427202564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>10084.1584</v>
       </c>
@@ -461,13 +470,16 @@
         <v>1039916995.203525</v>
       </c>
       <c r="F3">
-        <v>-95784039.45845836</v>
+        <v>95784039.45845836</v>
       </c>
       <c r="G3">
         <v>300.2634136864436</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.04336456425362079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10116.7892</v>
       </c>
@@ -484,13 +496,16 @@
         <v>2487722571.704799</v>
       </c>
       <c r="F4">
-        <v>-62683098.96488434</v>
+        <v>62683098.96488434</v>
       </c>
       <c r="G4">
         <v>231.1386673049972</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.1078840065190858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>10139.8807</v>
       </c>
@@ -507,13 +522,16 @@
         <v>1164347933.249144</v>
       </c>
       <c r="F5">
-        <v>-166611754.3473985</v>
+        <v>166611754.3473985</v>
       </c>
       <c r="G5">
         <v>53.21822221639219</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.05441244081384189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>10145.6242</v>
       </c>
@@ -530,13 +548,16 @@
         <v>1427904249.565825</v>
       </c>
       <c r="F6">
-        <v>22663026.0553909</v>
+        <v>-22663026.0553909</v>
       </c>
       <c r="G6">
         <v>132.9702376056558</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.08342017248217437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>10148.3444</v>
       </c>
@@ -553,13 +574,16 @@
         <v>4861451483.351841</v>
       </c>
       <c r="F7">
-        <v>28409543.72762407</v>
+        <v>-28409543.72762407</v>
       </c>
       <c r="G7">
         <v>369.2627661837664</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.421270623771574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>10157.949</v>
       </c>
@@ -576,13 +600,16 @@
         <v>2369787863.916452</v>
       </c>
       <c r="F8">
-        <v>-45429471.48641107</v>
+        <v>45429471.48641107</v>
       </c>
       <c r="G8">
         <v>221.3481712655098</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.1077095019960794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>10170.2562</v>
       </c>
@@ -599,13 +626,16 @@
         <v>2893465557.268535</v>
       </c>
       <c r="F9">
-        <v>-52285354.05180201</v>
+        <v>52285354.05180201</v>
       </c>
       <c r="G9">
         <v>203.3938889715005</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0.1272931818998715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10219.1142</v>
       </c>
@@ -622,13 +652,16 @@
         <v>4898282972.106872</v>
       </c>
       <c r="F10">
-        <v>7300468.186603961</v>
+        <v>-7300468.186603961</v>
       </c>
       <c r="G10">
         <v>440.04664022485</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.4473702354949702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10221.2115</v>
       </c>
@@ -645,13 +678,16 @@
         <v>4769684636.022537</v>
       </c>
       <c r="F11">
-        <v>-3783279.059394291</v>
+        <v>3783279.059394291</v>
       </c>
       <c r="G11">
         <v>196.5138348174656</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.2298472183399822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10268.0337</v>
       </c>
@@ -668,13 +704,16 @@
         <v>1175894603.604178</v>
       </c>
       <c r="F12">
-        <v>-101648915.6019635</v>
+        <v>101648915.6019635</v>
       </c>
       <c r="G12">
         <v>163.5013882968728</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.05221142329858397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10310.2796</v>
       </c>
@@ -691,13 +730,16 @@
         <v>651237286.9919277</v>
       </c>
       <c r="F13">
-        <v>-406184614.3090176</v>
+        <v>406184614.3090176</v>
       </c>
       <c r="G13">
         <v>55.24638439732712</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0.0381781167068026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>10335.161</v>
       </c>
@@ -714,13 +756,16 @@
         <v>1483377073.555127</v>
       </c>
       <c r="F14">
-        <v>-87995685.52016665</v>
+        <v>87995685.52016665</v>
       </c>
       <c r="G14">
         <v>240.7584556362024</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0.06757830636614381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>10343.7208</v>
       </c>
@@ -737,13 +782,16 @@
         <v>5741618897.409628</v>
       </c>
       <c r="F15">
-        <v>-3332097.627462617</v>
+        <v>3332097.627462617</v>
       </c>
       <c r="G15">
         <v>234.7626117048913</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0.2723157778789259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>10348.0194</v>
       </c>
@@ -760,13 +808,16 @@
         <v>816452194.0869088</v>
       </c>
       <c r="F16">
-        <v>-24187923.80759507</v>
+        <v>24187923.80759507</v>
       </c>
       <c r="G16">
         <v>78.22169691553601</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0.04586915356115895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>10350.8021</v>
       </c>
@@ -783,13 +834,16 @@
         <v>3023016423.668905</v>
       </c>
       <c r="F17">
-        <v>-977415.4649770735</v>
+        <v>977415.4649770735</v>
       </c>
       <c r="G17">
         <v>211.4314352049752</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.1795332271979354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>10365.544</v>
       </c>
@@ -806,13 +860,16 @@
         <v>1167710602.469932</v>
       </c>
       <c r="F18">
-        <v>-101261740.0364153</v>
+        <v>101261740.0364153</v>
       </c>
       <c r="G18">
         <v>156.1789013206684</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.06653239493464458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>10381.8464</v>
       </c>
@@ -829,13 +886,16 @@
         <v>2620537720.623078</v>
       </c>
       <c r="F19">
-        <v>-8616107.045082089</v>
+        <v>8616107.045082089</v>
       </c>
       <c r="G19">
         <v>150.158336158803</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0.1182933865991311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>10391.5915</v>
       </c>
@@ -852,13 +912,16 @@
         <v>912103665.3756156</v>
       </c>
       <c r="F20">
-        <v>-155365542.5129987</v>
+        <v>155365542.5129987</v>
       </c>
       <c r="G20">
         <v>201.9466609972183</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0.04838380501972273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>10398.6467</v>
       </c>
@@ -875,13 +938,16 @@
         <v>6334397162.849628</v>
       </c>
       <c r="F21">
-        <v>5619379.032977202</v>
+        <v>-5619379.032977202</v>
       </c>
       <c r="G21">
         <v>242.1715747933119</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0.3273813461267876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>10425.8871</v>
       </c>
@@ -898,13 +964,16 @@
         <v>2907342842.092541</v>
       </c>
       <c r="F22">
-        <v>-23491007.64812877</v>
+        <v>23491007.64812877</v>
       </c>
       <c r="G22">
         <v>238.6633748817404</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.1372495836200107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>10426.6023</v>
       </c>
@@ -921,13 +990,16 @@
         <v>3650308171.970758</v>
       </c>
       <c r="F23">
-        <v>4861517.001753004</v>
+        <v>-4861517.001753004</v>
       </c>
       <c r="G23">
         <v>209.894352961243</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.1757809642438444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>10472.5234</v>
       </c>
@@ -944,13 +1016,16 @@
         <v>5367784831.088258</v>
       </c>
       <c r="F24">
-        <v>7306275.050283175</v>
+        <v>-7306275.050283175</v>
       </c>
       <c r="G24">
         <v>437.9865704075818</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.3844519388649174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>10535.122</v>
       </c>
@@ -967,13 +1042,16 @@
         <v>5502191211.121552</v>
       </c>
       <c r="F25">
-        <v>-3667309.38911736</v>
+        <v>3667309.38911736</v>
       </c>
       <c r="G25">
         <v>338.6320776117072</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.3085268521076436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>10558.5438</v>
       </c>
@@ -990,13 +1068,16 @@
         <v>1109103792.656712</v>
       </c>
       <c r="F26">
-        <v>-25102531.12714076</v>
+        <v>25102531.12714076</v>
       </c>
       <c r="G26">
         <v>164.6814456252225</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0.0670847560112463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>10580.039</v>
       </c>
@@ -1013,13 +1094,16 @@
         <v>2276211567.059862</v>
       </c>
       <c r="F27">
-        <v>-23994375.32402267</v>
+        <v>23994375.32402267</v>
       </c>
       <c r="G27">
         <v>277.6895329283418</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0.1033682216932009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>10619.6322</v>
       </c>
@@ -1036,13 +1120,16 @@
         <v>2230216978.745636</v>
       </c>
       <c r="F28">
-        <v>-28263552.39839941</v>
+        <v>28263552.39839941</v>
       </c>
       <c r="G28">
         <v>175.0261407137777</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0.09248573920519065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>10755.9531</v>
       </c>
@@ -1059,13 +1146,16 @@
         <v>4012371034.929343</v>
       </c>
       <c r="F29">
-        <v>-9957776.974086111</v>
+        <v>9957776.974086111</v>
       </c>
       <c r="G29">
         <v>253.6373431923298</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0.2048284554576423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>10783.6477</v>
       </c>
@@ -1082,13 +1172,16 @@
         <v>1423530335.532048</v>
       </c>
       <c r="F30">
-        <v>-48341681.80190385</v>
+        <v>48341681.80190385</v>
       </c>
       <c r="G30">
         <v>294.6869318163317</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0.05906670278145498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>10786.0053</v>
       </c>
@@ -1105,13 +1198,16 @@
         <v>5131435504.372919</v>
       </c>
       <c r="F31">
-        <v>-8438671.782919452</v>
+        <v>8438671.782919452</v>
       </c>
       <c r="G31">
         <v>208.4593297016262</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0.2490098102851527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>10821.2401</v>
       </c>
@@ -1128,13 +1224,16 @@
         <v>3567627233.572556</v>
       </c>
       <c r="F32">
-        <v>-13690480.77423065</v>
+        <v>13690480.77423065</v>
       </c>
       <c r="G32">
         <v>257.6479066640685</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0.1812736686169343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>10887.2463</v>
       </c>
@@ -1151,13 +1250,16 @@
         <v>3740177205.343518</v>
       </c>
       <c r="F33">
-        <v>-5682019.626809872</v>
+        <v>5682019.626809872</v>
       </c>
       <c r="G33">
         <v>278.1147539102653</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0.2007178698010487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>10899.2871</v>
       </c>
@@ -1174,13 +1276,16 @@
         <v>4551789703.786042</v>
       </c>
       <c r="F34">
-        <v>7373565.200082134</v>
+        <v>-7373565.200082134</v>
       </c>
       <c r="G34">
         <v>228.2972618982217</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0.2228342720043448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>11122.8432</v>
       </c>
@@ -1197,13 +1302,16 @@
         <v>5920332872.86448</v>
       </c>
       <c r="F35">
-        <v>8343150.216613088</v>
+        <v>-8343150.216613088</v>
       </c>
       <c r="G35">
         <v>293.786195995636</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0.4211667023471034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>11672.8365</v>
       </c>
@@ -1220,13 +1328,16 @@
         <v>5053048059.109766</v>
       </c>
       <c r="F36">
-        <v>-29709112.09872661</v>
+        <v>29709112.09872661</v>
       </c>
       <c r="G36">
         <v>195.1901477600028</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0.2825499315196948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>11887.3385</v>
       </c>
@@ -1243,13 +1354,16 @@
         <v>4078361117.601238</v>
       </c>
       <c r="F37">
-        <v>33204587.71600025</v>
+        <v>-33204587.71600025</v>
       </c>
       <c r="G37">
         <v>448.9066877308219</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0.5155049647336023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>11893.7446</v>
       </c>
@@ -1266,13 +1380,16 @@
         <v>3234104353.83377</v>
       </c>
       <c r="F38">
-        <v>7962682.93565054</v>
+        <v>-7962682.93565054</v>
       </c>
       <c r="G38">
         <v>161.3177175190825</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0.2668516992595176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>12056.3824</v>
       </c>
@@ -1289,13 +1406,16 @@
         <v>3292310950.058791</v>
       </c>
       <c r="F39">
-        <v>8322813.517383904</v>
+        <v>-8322813.517383904</v>
       </c>
       <c r="G39">
         <v>213.8464966395116</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0.1780402991050559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>12134.4953</v>
       </c>
@@ -1312,13 +1432,16 @@
         <v>484919102.1449975</v>
       </c>
       <c r="F40">
-        <v>37658692.86906283</v>
+        <v>-37658692.86906283</v>
       </c>
       <c r="G40">
         <v>-51.88218762412625</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0.0303586954027002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>12216.6754</v>
       </c>
@@ -1335,13 +1458,16 @@
         <v>1956128998.876171</v>
       </c>
       <c r="F41">
-        <v>-63107876.30689377</v>
+        <v>63107876.30689377</v>
       </c>
       <c r="G41">
         <v>68.71090987194373</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0.1197162419001919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>12230.459</v>
       </c>
@@ -1358,13 +1484,16 @@
         <v>3958370237.736347</v>
       </c>
       <c r="F42">
-        <v>-7461850.332053294</v>
+        <v>7461850.332053294</v>
       </c>
       <c r="G42">
         <v>213.2540066162134</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0.2292024751489307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>12343.864</v>
       </c>
@@ -1381,13 +1510,16 @@
         <v>885320110.7129227</v>
       </c>
       <c r="F43">
-        <v>18408945.50113069</v>
+        <v>-18408945.50113069</v>
       </c>
       <c r="G43">
         <v>55.85954716125617</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0.04912497529315707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>12346.2918</v>
       </c>
@@ -1404,13 +1536,16 @@
         <v>2893479150.314776</v>
       </c>
       <c r="F44">
-        <v>-25835291.56025861</v>
+        <v>25835291.56025861</v>
       </c>
       <c r="G44">
         <v>281.6710125485241</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0.1798162446270126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>12560.4345</v>
       </c>
@@ -1427,13 +1562,16 @@
         <v>3698188201.947296</v>
       </c>
       <c r="F45">
-        <v>-7148187.431506136</v>
+        <v>7148187.431506136</v>
       </c>
       <c r="G45">
         <v>221.9724054358576</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0.1746831963221127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>12619.3777</v>
       </c>
@@ -1450,13 +1588,16 @@
         <v>2922384018.712894</v>
       </c>
       <c r="F46">
-        <v>8848614.204445509</v>
+        <v>-8848614.204445509</v>
       </c>
       <c r="G46">
         <v>225.6869093191555</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0.1687032067109444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>12642.1643</v>
       </c>
@@ -1473,13 +1614,16 @@
         <v>4279152310.849101</v>
       </c>
       <c r="F47">
-        <v>4111393.746382472</v>
+        <v>-4111393.746382472</v>
       </c>
       <c r="G47">
         <v>350.9627206966982</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0.3822909995149532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>12810.6535</v>
       </c>
@@ -1496,13 +1640,16 @@
         <v>3337081972.08334</v>
       </c>
       <c r="F48">
-        <v>-12799969.90510492</v>
+        <v>12799969.90510492</v>
       </c>
       <c r="G48">
         <v>334.645859331857</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0.2053903855489194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>12828.3694</v>
       </c>
@@ -1519,13 +1666,16 @@
         <v>2273626482.28181</v>
       </c>
       <c r="F49">
-        <v>-4101617.602997416</v>
+        <v>4101617.602997416</v>
       </c>
       <c r="G49">
         <v>236.03185496702</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0.1553177192869108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>12844.0867</v>
       </c>
@@ -1542,13 +1692,16 @@
         <v>1663237571.869143</v>
       </c>
       <c r="F50">
-        <v>-24495923.06465667</v>
+        <v>24495923.06465667</v>
       </c>
       <c r="G50">
         <v>315.1020603992357</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0.1166086985709455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>12883.2924</v>
       </c>
@@ -1565,13 +1718,16 @@
         <v>5652830475.671362</v>
       </c>
       <c r="F51">
-        <v>650730.1445753785</v>
+        <v>-650730.1445753785</v>
       </c>
       <c r="G51">
         <v>269.930418796854</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0.3101707375451361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>12936.5437</v>
       </c>
@@ -1588,13 +1744,16 @@
         <v>1054536340.142622</v>
       </c>
       <c r="F52">
-        <v>-215975076.2760331</v>
+        <v>215975076.2760331</v>
       </c>
       <c r="G52">
         <v>171.488168777924</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0.06063908456286959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>13355.8281</v>
       </c>
@@ -1611,13 +1770,16 @@
         <v>3940752423.939021</v>
       </c>
       <c r="F53">
-        <v>17138920.22262292</v>
+        <v>-17138920.22262292</v>
       </c>
       <c r="G53">
         <v>170.5938907839318</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0.4144432072896289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>13395.7647</v>
       </c>
@@ -1634,13 +1796,16 @@
         <v>3645317858.151546</v>
       </c>
       <c r="F54">
-        <v>27702535.8647331</v>
+        <v>-27702535.8647331</v>
       </c>
       <c r="G54">
         <v>273.0316685858902</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0.4533664680095457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>14812.3724</v>
       </c>
@@ -1657,13 +1822,16 @@
         <v>4176362792.286147</v>
       </c>
       <c r="F55">
-        <v>-11991303.16024815</v>
+        <v>11991303.16024815</v>
       </c>
       <c r="G55">
         <v>-22.26326037205379</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0.4710089648712248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>14960.2394</v>
       </c>
@@ -1680,13 +1848,16 @@
         <v>3416335965.676072</v>
       </c>
       <c r="F56">
-        <v>4225147.812217094</v>
+        <v>-4225147.812217094</v>
       </c>
       <c r="G56">
         <v>210.4124623500545</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0.438722636188979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>15021.8064</v>
       </c>
@@ -1703,13 +1874,16 @@
         <v>2350162102.19848</v>
       </c>
       <c r="F57">
-        <v>-18432425.35255145</v>
+        <v>18432425.35255145</v>
       </c>
       <c r="G57">
         <v>283.3915436144903</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0.2279662670300612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>15055.8625</v>
       </c>
@@ -1726,13 +1900,16 @@
         <v>3532133521.254247</v>
       </c>
       <c r="F58">
-        <v>19652248.51544683</v>
+        <v>-19652248.51544683</v>
       </c>
       <c r="G58">
         <v>346.4689432125126</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0.4620905734588536</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>15098.8248</v>
       </c>
@@ -1749,13 +1926,16 @@
         <v>3476608258.668179</v>
       </c>
       <c r="F59">
-        <v>-1998760.828410971</v>
+        <v>1998760.828410971</v>
       </c>
       <c r="G59">
         <v>75.45033175572252</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0.3081154903114778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>15126.5151</v>
       </c>
@@ -1772,13 +1952,16 @@
         <v>3258857784.176424</v>
       </c>
       <c r="F60">
-        <v>9281268.46865187</v>
+        <v>-9281268.46865187</v>
       </c>
       <c r="G60">
         <v>182.3348335479448</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0.2918447953523169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>15180.8648</v>
       </c>
@@ -1795,13 +1978,16 @@
         <v>1854800454.515697</v>
       </c>
       <c r="F61">
-        <v>39080523.23495647</v>
+        <v>-39080523.23495647</v>
       </c>
       <c r="G61">
         <v>69.11817059749109</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0.1165125318342395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>15211.6866</v>
       </c>
@@ -1818,13 +2004,16 @@
         <v>3705141813.06572</v>
       </c>
       <c r="F62">
-        <v>23251624.81021379</v>
+        <v>-23251624.81021379</v>
       </c>
       <c r="G62">
         <v>277.8832990826441</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0.4331408516259484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>15223.782</v>
       </c>
@@ -1841,13 +2030,16 @@
         <v>3223982704.849172</v>
       </c>
       <c r="F63">
-        <v>14905797.98844591</v>
+        <v>-14905797.98844591</v>
       </c>
       <c r="G63">
         <v>387.9398314054862</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0.3851430895936556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>15228.8918</v>
       </c>
@@ -1864,13 +2056,16 @@
         <v>2355292363.132841</v>
       </c>
       <c r="F64">
-        <v>4009330.396214958</v>
+        <v>-4009330.396214958</v>
       </c>
       <c r="G64">
         <v>157.4861582376646</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0.1769774117760842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>15249.1397</v>
       </c>
@@ -1887,13 +2082,16 @@
         <v>3630380395.531632</v>
       </c>
       <c r="F65">
-        <v>18025201.92779333</v>
+        <v>-18025201.92779333</v>
       </c>
       <c r="G65">
         <v>334.2137252694796</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0.3773998264652626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>15250.6653</v>
       </c>
@@ -1910,13 +2108,16 @@
         <v>1107639082.173041</v>
       </c>
       <c r="F66">
-        <v>260580081.1625765</v>
+        <v>-260580081.1625765</v>
       </c>
       <c r="G66">
         <v>102.2198540424131</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0.09073517366669714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>15339.5784</v>
       </c>
@@ -1933,13 +2134,16 @@
         <v>3256569347.414473</v>
       </c>
       <c r="F67">
-        <v>-20886780.63261012</v>
+        <v>20886780.63261012</v>
       </c>
       <c r="G67">
         <v>537.452358866126</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0.4534573490256101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>15347.9951</v>
       </c>
@@ -1956,13 +2160,16 @@
         <v>2755933012.006021</v>
       </c>
       <c r="F68">
-        <v>40158856.45263437</v>
+        <v>-40158856.45263437</v>
       </c>
       <c r="G68">
         <v>101.5716236259524</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0.2242747228479715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>15494.572</v>
       </c>
@@ -1979,13 +2186,16 @@
         <v>1496411122.723968</v>
       </c>
       <c r="F69">
-        <v>-102506662.6875892</v>
+        <v>102506662.6875892</v>
       </c>
       <c r="G69">
         <v>243.7876290177686</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0.07275870586776545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>15518.5211</v>
       </c>
@@ -2002,13 +2212,16 @@
         <v>1369355575.743196</v>
       </c>
       <c r="F70">
-        <v>-99287991.6351856</v>
+        <v>99287991.6351856</v>
       </c>
       <c r="G70">
         <v>251.1387476538749</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0.09573122735755857</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>15523.6066</v>
       </c>
@@ -2025,13 +2238,16 @@
         <v>1331376628.093632</v>
       </c>
       <c r="F71">
-        <v>-59480893.18530277</v>
+        <v>59480893.18530277</v>
       </c>
       <c r="G71">
         <v>46.34888772717395</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0.1113970403173474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>15536.003</v>
       </c>
@@ -2048,13 +2264,16 @@
         <v>3060273067.410341</v>
       </c>
       <c r="F72">
-        <v>11301427.42831764</v>
+        <v>-11301427.42831764</v>
       </c>
       <c r="G72">
         <v>175.5993074487081</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0.2637201968508752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>15538.4919</v>
       </c>
@@ -2071,13 +2290,16 @@
         <v>3785816998.200178</v>
       </c>
       <c r="F73">
-        <v>15407605.52427121</v>
+        <v>-15407605.52427121</v>
       </c>
       <c r="G73">
         <v>191.0060096595961</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>0.3061096630590966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>15546.3307</v>
       </c>
@@ -2094,13 +2316,16 @@
         <v>3349839984.879492</v>
       </c>
       <c r="F74">
-        <v>-11518568.90202348</v>
+        <v>11518568.90202348</v>
       </c>
       <c r="G74">
         <v>-7.713523254235525</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0.2716448587094411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>15555.6848</v>
       </c>
@@ -2117,13 +2342,16 @@
         <v>2115502168.66674</v>
       </c>
       <c r="F75">
-        <v>18044504.93170052</v>
+        <v>-18044504.93170052</v>
       </c>
       <c r="G75">
         <v>304.5009523394917</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0.1553198299975723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>15592.5237</v>
       </c>
@@ -2140,13 +2368,16 @@
         <v>3345003900.470722</v>
       </c>
       <c r="F76">
-        <v>-7466818.371781709</v>
+        <v>7466818.371781709</v>
       </c>
       <c r="G76">
         <v>-34.60802334615429</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0.2849728050222721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>15603.1385</v>
       </c>
@@ -2163,13 +2394,16 @@
         <v>641019393.6751802</v>
       </c>
       <c r="F77">
-        <v>-176514311.1066101</v>
+        <v>176514311.1066101</v>
       </c>
       <c r="G77">
         <v>265.147676599972</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0.07101421308044442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>15615.4038</v>
       </c>
@@ -2186,13 +2420,16 @@
         <v>2128410984.442255</v>
       </c>
       <c r="F78">
-        <v>29292744.5491517</v>
+        <v>-29292744.5491517</v>
       </c>
       <c r="G78">
         <v>247.660755848954</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0.161362117607041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>15617.8987</v>
       </c>
@@ -2209,13 +2446,16 @@
         <v>1920806518.761335</v>
       </c>
       <c r="F79">
-        <v>14444204.9751977</v>
+        <v>-14444204.9751977</v>
       </c>
       <c r="G79">
         <v>99.81629483784745</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0.1789902725732976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>15625.9278</v>
       </c>
@@ -2232,13 +2472,16 @@
         <v>3308374422.757637</v>
       </c>
       <c r="F80">
-        <v>12927320.51711405</v>
+        <v>-12927320.51711405</v>
       </c>
       <c r="G80">
         <v>368.3630993007404</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0.4443422233718773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>15636.2214</v>
       </c>
@@ -2255,13 +2498,16 @@
         <v>3708052043.393218</v>
       </c>
       <c r="F81">
-        <v>15545737.79064793</v>
+        <v>-15545737.79064793</v>
       </c>
       <c r="G81">
         <v>230.0753746088103</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0.4284795679818084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>15652.791</v>
       </c>
@@ -2278,13 +2524,16 @@
         <v>3638577979.461855</v>
       </c>
       <c r="F82">
-        <v>5329848.285221979</v>
+        <v>-5329848.285221979</v>
       </c>
       <c r="G82">
         <v>42.13583432360907</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0.274951494347049</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>15657.151</v>
       </c>
@@ -2301,13 +2550,16 @@
         <v>2776986058.737023</v>
       </c>
       <c r="F83">
-        <v>5524094.789445193</v>
+        <v>-5524094.789445193</v>
       </c>
       <c r="G83">
         <v>271.8919236143388</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0.2204879042854734</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>15666.2978</v>
       </c>
@@ -2324,13 +2576,16 @@
         <v>3431266749.599977</v>
       </c>
       <c r="F84">
-        <v>6144866.720842819</v>
+        <v>-6144866.720842819</v>
       </c>
       <c r="G84">
         <v>256.424267459517</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0.3761397353210935</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>15669.5259</v>
       </c>
@@ -2347,13 +2602,16 @@
         <v>2161430199.950818</v>
       </c>
       <c r="F85">
-        <v>39521753.0038707</v>
+        <v>-39521753.0038707</v>
       </c>
       <c r="G85">
         <v>53.57015187109182</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0.1846932014278642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>15680.8729</v>
       </c>
@@ -2370,13 +2628,16 @@
         <v>2958394824.958137</v>
       </c>
       <c r="F86">
-        <v>-130391513.3155631</v>
+        <v>130391513.3155631</v>
       </c>
       <c r="G86">
         <v>30.58936425919826</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0.1095352302109741</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>15681.8073</v>
       </c>
@@ -2393,13 +2654,16 @@
         <v>3358313621.082551</v>
       </c>
       <c r="F87">
-        <v>940112.4217698813</v>
+        <v>-940112.4217698813</v>
       </c>
       <c r="G87">
         <v>281.0230382164584</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0.2959690392144889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>15686.8036</v>
       </c>
@@ -2416,13 +2680,16 @@
         <v>1497438084.829989</v>
       </c>
       <c r="F88">
-        <v>13984483.06792466</v>
+        <v>-13984483.06792466</v>
       </c>
       <c r="G88">
         <v>309.6002183101011</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0.1346798386803697</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>15690.7319</v>
       </c>
@@ -2439,13 +2706,16 @@
         <v>3691882257.913296</v>
       </c>
       <c r="F89">
-        <v>-70925485.27770038</v>
+        <v>70925485.27770038</v>
       </c>
       <c r="G89">
         <v>43.94458190379509</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>0.2996072714044568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>15696.1452</v>
       </c>
@@ -2462,13 +2732,16 @@
         <v>3389258173.328023</v>
       </c>
       <c r="F90">
-        <v>13139329.48703831</v>
+        <v>-13139329.48703831</v>
       </c>
       <c r="G90">
         <v>374.3551108861444</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0.3678593444319519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>15727.8899</v>
       </c>
@@ -2485,13 +2758,16 @@
         <v>3360735596.695724</v>
       </c>
       <c r="F91">
-        <v>1424466.953564628</v>
+        <v>-1424466.953564628</v>
       </c>
       <c r="G91">
         <v>249.7017225159084</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0.4054824924645283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>15778.3807</v>
       </c>
@@ -2508,13 +2784,16 @@
         <v>2775194890.509315</v>
       </c>
       <c r="F92">
-        <v>46096031.02674194</v>
+        <v>-46096031.02674194</v>
       </c>
       <c r="G92">
         <v>98.80106273223207</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0.3723288103306039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>15793.3148</v>
       </c>
@@ -2531,13 +2810,16 @@
         <v>3272568222.625025</v>
       </c>
       <c r="F93">
-        <v>1256206.585799897</v>
+        <v>-1256206.585799897</v>
       </c>
       <c r="G93">
         <v>324.5962672596718</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0.3233172122556545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>15820.9574</v>
       </c>
@@ -2554,13 +2836,16 @@
         <v>1984738847.859315</v>
       </c>
       <c r="F94">
-        <v>3376419.004386254</v>
+        <v>-3376419.004386254</v>
       </c>
       <c r="G94">
         <v>100.4300806716848</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0.1612902026675819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>15822.4644</v>
       </c>
@@ -2577,13 +2862,16 @@
         <v>2977581355.170902</v>
       </c>
       <c r="F95">
-        <v>4201763.757616004</v>
+        <v>-4201763.757616004</v>
       </c>
       <c r="G95">
         <v>414.9451478422461</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0.4415645291109971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>15823.4608</v>
       </c>
@@ -2600,13 +2888,16 @@
         <v>2551710361.498037</v>
       </c>
       <c r="F96">
-        <v>-25374146.47156611</v>
+        <v>25374146.47156611</v>
       </c>
       <c r="G96">
         <v>208.4068130961335</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0.2550195298247916</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>15826.0352</v>
       </c>
@@ -2623,13 +2914,16 @@
         <v>2189644938.355878</v>
       </c>
       <c r="F97">
-        <v>-17936058.31621805</v>
+        <v>17936058.31621805</v>
       </c>
       <c r="G97">
         <v>172.3812270593169</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0.181240817154657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>15827.1448</v>
       </c>
@@ -2646,13 +2940,16 @@
         <v>4022960594.522149</v>
       </c>
       <c r="F98">
-        <v>-12832525.2108562</v>
+        <v>12832525.2108562</v>
       </c>
       <c r="G98">
         <v>225.4058009455241</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0.3619750833147793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>15839.4915</v>
       </c>
@@ -2669,13 +2966,16 @@
         <v>3121919735.65976</v>
       </c>
       <c r="F99">
-        <v>-2315641.968682407</v>
+        <v>2315641.968682407</v>
       </c>
       <c r="G99">
         <v>431.5333003021923</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0.3784642904295059</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>15857.6516</v>
       </c>
@@ -2692,13 +2992,16 @@
         <v>1731865508.150192</v>
       </c>
       <c r="F100">
-        <v>73051761.23565413</v>
+        <v>-73051761.23565413</v>
       </c>
       <c r="G100">
         <v>1.890522443555685</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0.1399407860587148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>15868.0489</v>
       </c>
@@ -2715,13 +3018,16 @@
         <v>3139864006.512664</v>
       </c>
       <c r="F101">
-        <v>26694836.80401955</v>
+        <v>-26694836.80401955</v>
       </c>
       <c r="G101">
         <v>360.8531826447532</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0.2671023876389835</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>15872.8622</v>
       </c>
@@ -2738,13 +3044,16 @@
         <v>3555038684.349282</v>
       </c>
       <c r="F102">
-        <v>11382656.53319679</v>
+        <v>-11382656.53319679</v>
       </c>
       <c r="G102">
         <v>330.5243848898632</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0.3705940902464075</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>15882.7876</v>
       </c>
@@ -2761,13 +3070,16 @@
         <v>3312740761.39504</v>
       </c>
       <c r="F103">
-        <v>-7834604.476762424</v>
+        <v>7834604.476762424</v>
       </c>
       <c r="G103">
         <v>166.1026827974451</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0.2843355863178736</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>15899.5732</v>
       </c>
@@ -2784,13 +3096,16 @@
         <v>3151944383.743469</v>
       </c>
       <c r="F104">
-        <v>-7595046.538135923</v>
+        <v>7595046.538135923</v>
       </c>
       <c r="G104">
         <v>328.0835720292703</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0.3262042948627143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>15905.8653</v>
       </c>
@@ -2807,13 +3122,16 @@
         <v>2723534864.191213</v>
       </c>
       <c r="F105">
-        <v>9337295.743194398</v>
+        <v>-9337295.743194398</v>
       </c>
       <c r="G105">
         <v>82.93084284040249</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0.2033618662005523</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>15910.3901</v>
       </c>
@@ -2830,13 +3148,16 @@
         <v>3508808338.613146</v>
       </c>
       <c r="F106">
-        <v>34674361.21255974</v>
+        <v>-34674361.21255974</v>
       </c>
       <c r="G106">
         <v>258.1430529977978</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0.3531457441222818</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>15915.6521</v>
       </c>
@@ -2853,13 +3174,16 @@
         <v>3318848889.865634</v>
       </c>
       <c r="F107">
-        <v>19919719.44406146</v>
+        <v>-19919719.44406146</v>
       </c>
       <c r="G107">
         <v>231.6868458079414</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0.3210528996917547</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>15975.6174</v>
       </c>
@@ -2876,13 +3200,16 @@
         <v>1720394457.41666</v>
       </c>
       <c r="F108">
-        <v>73252353.96180697</v>
+        <v>-73252353.96180697</v>
       </c>
       <c r="G108">
         <v>-5.629687746690727</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0.1261742097771656</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>15985.0942</v>
       </c>
@@ -2899,13 +3226,16 @@
         <v>3133499126.051802</v>
       </c>
       <c r="F109">
-        <v>26487956.92375318</v>
+        <v>-26487956.92375318</v>
       </c>
       <c r="G109">
         <v>513.8733151715904</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0.4158214756267831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>16002.0995</v>
       </c>
@@ -2922,13 +3252,16 @@
         <v>2558647282.837667</v>
       </c>
       <c r="F110">
-        <v>8682077.774653837</v>
+        <v>-8682077.774653837</v>
       </c>
       <c r="G110">
         <v>97.41976553934342</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0.204670223380907</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>16013.9898</v>
       </c>
@@ -2945,13 +3278,16 @@
         <v>3626362545.983729</v>
       </c>
       <c r="F111">
-        <v>21895157.18864502</v>
+        <v>-21895157.18864502</v>
       </c>
       <c r="G111">
         <v>41.18545194646949</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0.3337429393805633</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>16033.8018</v>
       </c>
@@ -2968,13 +3304,16 @@
         <v>1277680401.84855</v>
       </c>
       <c r="F112">
-        <v>51875006.56585878</v>
+        <v>-51875006.56585878</v>
       </c>
       <c r="G112">
         <v>272.9839087463706</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0.1093389375896945</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>16045.0391</v>
       </c>
@@ -2991,13 +3330,16 @@
         <v>3492410645.778711</v>
       </c>
       <c r="F113">
-        <v>7629008.36744724</v>
+        <v>-7629008.36744724</v>
       </c>
       <c r="G113">
         <v>214.870979469381</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0.3703739027245262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>16075.7929</v>
       </c>
@@ -3014,13 +3356,16 @@
         <v>2869088868.426933</v>
       </c>
       <c r="F114">
-        <v>-21402897.52163912</v>
+        <v>21402897.52163912</v>
       </c>
       <c r="G114">
         <v>292.7844131468875</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0.2547680026496776</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>16080.3141</v>
       </c>
@@ -3037,13 +3382,16 @@
         <v>2928469922.12919</v>
       </c>
       <c r="F115">
-        <v>14639445.61954908</v>
+        <v>-14639445.61954908</v>
       </c>
       <c r="G115">
         <v>134.2328068970648</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0.2850064315843686</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>16093.1316</v>
       </c>
@@ -3060,13 +3408,16 @@
         <v>5881421966.728233</v>
       </c>
       <c r="F116">
-        <v>-42492104.45779014</v>
+        <v>42492104.45779014</v>
       </c>
       <c r="G116">
         <v>-137.8516154967916</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0.2468524416413167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>16160.9789</v>
       </c>
@@ -3083,13 +3434,16 @@
         <v>2618658247.111792</v>
       </c>
       <c r="F117">
-        <v>-19895462.42167929</v>
+        <v>19895462.42167929</v>
       </c>
       <c r="G117">
         <v>103.8821828568387</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0.2127408609809779</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>16179.3972</v>
       </c>
@@ -3106,13 +3460,16 @@
         <v>2829358146.408769</v>
       </c>
       <c r="F118">
-        <v>-36547100.96472555</v>
+        <v>36547100.96472555</v>
       </c>
       <c r="G118">
         <v>353.9091028653904</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0.2668194343188615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>16185.3311</v>
       </c>
@@ -3129,13 +3486,16 @@
         <v>3133390673.07931</v>
       </c>
       <c r="F119">
-        <v>-4532024.68046705</v>
+        <v>4532024.68046705</v>
       </c>
       <c r="G119">
         <v>331.5523769479758</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0.2910501553658875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>16199.487</v>
       </c>
@@ -3152,13 +3512,16 @@
         <v>2764932351.493311</v>
       </c>
       <c r="F120">
-        <v>16619189.83752748</v>
+        <v>-16619189.83752748</v>
       </c>
       <c r="G120">
         <v>342.3664263381521</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0.2633273589903313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>16202.9307</v>
       </c>
@@ -3175,13 +3538,16 @@
         <v>4044677549.196068</v>
       </c>
       <c r="F121">
-        <v>15095353.39127744</v>
+        <v>-15095353.39127744</v>
       </c>
       <c r="G121">
         <v>81.41038431483929</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0.3383293092022073</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>16208.6822</v>
       </c>
@@ -3198,13 +3564,16 @@
         <v>2093577827.286536</v>
       </c>
       <c r="F122">
-        <v>-39141542.31144371</v>
+        <v>39141542.31144371</v>
       </c>
       <c r="G122">
         <v>92.47897340587421</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0.2721761137192119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>16212.1746</v>
       </c>
@@ -3221,13 +3590,16 @@
         <v>3179222056.615446</v>
       </c>
       <c r="F123">
-        <v>28992438.82611369</v>
+        <v>-28992438.82611369</v>
       </c>
       <c r="G123">
         <v>392.0263793176198</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>0.3465751080497704</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>16230.0565</v>
       </c>
@@ -3244,13 +3616,16 @@
         <v>2576563446.582314</v>
       </c>
       <c r="F124">
-        <v>4456211.232154349</v>
+        <v>-4456211.232154349</v>
       </c>
       <c r="G124">
         <v>319.5558514401135</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0.2279091477755157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>16236.0883</v>
       </c>
@@ -3267,13 +3642,16 @@
         <v>3095424452.912705</v>
       </c>
       <c r="F125">
-        <v>15887395.34195823</v>
+        <v>-15887395.34195823</v>
       </c>
       <c r="G125">
         <v>347.1339959839592</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>0.3331174967952071</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>16240.4048</v>
       </c>
@@ -3290,13 +3668,16 @@
         <v>2524462559.141798</v>
       </c>
       <c r="F126">
-        <v>-20463206.05191058</v>
+        <v>20463206.05191058</v>
       </c>
       <c r="G126">
         <v>219.6700325181319</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>0.2409366930462681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>16250.9009</v>
       </c>
@@ -3313,13 +3694,16 @@
         <v>2387424251.933375</v>
       </c>
       <c r="F127">
-        <v>-21318329.71836824</v>
+        <v>21318329.71836824</v>
       </c>
       <c r="G127">
         <v>269.3370609356932</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>0.1971182439221921</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>16289.221</v>
       </c>
@@ -3336,13 +3720,16 @@
         <v>2701662462.370373</v>
       </c>
       <c r="F128">
-        <v>-22456878.06023574</v>
+        <v>22456878.06023574</v>
       </c>
       <c r="G128">
         <v>430.6616944641905</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>0.2421817934605625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>16297.2992</v>
       </c>
@@ -3359,13 +3746,16 @@
         <v>2373912766.56643</v>
       </c>
       <c r="F129">
-        <v>-6287354.073957154</v>
+        <v>6287354.073957154</v>
       </c>
       <c r="G129">
         <v>40.46949130141842</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>0.193477939367108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>16320.783</v>
       </c>
@@ -3382,13 +3772,16 @@
         <v>2288132164.547809</v>
       </c>
       <c r="F130">
-        <v>-51227219.09015395</v>
+        <v>51227219.09015395</v>
       </c>
       <c r="G130">
         <v>495.9563745355763</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>0.4410555585752565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>16323.1594</v>
       </c>
@@ -3405,13 +3798,16 @@
         <v>2344624347.877722</v>
       </c>
       <c r="F131">
-        <v>-3006011.11654563</v>
+        <v>3006011.11654563</v>
       </c>
       <c r="G131">
         <v>191.0072361620598</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>0.203581244422123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>16335.9908</v>
       </c>
@@ -3428,13 +3824,16 @@
         <v>2324035744.369361</v>
       </c>
       <c r="F132">
-        <v>39089639.85088311</v>
+        <v>-39089639.85088311</v>
       </c>
       <c r="G132">
         <v>36.7033088949083</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>0.1818702219900509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>16388.6201</v>
       </c>
@@ -3451,13 +3850,16 @@
         <v>1935730441.132565</v>
       </c>
       <c r="F133">
-        <v>-120891807.0093691</v>
+        <v>120891807.0093691</v>
       </c>
       <c r="G133">
         <v>208.5370214600775</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>0.1580072208661591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>16398.8704</v>
       </c>
@@ -3474,13 +3876,16 @@
         <v>3128094910.877211</v>
       </c>
       <c r="F134">
-        <v>12752656.47561182</v>
+        <v>-12752656.47561182</v>
       </c>
       <c r="G134">
         <v>142.5940394123858</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>0.3533060889647369</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>16409.0824</v>
       </c>
@@ -3497,13 +3902,16 @@
         <v>2985467084.742025</v>
       </c>
       <c r="F135">
-        <v>7865713.081280822</v>
+        <v>-7865713.081280822</v>
       </c>
       <c r="G135">
         <v>321.5504153084832</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>0.3185623719321544</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>16441.1165</v>
       </c>
@@ -3520,13 +3928,16 @@
         <v>2539554703.956648</v>
       </c>
       <c r="F136">
-        <v>28550976.2097047</v>
+        <v>-28550976.2097047</v>
       </c>
       <c r="G136">
         <v>133.1104821214017</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>0.2267783788539568</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>16444.8936</v>
       </c>
@@ -3543,13 +3954,16 @@
         <v>2122137809.853559</v>
       </c>
       <c r="F137">
-        <v>-65936362.86466946</v>
+        <v>65936362.86466946</v>
       </c>
       <c r="G137">
         <v>313.5581417605769</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>0.1840338273925146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>16449.311</v>
       </c>
@@ -3566,13 +3980,16 @@
         <v>3267782809.83175</v>
       </c>
       <c r="F138">
-        <v>32685213.94314819</v>
+        <v>-32685213.94314819</v>
       </c>
       <c r="G138">
         <v>382.7298065708976</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>0.4274566662816801</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>16491.1731</v>
       </c>
@@ -3589,13 +4006,16 @@
         <v>2910109884.384812</v>
       </c>
       <c r="F139">
-        <v>11321095.68117637</v>
+        <v>-11321095.68117637</v>
       </c>
       <c r="G139">
         <v>430.8414697035229</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>0.451917408463142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>16521.7407</v>
       </c>
@@ -3612,13 +4032,16 @@
         <v>3265067322.629371</v>
       </c>
       <c r="F140">
-        <v>-2226455.036940136</v>
+        <v>2226455.036940136</v>
       </c>
       <c r="G140">
         <v>377.4228902383945</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0.3644826634808077</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>16543.7138</v>
       </c>
@@ -3635,13 +4058,16 @@
         <v>2365213727.85796</v>
       </c>
       <c r="F141">
-        <v>30673859.85569298</v>
+        <v>-30673859.85569298</v>
       </c>
       <c r="G141">
         <v>326.1821565130869</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0.1880430798961218</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>16556.5189</v>
       </c>
@@ -3658,13 +4084,16 @@
         <v>2429909011.294053</v>
       </c>
       <c r="F142">
-        <v>-16523722.63063598</v>
+        <v>16523722.63063598</v>
       </c>
       <c r="G142">
         <v>405.6016304391342</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>0.2244873897585358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>16566.2943</v>
       </c>
@@ -3681,13 +4110,16 @@
         <v>3024902844.993293</v>
       </c>
       <c r="F143">
-        <v>26526815.54057986</v>
+        <v>-26526815.54057986</v>
       </c>
       <c r="G143">
         <v>544.7055824357349</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0.3370203912934385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>16650.4242</v>
       </c>
@@ -3704,13 +4136,16 @@
         <v>2935604332.999224</v>
       </c>
       <c r="F144">
-        <v>-9043179.713305684</v>
+        <v>9043179.713305684</v>
       </c>
       <c r="G144">
         <v>70.21986776515132</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0.2640166078161914</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>16670.0368</v>
       </c>
@@ -3727,13 +4162,16 @@
         <v>2969276017.595953</v>
       </c>
       <c r="F145">
-        <v>45951324.73962834</v>
+        <v>-45951324.73962834</v>
       </c>
       <c r="G145">
         <v>118.6938124995394</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0.2605377600770622</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>16727.8488</v>
       </c>
@@ -3750,13 +4188,16 @@
         <v>2397325331.73465</v>
       </c>
       <c r="F146">
-        <v>-35583227.94198732</v>
+        <v>35583227.94198732</v>
       </c>
       <c r="G146">
         <v>89.6087900242761</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>0.224178153976504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>16730.0121</v>
       </c>
@@ -3773,13 +4214,16 @@
         <v>505954929.6191821</v>
       </c>
       <c r="F147">
-        <v>-315653138.2201879</v>
+        <v>315653138.2201879</v>
       </c>
       <c r="G147">
         <v>114.684419813436</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>0.0512515292253517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>16757.6467</v>
       </c>
@@ -3796,13 +4240,16 @@
         <v>2634097295.423865</v>
       </c>
       <c r="F148">
-        <v>14186611.91552306</v>
+        <v>-14186611.91552306</v>
       </c>
       <c r="G148">
         <v>316.651054994061</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>0.2543007274486686</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>16804.2402</v>
       </c>
@@ -3819,13 +4266,16 @@
         <v>2153922306.858066</v>
       </c>
       <c r="F149">
-        <v>-104028839.900463</v>
+        <v>104028839.900463</v>
       </c>
       <c r="G149">
         <v>121.3139475424352</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>0.2022607452821291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>16974.5482</v>
       </c>
@@ -3842,13 +4292,16 @@
         <v>2738149516.287169</v>
       </c>
       <c r="F150">
-        <v>-5315605.952762325</v>
+        <v>5315605.952762325</v>
       </c>
       <c r="G150">
         <v>150.1209848485497</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0.275049646207114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>17015.7476</v>
       </c>
@@ -3865,13 +4318,16 @@
         <v>3196825565.453818</v>
       </c>
       <c r="F151">
-        <v>39561255.61846042</v>
+        <v>-39561255.61846042</v>
       </c>
       <c r="G151">
         <v>100.4256205295912</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0.2911184933888755</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>17042.4469</v>
       </c>
@@ -3888,13 +4344,16 @@
         <v>1499806598.330992</v>
       </c>
       <c r="F152">
-        <v>27980409.52283004</v>
+        <v>-27980409.52283004</v>
       </c>
       <c r="G152">
         <v>54.53187711609101</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0.1307356644316816</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>17165.7965</v>
       </c>
@@ -3911,13 +4370,16 @@
         <v>2868653579.087183</v>
       </c>
       <c r="F153">
-        <v>9407379.650744831</v>
+        <v>-9407379.650744831</v>
       </c>
       <c r="G153">
         <v>134.4768316275478</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0.248327186007527</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>17209.0026</v>
       </c>
@@ -3934,13 +4396,16 @@
         <v>2297603256.137409</v>
       </c>
       <c r="F154">
-        <v>55151778.96647949</v>
+        <v>-55151778.96647949</v>
       </c>
       <c r="G154">
         <v>83.61924462412458</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>0.2735108696719739</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>17307.0446</v>
       </c>
@@ -3957,13 +4422,16 @@
         <v>3115670104.780177</v>
       </c>
       <c r="F155">
-        <v>-20684258.06144327</v>
+        <v>20684258.06144327</v>
       </c>
       <c r="G155">
         <v>93.53874735469434</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0.2996864325395471</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>17315.5826</v>
       </c>
@@ -3980,13 +4448,16 @@
         <v>2184124492.427251</v>
       </c>
       <c r="F156">
-        <v>59042938.8992428</v>
+        <v>-59042938.8992428</v>
       </c>
       <c r="G156">
         <v>34.6268981373526</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0.07181799408757084</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>17688.7397</v>
       </c>
@@ -4003,10 +4474,13 @@
         <v>2313138605.45255</v>
       </c>
       <c r="F157">
-        <v>12747770.98337865</v>
+        <v>-12747770.98337865</v>
       </c>
       <c r="G157">
         <v>111.8581796353327</v>
+      </c>
+      <c r="H157">
+        <v>0.2712122151904077</v>
       </c>
     </row>
   </sheetData>
